--- a/Daily/Forecast/Stationaritiy/Percentage Return/sony.xlsx
+++ b/Daily/Forecast/Stationaritiy/Percentage Return/sony.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,2501 +411,2701 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>2584</v>
+        <v>2574</v>
       </c>
       <c r="B2">
-        <v>2583</v>
+        <v>2573</v>
       </c>
       <c r="C2">
-        <v>-0.009074921190474608</v>
+        <v>0.00653450131841638</v>
       </c>
       <c r="D2">
-        <v>-4.162306689123937</v>
+        <v>-4.15104695478656</v>
       </c>
       <c r="E2">
-        <v>4.144156846742987</v>
+        <v>4.164115957423393</v>
       </c>
       <c r="F2">
-        <v>-0.6925487858712387</v>
+        <v>2.26204464360471</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>2585</v>
+        <v>2575</v>
       </c>
       <c r="B3">
-        <v>2584</v>
+        <v>2574</v>
       </c>
       <c r="C3">
-        <v>-0.004737739062145304</v>
+        <v>0.0146613712984222</v>
       </c>
       <c r="D3">
-        <v>-4.157249398592691</v>
+        <v>-4.143025545135195</v>
       </c>
       <c r="E3">
-        <v>4.147773920468401</v>
+        <v>4.17234828773204</v>
       </c>
       <c r="F3">
-        <v>0.4743668811379109</v>
+        <v>0.1081665870740878</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2586</v>
+        <v>2576</v>
       </c>
       <c r="B4">
-        <v>2585</v>
+        <v>2575</v>
       </c>
       <c r="C4">
-        <v>0.003269268402696477</v>
+        <v>0.0006567514580734775</v>
       </c>
       <c r="D4">
-        <v>-4.14848019922225</v>
+        <v>-4.156224337737436</v>
       </c>
       <c r="E4">
-        <v>4.155018736027642</v>
+        <v>4.157537840653584</v>
       </c>
       <c r="F4">
-        <v>-1.94823291249655</v>
+        <v>-1.965128739728961</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>2587</v>
+        <v>2577</v>
       </c>
       <c r="B5">
-        <v>2586</v>
+        <v>2576</v>
       </c>
       <c r="C5">
-        <v>-0.01321542103723029</v>
+        <v>-0.01282880370184079</v>
       </c>
       <c r="D5">
-        <v>-4.164843469518408</v>
+        <v>-4.169596204124087</v>
       </c>
       <c r="E5">
-        <v>4.138412627443947</v>
+        <v>4.143938596720405</v>
       </c>
       <c r="F5">
-        <v>-1.270095519456405</v>
+        <v>-1.667631753512566</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>2588</v>
+        <v>2578</v>
       </c>
       <c r="B6">
-        <v>2587</v>
+        <v>2577</v>
       </c>
       <c r="C6">
-        <v>-0.008829679506229322</v>
+        <v>-0.01130633367538612</v>
       </c>
       <c r="D6">
-        <v>-4.159937732467505</v>
+        <v>-4.167758122968864</v>
       </c>
       <c r="E6">
-        <v>4.142278373455046</v>
+        <v>4.145145455618091</v>
       </c>
       <c r="F6">
-        <v>-1.97424787292011</v>
+        <v>2.107676467994857</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>2589</v>
+        <v>2579</v>
       </c>
       <c r="B7">
-        <v>2588</v>
+        <v>2578</v>
       </c>
       <c r="C7">
-        <v>-0.01418369137478818</v>
+        <v>0.01373692349691217</v>
       </c>
       <c r="D7">
-        <v>-4.165180325646068</v>
+        <v>-4.142713364281922</v>
       </c>
       <c r="E7">
-        <v>4.136812942896491</v>
+        <v>4.170187211275747</v>
       </c>
       <c r="F7">
-        <v>-0.3841725815998842</v>
+        <v>1.019302600208682</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>2590</v>
+        <v>2580</v>
       </c>
       <c r="B8">
-        <v>2589</v>
+        <v>2579</v>
       </c>
       <c r="C8">
-        <v>-0.002738987523040201</v>
+        <v>0.00673414166492718</v>
       </c>
       <c r="D8">
-        <v>-4.152958350030401</v>
+        <v>-4.149091430955368</v>
       </c>
       <c r="E8">
-        <v>4.147480374984321</v>
+        <v>4.162559714285223</v>
       </c>
       <c r="F8">
-        <v>-1.239365205496412</v>
+        <v>0.8295809524154762</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>2591</v>
+        <v>2581</v>
       </c>
       <c r="B9">
-        <v>2590</v>
+        <v>2580</v>
       </c>
       <c r="C9">
-        <v>-0.009040579919420037</v>
+        <v>0.005583462572215869</v>
       </c>
       <c r="D9">
-        <v>-4.158731974214843</v>
+        <v>-4.149557938057561</v>
       </c>
       <c r="E9">
-        <v>4.140650814376004</v>
+        <v>4.160724863201993</v>
       </c>
       <c r="F9">
-        <v>2.539574726962712</v>
+        <v>0.8227554907572099</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>2592</v>
+        <v>2582</v>
       </c>
       <c r="B10">
-        <v>2591</v>
+        <v>2581</v>
       </c>
       <c r="C10">
-        <v>0.01798688919217502</v>
+        <v>0.005560204380617457</v>
       </c>
       <c r="D10">
-        <v>-4.132063923642916</v>
+        <v>-4.148895806169835</v>
       </c>
       <c r="E10">
-        <v>4.168037702027265</v>
+        <v>4.16001621493107</v>
       </c>
       <c r="F10">
-        <v>-0.8393792128469357</v>
+        <v>-0.6074701546470607</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>2593</v>
+        <v>2583</v>
       </c>
       <c r="B11">
-        <v>2592</v>
+        <v>2582</v>
       </c>
       <c r="C11">
-        <v>-0.005836367735834736</v>
+        <v>-0.004132674686314924</v>
       </c>
       <c r="D11">
-        <v>-4.155217724640255</v>
+        <v>-4.157851394977761</v>
       </c>
       <c r="E11">
-        <v>4.143544989168585</v>
+        <v>4.149586045605131</v>
       </c>
       <c r="F11">
-        <v>-0.6534714778075212</v>
+        <v>-1.335036967280345</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>2594</v>
+        <v>2584</v>
       </c>
       <c r="B12">
-        <v>2593</v>
+        <v>2583</v>
       </c>
       <c r="C12">
-        <v>-0.004508080231392323</v>
+        <v>-0.009074921190474608</v>
       </c>
       <c r="D12">
-        <v>-4.153164144927943</v>
+        <v>-4.162306689123937</v>
       </c>
       <c r="E12">
-        <v>4.144147984465158</v>
+        <v>4.144156846742987</v>
       </c>
       <c r="F12">
-        <v>2.77637151999901</v>
+        <v>-0.6925487858712387</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>2595</v>
+        <v>2585</v>
       </c>
       <c r="B13">
-        <v>2594</v>
+        <v>2584</v>
       </c>
       <c r="C13">
-        <v>0.01882358746013396</v>
+        <v>-0.004737739062145304</v>
       </c>
       <c r="D13">
-        <v>-4.130412981084034</v>
+        <v>-4.157249398592691</v>
       </c>
       <c r="E13">
-        <v>4.168060156004302</v>
+        <v>4.147773920468401</v>
       </c>
       <c r="F13">
-        <v>-1.017916423533016</v>
+        <v>0.4743668811379109</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>2596</v>
+        <v>2586</v>
       </c>
       <c r="B14">
-        <v>2595</v>
+        <v>2585</v>
       </c>
       <c r="C14">
-        <v>-0.006701105135191291</v>
+        <v>0.003269268402696477</v>
       </c>
       <c r="D14">
-        <v>-4.155329730379817</v>
+        <v>-4.14848019922225</v>
       </c>
       <c r="E14">
-        <v>4.141927520109434</v>
+        <v>4.155018736027642</v>
       </c>
       <c r="F14">
-        <v>0.867766245173307</v>
+        <v>-1.94823291249655</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>2597</v>
+        <v>2587</v>
       </c>
       <c r="B15">
-        <v>2596</v>
+        <v>2586</v>
       </c>
       <c r="C15">
-        <v>0.005621479171035287</v>
+        <v>-0.01321542103723029</v>
       </c>
       <c r="D15">
-        <v>-4.142344407293697</v>
+        <v>-4.164843469518408</v>
       </c>
       <c r="E15">
-        <v>4.153587365635767</v>
+        <v>4.138412627443947</v>
       </c>
       <c r="F15">
-        <v>-1.247417422517572</v>
+        <v>-1.270095519456405</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>2598</v>
+        <v>2588</v>
       </c>
       <c r="B16">
-        <v>2597</v>
+        <v>2587</v>
       </c>
       <c r="C16">
-        <v>-0.007890616668782078</v>
+        <v>-0.008829679506229322</v>
       </c>
       <c r="D16">
-        <v>-4.155337804936172</v>
+        <v>-4.159937732467505</v>
       </c>
       <c r="E16">
-        <v>4.139556571598607</v>
+        <v>4.142278373455046</v>
       </c>
       <c r="F16">
-        <v>-1.070755928122935</v>
+        <v>-1.97424787292011</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>2599</v>
+        <v>2589</v>
       </c>
       <c r="B17">
-        <v>2598</v>
+        <v>2588</v>
       </c>
       <c r="C17">
-        <v>-0.006865069391594005</v>
+        <v>-0.01418369137478818</v>
       </c>
       <c r="D17">
-        <v>-4.153715365123975</v>
+        <v>-4.165180325646068</v>
       </c>
       <c r="E17">
-        <v>4.139985226340786</v>
+        <v>4.136812942896491</v>
       </c>
       <c r="F17">
-        <v>-1.35477202730705</v>
+        <v>-0.3841725815998842</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>2600</v>
+        <v>2590</v>
       </c>
       <c r="B18">
-        <v>2599</v>
+        <v>2589</v>
       </c>
       <c r="C18">
-        <v>-0.008861890002626667</v>
+        <v>-0.002738987523040201</v>
       </c>
       <c r="D18">
-        <v>-4.155238154383013</v>
+        <v>-4.152958350030401</v>
       </c>
       <c r="E18">
-        <v>4.137514374377759</v>
+        <v>4.147480374984321</v>
       </c>
       <c r="F18">
-        <v>-1.215462915029697</v>
+        <v>-1.239365205496412</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>2601</v>
+        <v>2591</v>
       </c>
       <c r="B19">
-        <v>2600</v>
+        <v>2590</v>
       </c>
       <c r="C19">
-        <v>-0.008160092212755482</v>
+        <v>-0.009040579919420037</v>
       </c>
       <c r="D19">
-        <v>-4.153998293976893</v>
+        <v>-4.158731974214843</v>
       </c>
       <c r="E19">
-        <v>4.137678109551381</v>
+        <v>4.140650814376004</v>
       </c>
       <c r="F19">
-        <v>-1.79109265665307</v>
+        <v>2.539574726962712</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>2602</v>
+        <v>2592</v>
       </c>
       <c r="B20">
-        <v>2601</v>
+        <v>2591</v>
       </c>
       <c r="C20">
-        <v>-0.01237220407029426</v>
+        <v>0.01798688919217502</v>
       </c>
       <c r="D20">
-        <v>-4.157979635435351</v>
+        <v>-4.132063923642916</v>
       </c>
       <c r="E20">
-        <v>4.133235227294763</v>
+        <v>4.168037702027265</v>
       </c>
       <c r="F20">
-        <v>4.3997669613697</v>
+        <v>-0.8393792128469357</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>2603</v>
+        <v>2593</v>
       </c>
       <c r="B21">
-        <v>2602</v>
+        <v>2592</v>
       </c>
       <c r="C21">
-        <v>0.02730808568836945</v>
+        <v>-0.005836367735834736</v>
       </c>
       <c r="D21">
-        <v>-4.120967246612443</v>
+        <v>-4.155217724640255</v>
       </c>
       <c r="E21">
-        <v>4.175583417989182</v>
+        <v>4.143544989168585</v>
       </c>
       <c r="F21">
-        <v>-1.08192709163788</v>
+        <v>-0.6534714778075212</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>2604</v>
+        <v>2594</v>
       </c>
       <c r="B22">
-        <v>2603</v>
+        <v>2593</v>
       </c>
       <c r="C22">
-        <v>-0.006353079415923637</v>
+        <v>-0.004508080231392323</v>
       </c>
       <c r="D22">
-        <v>-4.154050051062362</v>
+        <v>-4.153164144927943</v>
       </c>
       <c r="E22">
-        <v>4.141343892230515</v>
+        <v>4.144147984465158</v>
       </c>
       <c r="F22">
-        <v>2.53178079842904</v>
+        <v>2.77637151999901</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>2605</v>
+        <v>2595</v>
       </c>
       <c r="B23">
-        <v>2604</v>
+        <v>2594</v>
       </c>
       <c r="C23">
-        <v>0.01406553165026901</v>
+        <v>0.01882358746013396</v>
       </c>
       <c r="D23">
-        <v>-4.133980513588028</v>
+        <v>-4.130412981084034</v>
       </c>
       <c r="E23">
-        <v>4.162111576888567</v>
+        <v>4.168060156004302</v>
       </c>
       <c r="F23">
-        <v>0.4158010148662683</v>
+        <v>-1.017916423533016</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>2606</v>
+        <v>2596</v>
       </c>
       <c r="B24">
-        <v>2605</v>
+        <v>2595</v>
       </c>
       <c r="C24">
-        <v>0.003961239495455599</v>
+        <v>-0.006701105135191291</v>
       </c>
       <c r="D24">
-        <v>-4.143308435849524</v>
+        <v>-4.155329730379817</v>
       </c>
       <c r="E24">
-        <v>4.151230914840435</v>
+        <v>4.141927520109434</v>
       </c>
       <c r="F24">
-        <v>-1.367282979000173</v>
+        <v>0.867766245173307</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>2607</v>
+        <v>2597</v>
       </c>
       <c r="B25">
-        <v>2606</v>
+        <v>2596</v>
       </c>
       <c r="C25">
-        <v>-0.007719658049451961</v>
+        <v>0.005621479171035287</v>
       </c>
       <c r="D25">
-        <v>-4.154527629582283</v>
+        <v>-4.142344407293697</v>
       </c>
       <c r="E25">
-        <v>4.139088313483379</v>
+        <v>4.153587365635767</v>
       </c>
       <c r="F25">
-        <v>0.3054603367850461</v>
+        <v>-1.247417422517572</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>2608</v>
+        <v>2598</v>
       </c>
       <c r="B26">
-        <v>2607</v>
+        <v>2597</v>
       </c>
       <c r="C26">
-        <v>0.001722214893471461</v>
+        <v>-0.007890616668782078</v>
       </c>
       <c r="D26">
-        <v>-4.144315928917342</v>
+        <v>-4.155337804936172</v>
       </c>
       <c r="E26">
-        <v>4.147760358704284</v>
+        <v>4.139556571598607</v>
       </c>
       <c r="F26">
-        <v>1.137237427086646</v>
+        <v>-1.070755928122935</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>2609</v>
+        <v>2599</v>
       </c>
       <c r="B27">
-        <v>2608</v>
+        <v>2598</v>
       </c>
       <c r="C27">
-        <v>0.006367010395498232</v>
+        <v>-0.006865069391594005</v>
       </c>
       <c r="D27">
-        <v>-4.139105275362258</v>
+        <v>-4.153715365123975</v>
       </c>
       <c r="E27">
-        <v>4.151839296153254</v>
+        <v>4.139985226340786</v>
       </c>
       <c r="F27">
-        <v>-0.8327073097447624</v>
+        <v>-1.35477202730705</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>2610</v>
+        <v>2600</v>
       </c>
       <c r="B28">
-        <v>2609</v>
+        <v>2599</v>
       </c>
       <c r="C28">
-        <v>-0.004613523933463029</v>
+        <v>-0.008861890002626667</v>
       </c>
       <c r="D28">
-        <v>-4.149416313499736</v>
+        <v>-4.155238154383013</v>
       </c>
       <c r="E28">
-        <v>4.14018926563281</v>
+        <v>4.137514374377759</v>
       </c>
       <c r="F28">
-        <v>0.03800114049159475</v>
+        <v>-1.215462915029697</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>2611</v>
+        <v>2601</v>
       </c>
       <c r="B29">
-        <v>2610</v>
+        <v>2600</v>
       </c>
       <c r="C29">
-        <v>0.0002218559741422151</v>
+        <v>-0.008160092212755482</v>
       </c>
       <c r="D29">
-        <v>-4.143787156168521</v>
+        <v>-4.153998293976893</v>
       </c>
       <c r="E29">
-        <v>4.144230868116805</v>
+        <v>4.137678109551381</v>
       </c>
       <c r="F29">
-        <v>0.3792192637062541</v>
+        <v>-1.79109265665307</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>2612</v>
+        <v>2602</v>
       </c>
       <c r="B30">
-        <v>2611</v>
+        <v>2601</v>
       </c>
       <c r="C30">
-        <v>0.002092263886573335</v>
+        <v>-0.01237220407029426</v>
       </c>
       <c r="D30">
-        <v>-4.141148609100304</v>
+        <v>-4.157979635435351</v>
       </c>
       <c r="E30">
-        <v>4.14533313687345</v>
+        <v>4.133235227294763</v>
       </c>
       <c r="F30">
-        <v>-1.29525620357267</v>
+        <v>4.3997669613697</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>2613</v>
+        <v>2603</v>
       </c>
       <c r="B31">
-        <v>2612</v>
+        <v>2602</v>
       </c>
       <c r="C31">
-        <v>-0.007098945581187868</v>
+        <v>0.02730808568836945</v>
       </c>
       <c r="D31">
-        <v>-4.149845397095013</v>
+        <v>-4.120967246612443</v>
       </c>
       <c r="E31">
-        <v>4.135647505932638</v>
+        <v>4.175583417989182</v>
       </c>
       <c r="F31">
-        <v>2.086966276738877</v>
+        <v>-1.08192709163788</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>2614</v>
+        <v>2604</v>
       </c>
       <c r="B32">
-        <v>2613</v>
+        <v>2603</v>
       </c>
       <c r="C32">
-        <v>0.01095491190200204</v>
+        <v>-0.006353079415923637</v>
       </c>
       <c r="D32">
-        <v>-4.131776786492924</v>
+        <v>-4.154050051062362</v>
       </c>
       <c r="E32">
-        <v>4.153686610296928</v>
+        <v>4.141343892230515</v>
       </c>
       <c r="F32">
-        <v>1.231588621826418</v>
+        <v>2.53178079842904</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>2615</v>
+        <v>2605</v>
       </c>
       <c r="B33">
-        <v>2614</v>
+        <v>2604</v>
       </c>
       <c r="C33">
-        <v>0.006698428460690937</v>
+        <v>0.01406553165026901</v>
       </c>
       <c r="D33">
-        <v>-4.13550502037337</v>
+        <v>-4.133980513588028</v>
       </c>
       <c r="E33">
-        <v>4.148901877294752</v>
+        <v>4.162111576888567</v>
       </c>
       <c r="F33">
-        <v>-1.834226980509612</v>
+        <v>0.4158010148662683</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>2616</v>
+        <v>2606</v>
       </c>
       <c r="B34">
-        <v>2615</v>
+        <v>2605</v>
       </c>
       <c r="C34">
-        <v>-0.009683021356173608</v>
+        <v>0.003961239495455599</v>
       </c>
       <c r="D34">
-        <v>-4.151695332056374</v>
+        <v>-4.143308435849524</v>
       </c>
       <c r="E34">
-        <v>4.132329289344026</v>
+        <v>4.151230914840435</v>
       </c>
       <c r="F34">
-        <v>-2.292802004107131</v>
+        <v>-1.367282979000173</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>2617</v>
+        <v>2607</v>
       </c>
       <c r="B35">
-        <v>2616</v>
+        <v>2606</v>
       </c>
       <c r="C35">
-        <v>-0.01287494500781545</v>
+        <v>-0.007719658049451961</v>
       </c>
       <c r="D35">
-        <v>-4.155019400253586</v>
+        <v>-4.154527629582283</v>
       </c>
       <c r="E35">
-        <v>4.129269510237956</v>
+        <v>4.139088313483379</v>
       </c>
       <c r="F35">
-        <v>-0.07733952435007296</v>
+        <v>0.3054603367850461</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>2618</v>
+        <v>2608</v>
       </c>
       <c r="B36">
-        <v>2617</v>
+        <v>2607</v>
       </c>
       <c r="C36">
-        <v>-0.0004003606515316455</v>
+        <v>0.001722214893471461</v>
       </c>
       <c r="D36">
-        <v>-4.141754085819625</v>
+        <v>-4.144315928917342</v>
       </c>
       <c r="E36">
-        <v>4.140953364516561</v>
+        <v>4.147760358704284</v>
       </c>
       <c r="F36">
-        <v>-0.07739938466890806</v>
+        <v>1.137237427086646</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>2619</v>
+        <v>2609</v>
       </c>
       <c r="B37">
-        <v>2618</v>
+        <v>2608</v>
       </c>
       <c r="C37">
-        <v>-0.0004355087090221534</v>
+        <v>0.006367010395498232</v>
       </c>
       <c r="D37">
-        <v>-4.140999270479858</v>
+        <v>-4.139105275362258</v>
       </c>
       <c r="E37">
-        <v>4.140128253061814</v>
+        <v>4.151839296153254</v>
       </c>
       <c r="F37">
-        <v>0.4635002504148389</v>
+        <v>-0.8327073097447624</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>2620</v>
+        <v>2610</v>
       </c>
       <c r="B38">
-        <v>2619</v>
+        <v>2609</v>
       </c>
       <c r="C38">
-        <v>0.002614748281908799</v>
+        <v>-0.004613523933463029</v>
       </c>
       <c r="D38">
-        <v>-4.137196583568031</v>
+        <v>-4.149416313499736</v>
       </c>
       <c r="E38">
-        <v>4.142426080131848</v>
+        <v>4.14018926563281</v>
       </c>
       <c r="F38">
-        <v>0.0770416062760404</v>
+        <v>0.03800114049159475</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>2621</v>
+        <v>2611</v>
       </c>
       <c r="B39">
-        <v>2620</v>
+        <v>2610</v>
       </c>
       <c r="C39">
-        <v>0.0004273653027414491</v>
+        <v>0.0002218559741422151</v>
       </c>
       <c r="D39">
-        <v>-4.138594832244979</v>
+        <v>-4.143787156168521</v>
       </c>
       <c r="E39">
-        <v>4.139449562850461</v>
+        <v>4.144230868116805</v>
       </c>
       <c r="F39">
-        <v>-3.287967411915638</v>
+        <v>0.3792192637062541</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>2622</v>
+        <v>2612</v>
       </c>
       <c r="B40">
-        <v>2621</v>
+        <v>2611</v>
       </c>
       <c r="C40">
-        <v>-0.01840566966818376</v>
+        <v>0.002092263886573335</v>
       </c>
       <c r="D40">
-        <v>-4.158552758001658</v>
+        <v>-4.141148609100304</v>
       </c>
       <c r="E40">
-        <v>4.121741418665291</v>
+        <v>4.14533313687345</v>
       </c>
       <c r="F40">
-        <v>-3.153050202690189</v>
+        <v>-1.29525620357267</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>2623</v>
+        <v>2613</v>
       </c>
       <c r="B41">
-        <v>2622</v>
+        <v>2612</v>
       </c>
       <c r="C41">
-        <v>-0.02048224771871776</v>
+        <v>-0.007098945581187868</v>
       </c>
       <c r="D41">
-        <v>-4.161576759313587</v>
+        <v>-4.149845397095013</v>
       </c>
       <c r="E41">
-        <v>4.120612263876152</v>
+        <v>4.135647505932638</v>
       </c>
       <c r="F41">
-        <v>0.3689284774795354</v>
+        <v>2.086966276738877</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>2624</v>
+        <v>2614</v>
       </c>
       <c r="B42">
-        <v>2623</v>
+        <v>2613</v>
       </c>
       <c r="C42">
-        <v>0.002412941734718261</v>
+        <v>0.01095491190200204</v>
       </c>
       <c r="D42">
-        <v>-4.137918904961539</v>
+        <v>-4.131776786492924</v>
       </c>
       <c r="E42">
-        <v>4.142744788430976</v>
+        <v>4.153686610296928</v>
       </c>
       <c r="F42">
-        <v>-1.733431765155657</v>
+        <v>1.231588621826418</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>2625</v>
+        <v>2615</v>
       </c>
       <c r="B43">
-        <v>2624</v>
+        <v>2614</v>
       </c>
       <c r="C43">
-        <v>-0.01094786168186733</v>
+        <v>0.006698428460690937</v>
       </c>
       <c r="D43">
-        <v>-4.151023485641395</v>
+        <v>-4.13550502037337</v>
       </c>
       <c r="E43">
-        <v>4.129127762277661</v>
+        <v>4.148901877294752</v>
       </c>
       <c r="F43">
-        <v>0.9942086864066724</v>
+        <v>-1.834226980509612</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>2626</v>
+        <v>2616</v>
       </c>
       <c r="B44">
-        <v>2625</v>
+        <v>2615</v>
       </c>
       <c r="C44">
-        <v>0.006160683625150662</v>
+        <v>-0.009683021356173608</v>
       </c>
       <c r="D44">
-        <v>-4.133304835643973</v>
+        <v>-4.151695332056374</v>
       </c>
       <c r="E44">
-        <v>4.145626202894274</v>
+        <v>4.132329289344026</v>
       </c>
       <c r="F44">
-        <v>-0.9525853767526016</v>
+        <v>-2.292802004107131</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>2627</v>
+        <v>2617</v>
       </c>
       <c r="B45">
-        <v>2626</v>
+        <v>2616</v>
       </c>
       <c r="C45">
-        <v>-0.005812073286112935</v>
+        <v>-0.01287494500781545</v>
       </c>
       <c r="D45">
-        <v>-4.144651786120694</v>
+        <v>-4.155019400253586</v>
       </c>
       <c r="E45">
-        <v>4.133027639548468</v>
+        <v>4.129269510237956</v>
       </c>
       <c r="F45">
-        <v>-0.1249219400433432</v>
+        <v>-0.07733952435007296</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>2628</v>
+        <v>2618</v>
       </c>
       <c r="B46">
-        <v>2627</v>
+        <v>2617</v>
       </c>
       <c r="C46">
-        <v>-0.0007433596774207489</v>
+        <v>-0.0004003606515316455</v>
       </c>
       <c r="D46">
-        <v>-4.138797753907094</v>
+        <v>-4.141754085819625</v>
       </c>
       <c r="E46">
-        <v>4.137311034552252</v>
+        <v>4.140953364516561</v>
       </c>
       <c r="F46">
-        <v>0.5402049288996125</v>
+        <v>-0.07739938466890806</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>2629</v>
+        <v>2619</v>
       </c>
       <c r="B47">
-        <v>2628</v>
+        <v>2618</v>
       </c>
       <c r="C47">
-        <v>0.003290077602940348</v>
+        <v>-0.0004355087090221534</v>
       </c>
       <c r="D47">
-        <v>-4.134028636025292</v>
+        <v>-4.140999270479858</v>
       </c>
       <c r="E47">
-        <v>4.140608791231173</v>
+        <v>4.140128253061814</v>
       </c>
       <c r="F47">
-        <v>-0.1244039140331665</v>
+        <v>0.4635002504148389</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>2630</v>
+        <v>2620</v>
       </c>
       <c r="B48">
-        <v>2629</v>
+        <v>2619</v>
       </c>
       <c r="C48">
-        <v>-0.0007663648037489078</v>
+        <v>0.002614748281908799</v>
       </c>
       <c r="D48">
-        <v>-4.137301021871354</v>
+        <v>-4.137196583568031</v>
       </c>
       <c r="E48">
-        <v>4.135768292263856</v>
+        <v>4.142426080131848</v>
       </c>
       <c r="F48">
-        <v>-0.2908790748231027</v>
+        <v>0.0770416062760404</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>2631</v>
+        <v>2621</v>
       </c>
       <c r="B49">
-        <v>2630</v>
+        <v>2620</v>
       </c>
       <c r="C49">
-        <v>-0.001767258666375035</v>
+        <v>0.0004273653027414491</v>
       </c>
       <c r="D49">
-        <v>-4.137530290463205</v>
+        <v>-4.138594832244979</v>
       </c>
       <c r="E49">
-        <v>4.133995773130455</v>
+        <v>4.139449562850461</v>
       </c>
       <c r="F49">
-        <v>-1.298447561885396</v>
+        <v>-3.287967411915638</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>2632</v>
+        <v>2622</v>
       </c>
       <c r="B50">
-        <v>2631</v>
+        <v>2621</v>
       </c>
       <c r="C50">
-        <v>-0.007935144864944361</v>
+        <v>-0.01840566966818376</v>
       </c>
       <c r="D50">
-        <v>-4.143208982862507</v>
+        <v>-4.158552758001658</v>
       </c>
       <c r="E50">
-        <v>4.127338693132618</v>
+        <v>4.121741418665291</v>
       </c>
       <c r="F50">
-        <v>1.173525621842053</v>
+        <v>-3.153050202690189</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>2633</v>
+        <v>2623</v>
       </c>
       <c r="B51">
-        <v>2632</v>
+        <v>2622</v>
       </c>
       <c r="C51">
-        <v>0.007047507592266167</v>
+        <v>-0.02048224771871776</v>
       </c>
       <c r="D51">
-        <v>-4.12768702153087</v>
+        <v>-4.161576759313587</v>
       </c>
       <c r="E51">
-        <v>4.141782036715402</v>
+        <v>4.120612263876152</v>
       </c>
       <c r="F51">
-        <v>-0.41753714104793</v>
+        <v>0.3689284774795354</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>2634</v>
+        <v>2624</v>
       </c>
       <c r="B52">
-        <v>2633</v>
+        <v>2623</v>
       </c>
       <c r="C52">
-        <v>-0.002510755370773721</v>
+        <v>0.002412941734718261</v>
       </c>
       <c r="D52">
-        <v>-4.136491839039019</v>
+        <v>-4.137918904961539</v>
       </c>
       <c r="E52">
-        <v>4.131470328297471</v>
+        <v>4.142744788430976</v>
       </c>
       <c r="F52">
-        <v>0.7087792857515041</v>
+        <v>-1.733431765155657</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>2635</v>
+        <v>2625</v>
       </c>
       <c r="B53">
-        <v>2634</v>
+        <v>2624</v>
       </c>
       <c r="C53">
-        <v>0.004217476281457864</v>
+        <v>-0.01094786168186733</v>
       </c>
       <c r="D53">
-        <v>-4.129068057375185</v>
+        <v>-4.151023485641395</v>
       </c>
       <c r="E53">
-        <v>4.1375030099381</v>
+        <v>4.129127762277661</v>
       </c>
       <c r="F53">
-        <v>0.9098491219100779</v>
+        <v>0.9942086864066724</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>2636</v>
+        <v>2626</v>
       </c>
       <c r="B54">
-        <v>2635</v>
+        <v>2625</v>
       </c>
       <c r="C54">
-        <v>0.005439840993802972</v>
+        <v>0.006160683625150662</v>
       </c>
       <c r="D54">
-        <v>-4.127205984286881</v>
+        <v>-4.133304835643973</v>
       </c>
       <c r="E54">
-        <v>4.138085666274486</v>
+        <v>4.145626202894274</v>
       </c>
       <c r="F54">
-        <v>3.160716915612127</v>
+        <v>-0.9525853767526016</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>2637</v>
+        <v>2627</v>
       </c>
       <c r="B55">
-        <v>2636</v>
+        <v>2626</v>
       </c>
       <c r="C55">
-        <v>0.01968357049956382</v>
+        <v>-0.005812073286112935</v>
       </c>
       <c r="D55">
-        <v>-4.113933583122597</v>
+        <v>-4.144651786120694</v>
       </c>
       <c r="E55">
-        <v>4.153300724121724</v>
+        <v>4.133027639548468</v>
       </c>
       <c r="F55">
-        <v>-0.1596806726519517</v>
+        <v>-0.1249219400433432</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>2638</v>
+        <v>2628</v>
       </c>
       <c r="B56">
-        <v>2637</v>
+        <v>2627</v>
       </c>
       <c r="C56">
-        <v>-0.00104742847691755</v>
+        <v>-0.0007433596774207489</v>
       </c>
       <c r="D56">
-        <v>-4.133886396774537</v>
+        <v>-4.138797753907094</v>
       </c>
       <c r="E56">
-        <v>4.131791539820702</v>
+        <v>4.137311034552252</v>
       </c>
       <c r="F56">
-        <v>-0.2800561942455815</v>
+        <v>0.5402049288996125</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>2639</v>
+        <v>2629</v>
       </c>
       <c r="B57">
-        <v>2638</v>
+        <v>2628</v>
       </c>
       <c r="C57">
-        <v>-0.001730183038564162</v>
+        <v>0.003290077602940348</v>
       </c>
       <c r="D57">
-        <v>-4.133799466938219</v>
+        <v>-4.134028636025292</v>
       </c>
       <c r="E57">
-        <v>4.13033910086109</v>
+        <v>4.140608791231173</v>
       </c>
       <c r="F57">
-        <v>1.668691878501427</v>
+        <v>-0.1244039140331665</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>2640</v>
+        <v>2630</v>
       </c>
       <c r="B58">
-        <v>2639</v>
+        <v>2629</v>
       </c>
       <c r="C58">
-        <v>0.01023599250807424</v>
+        <v>-0.0007663648037489078</v>
       </c>
       <c r="D58">
-        <v>-4.121541898078768</v>
+        <v>-4.137301021871354</v>
       </c>
       <c r="E58">
-        <v>4.142013883094918</v>
+        <v>4.135768292263856</v>
       </c>
       <c r="F58">
-        <v>-0.4739345363896419</v>
+        <v>-0.2908790748231027</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>2641</v>
+        <v>2631</v>
       </c>
       <c r="B59">
-        <v>2640</v>
+        <v>2630</v>
       </c>
       <c r="C59">
-        <v>-0.002903806887274493</v>
+        <v>-0.001767258666375035</v>
       </c>
       <c r="D59">
-        <v>-4.133940367459095</v>
+        <v>-4.137530290463205</v>
       </c>
       <c r="E59">
-        <v>4.128132753684547</v>
+        <v>4.133995773130455</v>
       </c>
       <c r="F59">
-        <v>-2.039662790764574</v>
+        <v>-1.298447561885396</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>2642</v>
+        <v>2632</v>
       </c>
       <c r="B60">
-        <v>2641</v>
+        <v>2631</v>
       </c>
       <c r="C60">
-        <v>-0.01252665393536782</v>
+        <v>-0.007935144864944361</v>
       </c>
       <c r="D60">
-        <v>-4.143511457627534</v>
+        <v>-4.143208982862507</v>
       </c>
       <c r="E60">
-        <v>4.118458149756799</v>
+        <v>4.127338693132618</v>
       </c>
       <c r="F60">
-        <v>0.7246408520767744</v>
+        <v>1.173525621842053</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>2643</v>
+        <v>2633</v>
       </c>
       <c r="B61">
-        <v>2642</v>
+        <v>2632</v>
       </c>
       <c r="C61">
-        <v>0.004398331563643196</v>
+        <v>0.007047507592266167</v>
       </c>
       <c r="D61">
-        <v>-4.125900228041426</v>
+        <v>-4.12768702153087</v>
       </c>
       <c r="E61">
-        <v>4.134696891168713</v>
+        <v>4.141782036715402</v>
       </c>
       <c r="F61">
-        <v>1.196186511749886</v>
+        <v>-0.41753714104793</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>2644</v>
+        <v>2634</v>
       </c>
       <c r="B62">
-        <v>2643</v>
+        <v>2633</v>
       </c>
       <c r="C62">
-        <v>0.007275139120600761</v>
+        <v>-0.002510755370773721</v>
       </c>
       <c r="D62">
-        <v>-4.122491929552275</v>
+        <v>-4.136491839039019</v>
       </c>
       <c r="E62">
-        <v>4.137042207793478</v>
+        <v>4.131470328297471</v>
       </c>
       <c r="F62">
-        <v>-1.356764627346507</v>
+        <v>0.7087792857515041</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>2645</v>
+        <v>2635</v>
       </c>
       <c r="B63">
-        <v>2644</v>
+        <v>2634</v>
       </c>
       <c r="C63">
-        <v>-0.008101602797155206</v>
+        <v>0.004217476281457864</v>
       </c>
       <c r="D63">
-        <v>-4.137414940317311</v>
+        <v>-4.129068057375185</v>
       </c>
       <c r="E63">
-        <v>4.121211734723</v>
+        <v>4.1375030099381</v>
       </c>
       <c r="F63">
-        <v>1.59429443023722</v>
+        <v>0.9098491219100779</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>2646</v>
+        <v>2636</v>
       </c>
       <c r="B64">
-        <v>2645</v>
+        <v>2635</v>
       </c>
       <c r="C64">
-        <v>0.00922327699200106</v>
+        <v>0.005439840993802972</v>
       </c>
       <c r="D64">
-        <v>-4.119760951107469</v>
+        <v>-4.127205984286881</v>
       </c>
       <c r="E64">
-        <v>4.138207505091471</v>
+        <v>4.138085666274486</v>
       </c>
       <c r="F64">
-        <v>2.22883126618374</v>
+        <v>3.160716915612127</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>2647</v>
+        <v>2637</v>
       </c>
       <c r="B65">
-        <v>2646</v>
+        <v>2636</v>
       </c>
       <c r="C65">
-        <v>0.01350327144260467</v>
+        <v>0.01968357049956382</v>
       </c>
       <c r="D65">
-        <v>-4.115566703171097</v>
+        <v>-4.113933583122597</v>
       </c>
       <c r="E65">
-        <v>4.142573246056306</v>
+        <v>4.153300724121724</v>
       </c>
       <c r="F65">
-        <v>-0.9714473132277135</v>
+        <v>-0.1596806726519517</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>2648</v>
+        <v>2638</v>
       </c>
       <c r="B66">
-        <v>2647</v>
+        <v>2637</v>
       </c>
       <c r="C66">
-        <v>-0.005757095486713025</v>
+        <v>-0.00104742847691755</v>
       </c>
       <c r="D66">
-        <v>-4.1342174940452</v>
+        <v>-4.133886396774537</v>
       </c>
       <c r="E66">
-        <v>4.122703303071774</v>
+        <v>4.131791539820702</v>
       </c>
       <c r="F66">
-        <v>-1.61389056940564</v>
+        <v>-0.2800561942455815</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="B67">
-        <v>2648</v>
+        <v>2638</v>
       </c>
       <c r="C67">
-        <v>-0.0096990944950196</v>
+        <v>-0.001730183038564162</v>
       </c>
       <c r="D67">
-        <v>-4.137834280803863</v>
+        <v>-4.133799466938219</v>
       </c>
       <c r="E67">
-        <v>4.118436091813824</v>
+        <v>4.13033910086109</v>
       </c>
       <c r="F67">
-        <v>-2.247285585205816</v>
+        <v>1.668691878501427</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="B68">
-        <v>2649</v>
+        <v>2639</v>
       </c>
       <c r="C68">
-        <v>-0.01427193458438894</v>
+        <v>0.01023599250807424</v>
       </c>
       <c r="D68">
-        <v>-4.142507167267509</v>
+        <v>-4.121541898078768</v>
       </c>
       <c r="E68">
-        <v>4.113963298098731</v>
+        <v>4.142013883094918</v>
       </c>
       <c r="F68">
-        <v>-0.978800636616306</v>
+        <v>-0.4739345363896419</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>2651</v>
+        <v>2641</v>
       </c>
       <c r="B69">
-        <v>2650</v>
+        <v>2640</v>
       </c>
       <c r="C69">
-        <v>-0.006364750678371994</v>
+        <v>-0.002903806887274493</v>
       </c>
       <c r="D69">
-        <v>-4.133984329001401</v>
+        <v>-4.133940367459095</v>
       </c>
       <c r="E69">
-        <v>4.121254827644656</v>
+        <v>4.128132753684547</v>
       </c>
       <c r="F69">
-        <v>1.545374390184051</v>
+        <v>-2.039662790764574</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>2652</v>
+        <v>2642</v>
       </c>
       <c r="B70">
-        <v>2651</v>
+        <v>2641</v>
       </c>
       <c r="C70">
-        <v>0.009942204633324157</v>
+        <v>-0.01252665393536782</v>
       </c>
       <c r="D70">
-        <v>-4.117321479629426</v>
+        <v>-4.143511457627534</v>
       </c>
       <c r="E70">
-        <v>4.137205888896075</v>
+        <v>4.118458149756799</v>
       </c>
       <c r="F70">
-        <v>-0.9732436918231002</v>
+        <v>0.7246408520767744</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>2653</v>
+        <v>2643</v>
       </c>
       <c r="B71">
-        <v>2652</v>
+        <v>2642</v>
       </c>
       <c r="C71">
-        <v>-0.006152935450927505</v>
+        <v>0.004398331563643196</v>
       </c>
       <c r="D71">
-        <v>-4.132808013418829</v>
+        <v>-4.125900228041426</v>
       </c>
       <c r="E71">
-        <v>4.120502142516973</v>
+        <v>4.134696891168713</v>
       </c>
       <c r="F71">
-        <v>1.094235842094449</v>
+        <v>1.196186511749886</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>2654</v>
+        <v>2644</v>
       </c>
       <c r="B72">
-        <v>2653</v>
+        <v>2643</v>
       </c>
       <c r="C72">
-        <v>0.006759487372431759</v>
+        <v>0.007275139120600761</v>
       </c>
       <c r="D72">
-        <v>-4.119330238570957</v>
+        <v>-4.122491929552275</v>
       </c>
       <c r="E72">
-        <v>4.132849213315821</v>
+        <v>4.137042207793478</v>
       </c>
       <c r="F72">
-        <v>-1.461658178282832</v>
+        <v>-1.356764627346507</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>2655</v>
+        <v>2645</v>
       </c>
       <c r="B73">
-        <v>2654</v>
+        <v>2644</v>
       </c>
       <c r="C73">
-        <v>-0.008825011514133931</v>
+        <v>-0.008101602797155206</v>
       </c>
       <c r="D73">
-        <v>-4.134515563164698</v>
+        <v>-4.137414940317311</v>
       </c>
       <c r="E73">
-        <v>4.116865540136431</v>
+        <v>4.121211734723</v>
       </c>
       <c r="F73">
-        <v>0.1226241723243149</v>
+        <v>1.59429443023722</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>2656</v>
+        <v>2646</v>
       </c>
       <c r="B74">
-        <v>2655</v>
+        <v>2645</v>
       </c>
       <c r="C74">
-        <v>0.0007630044741268117</v>
+        <v>0.00922327699200106</v>
       </c>
       <c r="D74">
-        <v>-4.124153537796838</v>
+        <v>-4.119760951107469</v>
       </c>
       <c r="E74">
-        <v>4.125679546745092</v>
+        <v>4.138207505091471</v>
       </c>
       <c r="F74">
-        <v>-0.2863573239256567</v>
+        <v>2.22883126618374</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>2657</v>
+        <v>2647</v>
       </c>
       <c r="B75">
-        <v>2656</v>
+        <v>2646</v>
       </c>
       <c r="C75">
-        <v>-0.001721756997069761</v>
+        <v>0.01350327144260467</v>
       </c>
       <c r="D75">
-        <v>-4.125876154162054</v>
+        <v>-4.115566703171097</v>
       </c>
       <c r="E75">
-        <v>4.122432640167915</v>
+        <v>4.142573246056306</v>
       </c>
       <c r="F75">
-        <v>0.4496226663142977</v>
+        <v>-0.9714473132277135</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>2658</v>
+        <v>2648</v>
       </c>
       <c r="B76">
-        <v>2657</v>
+        <v>2647</v>
       </c>
       <c r="C76">
-        <v>0.0027000422515306</v>
+        <v>-0.005757095486713025</v>
       </c>
       <c r="D76">
-        <v>-4.120713904445162</v>
+        <v>-4.1342174940452</v>
       </c>
       <c r="E76">
-        <v>4.126113988948222</v>
+        <v>4.122703303071774</v>
       </c>
       <c r="F76">
-        <v>-1.231037294306425</v>
+        <v>-1.61389056940564</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>2659</v>
+        <v>2649</v>
       </c>
       <c r="B77">
-        <v>2658</v>
+        <v>2648</v>
       </c>
       <c r="C77">
-        <v>-0.007328606474502331</v>
+        <v>-0.0096990944950196</v>
       </c>
       <c r="D77">
-        <v>-4.130233613118293</v>
+        <v>-4.137834280803863</v>
       </c>
       <c r="E77">
-        <v>4.115576400169289</v>
+        <v>4.118436091813824</v>
       </c>
       <c r="F77">
-        <v>1.719240054037208</v>
+        <v>-2.247285585205816</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>2660</v>
+        <v>2650</v>
       </c>
       <c r="B78">
-        <v>2659</v>
+        <v>2649</v>
       </c>
       <c r="C78">
-        <v>0.009935433145370504</v>
+        <v>-0.01427193458438894</v>
       </c>
       <c r="D78">
-        <v>-4.112716535094395</v>
+        <v>-4.142507167267509</v>
       </c>
       <c r="E78">
-        <v>4.132587401385137</v>
+        <v>4.113963298098731</v>
       </c>
       <c r="F78">
-        <v>-0.4882027597307825</v>
+        <v>-0.978800636616306</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>2661</v>
+        <v>2651</v>
       </c>
       <c r="B79">
-        <v>2660</v>
+        <v>2650</v>
       </c>
       <c r="C79">
-        <v>-0.002807914944615175</v>
+        <v>-0.006364750678371994</v>
       </c>
       <c r="D79">
-        <v>-4.124728336208268</v>
+        <v>-4.133984329001401</v>
       </c>
       <c r="E79">
-        <v>4.119112506319038</v>
+        <v>4.121254827644656</v>
       </c>
       <c r="F79">
-        <v>2.775163013181725</v>
+        <v>1.545374390184051</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>2662</v>
+        <v>2652</v>
       </c>
       <c r="B80">
-        <v>2661</v>
+        <v>2651</v>
       </c>
       <c r="C80">
-        <v>0.01556773911603574</v>
+        <v>0.009942204633324157</v>
       </c>
       <c r="D80">
-        <v>-4.106929532606812</v>
+        <v>-4.117321479629426</v>
       </c>
       <c r="E80">
-        <v>4.138065010838884</v>
+        <v>4.137205888896075</v>
       </c>
       <c r="F80">
-        <v>0.790205613224515</v>
+        <v>-0.9732436918231002</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>2663</v>
+        <v>2653</v>
       </c>
       <c r="B81">
-        <v>2662</v>
+        <v>2652</v>
       </c>
       <c r="C81">
-        <v>0.004524325568777268</v>
+        <v>-0.006152935450927505</v>
       </c>
       <c r="D81">
-        <v>-4.117303551225975</v>
+        <v>-4.132808013418829</v>
       </c>
       <c r="E81">
-        <v>4.126352202363529</v>
+        <v>4.120502142516973</v>
       </c>
       <c r="F81">
-        <v>3.099822000324082</v>
+        <v>1.094235842094449</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>2664</v>
+        <v>2654</v>
       </c>
       <c r="B82">
-        <v>2663</v>
+        <v>2653</v>
       </c>
       <c r="C82">
-        <v>0.01855823155835376</v>
+        <v>0.006759487372431759</v>
       </c>
       <c r="D82">
-        <v>-4.10417216045615</v>
+        <v>-4.119330238570957</v>
       </c>
       <c r="E82">
-        <v>4.141288623572857</v>
+        <v>4.132849213315821</v>
       </c>
       <c r="F82">
-        <v>-1.965002543414052</v>
+        <v>-1.461658178282832</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>2665</v>
+        <v>2655</v>
       </c>
       <c r="B83">
-        <v>2664</v>
+        <v>2654</v>
       </c>
       <c r="C83">
-        <v>-0.01077946677289694</v>
+        <v>-0.008825011514133931</v>
       </c>
       <c r="D83">
-        <v>-4.133423542653779</v>
+        <v>-4.134515563164698</v>
       </c>
       <c r="E83">
-        <v>4.111864609107985</v>
+        <v>4.116865540136431</v>
       </c>
       <c r="F83">
-        <v>-1.88536613643997</v>
+        <v>0.1226241723243149</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>2666</v>
+        <v>2656</v>
       </c>
       <c r="B84">
-        <v>2665</v>
+        <v>2655</v>
       </c>
       <c r="C84">
-        <v>-0.01087763789901676</v>
+        <v>0.0007630044741268117</v>
       </c>
       <c r="D84">
-        <v>-4.133362422786253</v>
+        <v>-4.124153537796838</v>
       </c>
       <c r="E84">
-        <v>4.111607146988219</v>
+        <v>4.125679546745092</v>
       </c>
       <c r="F84">
-        <v>1.534556967465939</v>
+        <v>-0.2863573239256567</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>2667</v>
+        <v>2657</v>
       </c>
       <c r="B85">
-        <v>2666</v>
+        <v>2656</v>
       </c>
       <c r="C85">
-        <v>0.008534293339576083</v>
+        <v>-0.001721756997069761</v>
       </c>
       <c r="D85">
-        <v>-4.113594575468004</v>
+        <v>-4.125876154162054</v>
       </c>
       <c r="E85">
-        <v>4.130663162147155</v>
+        <v>4.122432640167915</v>
       </c>
       <c r="F85">
-        <v>-0.2737049607040021</v>
+        <v>0.4496226663142977</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>2668</v>
+        <v>2658</v>
       </c>
       <c r="B86">
-        <v>2667</v>
+        <v>2657</v>
       </c>
       <c r="C86">
-        <v>-0.001530248604268024</v>
+        <v>0.0027000422515306</v>
       </c>
       <c r="D86">
-        <v>-4.122900155628043</v>
+        <v>-4.120713904445162</v>
       </c>
       <c r="E86">
-        <v>4.119839658419508</v>
+        <v>4.126113988948222</v>
       </c>
       <c r="F86">
-        <v>-1.023228132573628</v>
+        <v>-1.231037294306425</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>2669</v>
+        <v>2659</v>
       </c>
       <c r="B87">
-        <v>2668</v>
+        <v>2658</v>
       </c>
       <c r="C87">
-        <v>-0.005652315803571855</v>
+        <v>-0.007328606474502331</v>
       </c>
       <c r="D87">
-        <v>-4.126432159309181</v>
+        <v>-4.130233613118293</v>
       </c>
       <c r="E87">
-        <v>4.115127527702037</v>
+        <v>4.115576400169289</v>
       </c>
       <c r="F87">
-        <v>-0.6747396109163972</v>
+        <v>1.719240054037208</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>2670</v>
+        <v>2660</v>
       </c>
       <c r="B88">
-        <v>2669</v>
+        <v>2659</v>
       </c>
       <c r="C88">
-        <v>-0.003752815316846676</v>
+        <v>0.009935433145370504</v>
       </c>
       <c r="D88">
-        <v>-4.123838813488335</v>
+        <v>-4.112716535094395</v>
       </c>
       <c r="E88">
-        <v>4.116333182854643</v>
+        <v>4.132587401385137</v>
       </c>
       <c r="F88">
-        <v>-0.920190529851439</v>
+        <v>-0.4882027597307825</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>2671</v>
+        <v>2661</v>
       </c>
       <c r="B89">
-        <v>2670</v>
+        <v>2660</v>
       </c>
       <c r="C89">
-        <v>-0.005176341681081968</v>
+        <v>-0.002807914944615175</v>
       </c>
       <c r="D89">
-        <v>-4.124637386887137</v>
+        <v>-4.124728336208268</v>
       </c>
       <c r="E89">
-        <v>4.114284703524973</v>
+        <v>4.119112506319038</v>
       </c>
       <c r="F89">
-        <v>0.9600073729018277</v>
+        <v>2.775163013181725</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>2672</v>
+        <v>2662</v>
       </c>
       <c r="B90">
-        <v>2671</v>
+        <v>2661</v>
       </c>
       <c r="C90">
-        <v>0.005355113948064514</v>
+        <v>0.01556773911603574</v>
       </c>
       <c r="D90">
-        <v>-4.113497346101954</v>
+        <v>-4.106929532606812</v>
       </c>
       <c r="E90">
-        <v>4.124207573998082</v>
+        <v>4.138065010838884</v>
       </c>
       <c r="F90">
-        <v>0.3179652917379983</v>
+        <v>0.790205613224515</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>2673</v>
+        <v>2663</v>
       </c>
       <c r="B91">
-        <v>2672</v>
+        <v>2662</v>
       </c>
       <c r="C91">
-        <v>0.001762061008420835</v>
+        <v>0.004524325568777268</v>
       </c>
       <c r="D91">
-        <v>-4.116336644265204</v>
+        <v>-4.117303551225975</v>
       </c>
       <c r="E91">
-        <v>4.119860766282046</v>
+        <v>4.126352202363529</v>
       </c>
       <c r="F91">
-        <v>-2.85791235533015</v>
+        <v>3.099822000324082</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>2674</v>
+        <v>2664</v>
       </c>
       <c r="B92">
-        <v>2673</v>
+        <v>2663</v>
       </c>
       <c r="C92">
-        <v>-0.0156833809850226</v>
+        <v>0.01855823155835376</v>
       </c>
       <c r="D92">
-        <v>-4.134438688610541</v>
+        <v>-4.10417216045615</v>
       </c>
       <c r="E92">
-        <v>4.103071926640497</v>
+        <v>4.141288623572857</v>
       </c>
       <c r="F92">
-        <v>-1.026070976296189</v>
+        <v>-1.965002543414052</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>2675</v>
+        <v>2665</v>
       </c>
       <c r="B93">
-        <v>2674</v>
+        <v>2664</v>
       </c>
       <c r="C93">
-        <v>-0.005831540788341756</v>
+        <v>-0.01077946677289694</v>
       </c>
       <c r="D93">
-        <v>-4.123994580102647</v>
+        <v>-4.133423542653779</v>
       </c>
       <c r="E93">
-        <v>4.112331498525964</v>
+        <v>4.111864609107985</v>
       </c>
       <c r="F93">
-        <v>0.8216973102280534</v>
+        <v>-1.88536613643997</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>2676</v>
+        <v>2666</v>
       </c>
       <c r="B94">
-        <v>2675</v>
+        <v>2665</v>
       </c>
       <c r="C94">
-        <v>0.004665820277980263</v>
+        <v>-0.01087763789901676</v>
       </c>
       <c r="D94">
-        <v>-4.112846812047194</v>
+        <v>-4.133362422786253</v>
       </c>
       <c r="E94">
-        <v>4.122178452603154</v>
+        <v>4.111607146988219</v>
       </c>
       <c r="F94">
-        <v>1.663661823924301</v>
+        <v>1.534556967465939</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>2677</v>
+        <v>2667</v>
       </c>
       <c r="B95">
-        <v>2676</v>
+        <v>2666</v>
       </c>
       <c r="C95">
-        <v>0.009592200450717151</v>
+        <v>0.008534293339576083</v>
       </c>
       <c r="D95">
-        <v>-4.107630843724744</v>
+        <v>-4.113594575468004</v>
       </c>
       <c r="E95">
-        <v>4.126815244626178</v>
+        <v>4.130663162147155</v>
       </c>
       <c r="F95">
-        <v>2.934389762905987</v>
+        <v>-0.2737049607040021</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>2678</v>
+        <v>2668</v>
       </c>
       <c r="B96">
-        <v>2677</v>
+        <v>2667</v>
       </c>
       <c r="C96">
-        <v>0.01810808356783212</v>
+        <v>-0.001530248604268024</v>
       </c>
       <c r="D96">
-        <v>-4.099836358108337</v>
+        <v>-4.122900155628043</v>
       </c>
       <c r="E96">
-        <v>4.136052525244001</v>
+        <v>4.119839658419508</v>
       </c>
       <c r="F96">
-        <v>0.4289341729476703</v>
+        <v>-1.023228132573628</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>2679</v>
+        <v>2669</v>
       </c>
       <c r="B97">
-        <v>2678</v>
+        <v>2668</v>
       </c>
       <c r="C97">
-        <v>0.002637331270388594</v>
+        <v>-0.005652315803571855</v>
       </c>
       <c r="D97">
-        <v>-4.114567573008578</v>
+        <v>-4.126432159309181</v>
       </c>
       <c r="E97">
-        <v>4.119842235549356</v>
+        <v>4.115127527702037</v>
       </c>
       <c r="F97">
-        <v>1.812272464088061</v>
+        <v>-0.6747396109163972</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>2680</v>
+        <v>2670</v>
       </c>
       <c r="B98">
-        <v>2679</v>
+        <v>2669</v>
       </c>
       <c r="C98">
-        <v>0.01149059788430125</v>
+        <v>-0.003752815316846676</v>
       </c>
       <c r="D98">
-        <v>-4.105516152457129</v>
+        <v>-4.123838813488335</v>
       </c>
       <c r="E98">
-        <v>4.128497348225732</v>
+        <v>4.116333182854643</v>
       </c>
       <c r="F98">
-        <v>0.5335378510146427</v>
+        <v>-0.920190529851439</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>2681</v>
+        <v>2671</v>
       </c>
       <c r="B99">
-        <v>2680</v>
+        <v>2670</v>
       </c>
       <c r="C99">
-        <v>0.00339046174105443</v>
+        <v>-0.005176341681081968</v>
       </c>
       <c r="D99">
-        <v>-4.112895558519519</v>
+        <v>-4.124637386887137</v>
       </c>
       <c r="E99">
-        <v>4.119676482001628</v>
+        <v>4.114284703524973</v>
       </c>
       <c r="F99">
-        <v>1.433986836423173</v>
+        <v>0.9600073729018277</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>2682</v>
+        <v>2672</v>
       </c>
       <c r="B100">
-        <v>2681</v>
+        <v>2671</v>
       </c>
       <c r="C100">
-        <v>0.009291258266554719</v>
+        <v>0.005355113948064514</v>
       </c>
       <c r="D100">
-        <v>-4.106583272237964</v>
+        <v>-4.113497346101954</v>
       </c>
       <c r="E100">
-        <v>4.125165788771074</v>
+        <v>4.124207573998082</v>
       </c>
       <c r="F100">
-        <v>-0.7899232347625684</v>
+        <v>0.3179652917379983</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>2683</v>
+        <v>2673</v>
       </c>
       <c r="B101">
-        <v>2682</v>
+        <v>2672</v>
       </c>
       <c r="C101">
-        <v>-0.005077585216191952</v>
+        <v>0.001762061008420835</v>
       </c>
       <c r="D101">
-        <v>-4.120295874563785</v>
+        <v>-4.116336644265204</v>
       </c>
       <c r="E101">
-        <v>4.110140704131402</v>
+        <v>4.119860766282046</v>
       </c>
       <c r="F101">
-        <v>-2.06035521805088</v>
+        <v>-2.85791235533015</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>2684</v>
+        <v>2674</v>
       </c>
       <c r="B102">
-        <v>2683</v>
+        <v>2673</v>
       </c>
       <c r="C102">
-        <v>-0.01345871053662868</v>
+        <v>-0.0156833809850226</v>
       </c>
       <c r="D102">
-        <v>-4.128644918908332</v>
+        <v>-4.134438688610541</v>
       </c>
       <c r="E102">
-        <v>4.101727497835075</v>
+        <v>4.103071926640497</v>
       </c>
       <c r="F102">
-        <v>-2.458660433126525</v>
+        <v>-1.026070976296189</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>2685</v>
+        <v>2675</v>
       </c>
       <c r="B103">
-        <v>2684</v>
+        <v>2674</v>
       </c>
       <c r="C103">
-        <v>-0.01717113922734104</v>
+        <v>-0.005831540788341756</v>
       </c>
       <c r="D103">
-        <v>-4.132630137973944</v>
+        <v>-4.123994580102647</v>
       </c>
       <c r="E103">
-        <v>4.098287859519262</v>
+        <v>4.112331498525964</v>
       </c>
       <c r="F103">
-        <v>-0.5149545940831501</v>
+        <v>0.8216973102280534</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>2686</v>
+        <v>2676</v>
       </c>
       <c r="B104">
-        <v>2685</v>
+        <v>2675</v>
       </c>
       <c r="C104">
-        <v>-0.003600177209700068</v>
+        <v>0.004665820277980263</v>
       </c>
       <c r="D104">
-        <v>-4.118335805445395</v>
+        <v>-4.112846812047194</v>
       </c>
       <c r="E104">
-        <v>4.111135451025995</v>
+        <v>4.122178452603154</v>
       </c>
       <c r="F104">
-        <v>4.882798636728403</v>
+        <v>1.663661823924301</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>2687</v>
+        <v>2677</v>
       </c>
       <c r="B105">
-        <v>2686</v>
+        <v>2676</v>
       </c>
       <c r="C105">
-        <v>0.03365234199435432</v>
+        <v>0.009592200450717151</v>
       </c>
       <c r="D105">
-        <v>-4.084465461018608</v>
+        <v>-4.107630843724744</v>
       </c>
       <c r="E105">
-        <v>4.151770145007317</v>
+        <v>4.126815244626178</v>
       </c>
       <c r="F105">
-        <v>-0.1135288674444013</v>
+        <v>2.934389762905987</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>2688</v>
+        <v>2678</v>
       </c>
       <c r="B106">
-        <v>2687</v>
+        <v>2677</v>
       </c>
       <c r="C106">
-        <v>-0.000885942152818301</v>
+        <v>0.01810808356783212</v>
       </c>
       <c r="D106">
-        <v>-4.118241113325475</v>
+        <v>-4.099836358108337</v>
       </c>
       <c r="E106">
-        <v>4.116469229019838</v>
+        <v>4.136052525244001</v>
       </c>
       <c r="F106">
-        <v>-0.912900976698694</v>
+        <v>0.4289341729476703</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>2689</v>
+        <v>2679</v>
       </c>
       <c r="B107">
-        <v>2688</v>
+        <v>2678</v>
       </c>
       <c r="C107">
-        <v>-0.006212142882682802</v>
+        <v>0.002637331270388594</v>
       </c>
       <c r="D107">
-        <v>-4.122945757933018</v>
+        <v>-4.114567573008578</v>
       </c>
       <c r="E107">
-        <v>4.110521472167652</v>
+        <v>4.119842235549356</v>
       </c>
       <c r="F107">
-        <v>-1.191634319834378</v>
+        <v>1.812272464088061</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>2690</v>
+        <v>2680</v>
       </c>
       <c r="B108">
-        <v>2689</v>
+        <v>2679</v>
       </c>
       <c r="C108">
-        <v>-0.008198993044153433</v>
+        <v>0.01149059788430125</v>
       </c>
       <c r="D108">
-        <v>-4.124410913027545</v>
+        <v>-4.105516152457129</v>
       </c>
       <c r="E108">
-        <v>4.108012926939238</v>
+        <v>4.128497348225732</v>
       </c>
       <c r="F108">
-        <v>-0.2710553450457454</v>
+        <v>0.5335378510146427</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>2691</v>
+        <v>2681</v>
       </c>
       <c r="B109">
-        <v>2690</v>
+        <v>2680</v>
       </c>
       <c r="C109">
-        <v>-0.001848753859045321</v>
+        <v>0.00339046174105443</v>
       </c>
       <c r="D109">
-        <v>-4.117307495074036</v>
+        <v>-4.112895558519519</v>
       </c>
       <c r="E109">
-        <v>4.113609987355946</v>
+        <v>4.119676482001628</v>
       </c>
       <c r="F109">
-        <v>0.9262899113220868</v>
+        <v>1.433986836423173</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>2692</v>
+        <v>2682</v>
       </c>
       <c r="B110">
-        <v>2691</v>
+        <v>2681</v>
       </c>
       <c r="C110">
-        <v>0.006401759692817137</v>
+        <v>0.009291258266554719</v>
       </c>
       <c r="D110">
-        <v>-4.108441671857625</v>
+        <v>-4.106583272237964</v>
       </c>
       <c r="E110">
-        <v>4.121245191243259</v>
+        <v>4.125165788771074</v>
       </c>
       <c r="F110">
-        <v>-1.275872710530024</v>
+        <v>-0.7899232347625684</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>2693</v>
+        <v>2683</v>
       </c>
       <c r="B111">
-        <v>2692</v>
+        <v>2682</v>
       </c>
       <c r="C111">
-        <v>-0.00870250702434942</v>
+        <v>-0.005077585216191952</v>
       </c>
       <c r="D111">
-        <v>-4.123066726333501</v>
+        <v>-4.120295874563785</v>
       </c>
       <c r="E111">
-        <v>4.105661712284803</v>
+        <v>4.110140704131402</v>
       </c>
       <c r="F111">
-        <v>-0.3117695432585776</v>
+        <v>-2.06035521805088</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>2694</v>
+        <v>2684</v>
       </c>
       <c r="B112">
-        <v>2693</v>
+        <v>2683</v>
       </c>
       <c r="C112">
-        <v>-0.002101930082525384</v>
+        <v>-0.01345871053662868</v>
       </c>
       <c r="D112">
-        <v>-4.115718103299347</v>
+        <v>-4.128644918908332</v>
       </c>
       <c r="E112">
-        <v>4.111514243134296</v>
+        <v>4.101727497835075</v>
       </c>
       <c r="F112">
-        <v>0.1170275148190569</v>
+        <v>-2.458660433126525</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>2695</v>
+        <v>2685</v>
       </c>
       <c r="B113">
-        <v>2694</v>
+        <v>2684</v>
       </c>
       <c r="C113">
-        <v>0.0008068699529314957</v>
+        <v>-0.01717113922734104</v>
       </c>
       <c r="D113">
-        <v>-4.112048215154138</v>
+        <v>-4.132630137973944</v>
       </c>
       <c r="E113">
-        <v>4.113661955060001</v>
+        <v>4.098287859519262</v>
       </c>
       <c r="F113">
-        <v>-0.7042282625413065</v>
+        <v>-0.5149545940831501</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>2696</v>
+        <v>2686</v>
       </c>
       <c r="B114">
-        <v>2695</v>
+        <v>2685</v>
       </c>
       <c r="C114">
-        <v>-0.004810416056345068</v>
+        <v>-0.003600177209700068</v>
       </c>
       <c r="D114">
-        <v>-4.116988531542591</v>
+        <v>-4.118335805445395</v>
       </c>
       <c r="E114">
-        <v>4.107367699429902</v>
+        <v>4.111135451025995</v>
       </c>
       <c r="F114">
-        <v>0.6652343061103849</v>
+        <v>4.882798636728403</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>2697</v>
+        <v>2687</v>
       </c>
       <c r="B115">
-        <v>2696</v>
+        <v>2686</v>
       </c>
       <c r="C115">
-        <v>0.004531049181304778</v>
+        <v>0.03365234199435432</v>
       </c>
       <c r="D115">
-        <v>-4.106962145795811</v>
+        <v>-4.084465461018608</v>
       </c>
       <c r="E115">
-        <v>4.11602424415842</v>
+        <v>4.151770145007317</v>
       </c>
       <c r="F115">
-        <v>-0.7830893580548448</v>
+        <v>-0.1135288674444013</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>2698</v>
+        <v>2688</v>
       </c>
       <c r="B116">
-        <v>2697</v>
+        <v>2687</v>
       </c>
       <c r="C116">
-        <v>-0.005319266262118418</v>
+        <v>-0.000885942152818301</v>
       </c>
       <c r="D116">
-        <v>-4.116157618017471</v>
+        <v>-4.118241113325475</v>
       </c>
       <c r="E116">
-        <v>4.105519085493235</v>
+        <v>4.116469229019838</v>
       </c>
       <c r="F116">
-        <v>-1.345489233418284</v>
+        <v>-0.912900976698694</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>2699</v>
+        <v>2689</v>
       </c>
       <c r="B117">
-        <v>2698</v>
+        <v>2688</v>
       </c>
       <c r="C117">
-        <v>-0.009173745558156627</v>
+        <v>-0.006212142882682802</v>
       </c>
       <c r="D117">
-        <v>-4.119561297516052</v>
+        <v>-4.122945757933018</v>
       </c>
       <c r="E117">
-        <v>4.101213806399739</v>
+        <v>4.110521472167652</v>
       </c>
       <c r="F117">
-        <v>0.6354270784607152</v>
+        <v>-1.191634319834378</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>2700</v>
+        <v>2690</v>
       </c>
       <c r="B118">
-        <v>2699</v>
+        <v>2689</v>
       </c>
       <c r="C118">
-        <v>0.004325294978080889</v>
+        <v>-0.008198993044153433</v>
       </c>
       <c r="D118">
-        <v>-4.105372662331543</v>
+        <v>-4.124410913027545</v>
       </c>
       <c r="E118">
-        <v>4.114023252287705</v>
+        <v>4.108012926939238</v>
       </c>
       <c r="F118">
-        <v>3.882475195230484</v>
+        <v>-0.2710553450457454</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>2701</v>
+        <v>2691</v>
       </c>
       <c r="B119">
-        <v>2700</v>
+        <v>2690</v>
       </c>
       <c r="C119">
-        <v>0.0270546150389271</v>
+        <v>-0.001848753859045321</v>
       </c>
       <c r="D119">
-        <v>-4.084485291246767</v>
+        <v>-4.117307495074036</v>
       </c>
       <c r="E119">
-        <v>4.138594521324621</v>
+        <v>4.113609987355946</v>
       </c>
       <c r="F119">
-        <v>-1.651026176690173</v>
+        <v>0.9262899113220868</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>2702</v>
+        <v>2692</v>
       </c>
       <c r="B120">
-        <v>2701</v>
+        <v>2691</v>
       </c>
       <c r="C120">
-        <v>-0.01068562751328779</v>
+        <v>0.006401759692817137</v>
       </c>
       <c r="D120">
-        <v>-4.12195082690234</v>
+        <v>-4.108441671857625</v>
       </c>
       <c r="E120">
-        <v>4.100579571875764</v>
+        <v>4.121245191243259</v>
       </c>
       <c r="F120">
-        <v>-1.129075650335487</v>
+        <v>-1.275872710530024</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>2703</v>
+        <v>2693</v>
       </c>
       <c r="B121">
-        <v>2702</v>
+        <v>2692</v>
       </c>
       <c r="C121">
-        <v>-0.007399461155538588</v>
+        <v>-0.00870250702434942</v>
       </c>
       <c r="D121">
-        <v>-4.118120072915963</v>
+        <v>-4.123066726333501</v>
       </c>
       <c r="E121">
-        <v>4.103321150604885</v>
+        <v>4.105661712284803</v>
       </c>
       <c r="F121">
-        <v>1.900386840208057</v>
+        <v>-0.3117695432585776</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>2704</v>
+        <v>2694</v>
       </c>
       <c r="B122">
-        <v>2703</v>
+        <v>2693</v>
       </c>
       <c r="C122">
-        <v>0.01220313102481389</v>
+        <v>-0.002101930082525384</v>
       </c>
       <c r="D122">
-        <v>-4.098386188185851</v>
+        <v>-4.115718103299347</v>
       </c>
       <c r="E122">
-        <v>4.122792450235478</v>
+        <v>4.111514243134296</v>
       </c>
       <c r="F122">
-        <v>0.1919018051978583</v>
+        <v>0.1170275148190569</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>2705</v>
+        <v>2695</v>
       </c>
       <c r="B123">
-        <v>2704</v>
+        <v>2694</v>
       </c>
       <c r="C123">
-        <v>0.001196437868062893</v>
+        <v>0.0008068699529314957</v>
       </c>
       <c r="D123">
-        <v>-4.108638298343679</v>
+        <v>-4.112048215154138</v>
       </c>
       <c r="E123">
-        <v>4.111031174079804</v>
+        <v>4.113661955060001</v>
       </c>
       <c r="F123">
-        <v>0.4590673708598558</v>
+        <v>-0.7042282625413065</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>2706</v>
+        <v>2696</v>
       </c>
       <c r="B124">
-        <v>2705</v>
+        <v>2695</v>
       </c>
       <c r="C124">
-        <v>0.002954614504471673</v>
+        <v>-0.004810416056345068</v>
       </c>
       <c r="D124">
-        <v>-4.106156606942185</v>
+        <v>-4.116988531542591</v>
       </c>
       <c r="E124">
-        <v>4.112065835951129</v>
+        <v>4.107367699429902</v>
       </c>
       <c r="F124">
-        <v>-1.074453928297814</v>
+        <v>0.6652343061103849</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>2707</v>
+        <v>2697</v>
       </c>
       <c r="B125">
-        <v>2706</v>
+        <v>2696</v>
       </c>
       <c r="C125">
-        <v>-0.006888376447284133</v>
+        <v>0.004531049181304778</v>
       </c>
       <c r="D125">
-        <v>-4.11544081905628</v>
+        <v>-4.106962145795811</v>
       </c>
       <c r="E125">
-        <v>4.101664066161712</v>
+        <v>4.11602424415842</v>
       </c>
       <c r="F125">
-        <v>3.077165866675458</v>
+        <v>-0.7830893580548448</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
+        <v>2698</v>
+      </c>
+      <c r="B126">
+        <v>2697</v>
+      </c>
+      <c r="C126">
+        <v>-0.005319266262118418</v>
+      </c>
+      <c r="D126">
+        <v>-4.116157618017471</v>
+      </c>
+      <c r="E126">
+        <v>4.105519085493235</v>
+      </c>
+      <c r="F126">
+        <v>-1.345489233418284</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>2699</v>
+      </c>
+      <c r="B127">
+        <v>2698</v>
+      </c>
+      <c r="C127">
+        <v>-0.009173745558156627</v>
+      </c>
+      <c r="D127">
+        <v>-4.119561297516052</v>
+      </c>
+      <c r="E127">
+        <v>4.101213806399739</v>
+      </c>
+      <c r="F127">
+        <v>0.6354270784607152</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>2700</v>
+      </c>
+      <c r="B128">
+        <v>2699</v>
+      </c>
+      <c r="C128">
+        <v>0.004325294978080889</v>
+      </c>
+      <c r="D128">
+        <v>-4.105372662331543</v>
+      </c>
+      <c r="E128">
+        <v>4.114023252287705</v>
+      </c>
+      <c r="F128">
+        <v>3.882475195230484</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>2701</v>
+      </c>
+      <c r="B129">
+        <v>2700</v>
+      </c>
+      <c r="C129">
+        <v>0.0270546150389271</v>
+      </c>
+      <c r="D129">
+        <v>-4.084485291246767</v>
+      </c>
+      <c r="E129">
+        <v>4.138594521324621</v>
+      </c>
+      <c r="F129">
+        <v>-1.651026176690173</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>2702</v>
+      </c>
+      <c r="B130">
+        <v>2701</v>
+      </c>
+      <c r="C130">
+        <v>-0.01068562751328779</v>
+      </c>
+      <c r="D130">
+        <v>-4.12195082690234</v>
+      </c>
+      <c r="E130">
+        <v>4.100579571875764</v>
+      </c>
+      <c r="F130">
+        <v>-1.129075650335487</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>2703</v>
+      </c>
+      <c r="B131">
+        <v>2702</v>
+      </c>
+      <c r="C131">
+        <v>-0.007399461155538588</v>
+      </c>
+      <c r="D131">
+        <v>-4.118120072915963</v>
+      </c>
+      <c r="E131">
+        <v>4.103321150604885</v>
+      </c>
+      <c r="F131">
+        <v>1.900386840208057</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>2704</v>
+      </c>
+      <c r="B132">
+        <v>2703</v>
+      </c>
+      <c r="C132">
+        <v>0.01220313102481389</v>
+      </c>
+      <c r="D132">
+        <v>-4.098386188185851</v>
+      </c>
+      <c r="E132">
+        <v>4.122792450235478</v>
+      </c>
+      <c r="F132">
+        <v>0.1919018051978583</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>2705</v>
+      </c>
+      <c r="B133">
+        <v>2704</v>
+      </c>
+      <c r="C133">
+        <v>0.001196437868062893</v>
+      </c>
+      <c r="D133">
+        <v>-4.108638298343679</v>
+      </c>
+      <c r="E133">
+        <v>4.111031174079804</v>
+      </c>
+      <c r="F133">
+        <v>0.4590673708598558</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>2706</v>
+      </c>
+      <c r="B134">
+        <v>2705</v>
+      </c>
+      <c r="C134">
+        <v>0.002954614504471673</v>
+      </c>
+      <c r="D134">
+        <v>-4.106156606942185</v>
+      </c>
+      <c r="E134">
+        <v>4.112065835951129</v>
+      </c>
+      <c r="F134">
+        <v>-1.074453928297814</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>2707</v>
+      </c>
+      <c r="B135">
+        <v>2706</v>
+      </c>
+      <c r="C135">
+        <v>-0.006888376447284133</v>
+      </c>
+      <c r="D135">
+        <v>-4.11544081905628</v>
+      </c>
+      <c r="E135">
+        <v>4.101664066161712</v>
+      </c>
+      <c r="F135">
+        <v>3.077165866675458</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
         <v>2708</v>
       </c>
-      <c r="B126">
+      <c r="B136">
         <v>2707</v>
       </c>
-      <c r="C126">
+      <c r="C136">
         <v>0.01885257155371416</v>
       </c>
-      <c r="D126">
+      <c r="D136">
         <v>-4.090583390457043</v>
       </c>
-      <c r="E126">
+      <c r="E136">
         <v>4.128288533564472</v>
       </c>
-      <c r="F126">
+      <c r="F136">
         <v>-2.193733963989608</v>
       </c>
     </row>

--- a/Daily/Forecast/Stationaritiy/Percentage Return/sony.xlsx
+++ b/Daily/Forecast/Stationaritiy/Percentage Return/sony.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,2701 +411,2501 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1">
-        <v>2574</v>
+        <v>2584</v>
       </c>
       <c r="B2">
-        <v>2573</v>
+        <v>2583</v>
       </c>
       <c r="C2">
-        <v>0.00653450131841638</v>
+        <v>-0.009074921190474608</v>
       </c>
       <c r="D2">
-        <v>-4.15104695478656</v>
+        <v>-4.162306689123937</v>
       </c>
       <c r="E2">
-        <v>4.164115957423393</v>
+        <v>4.144156846742987</v>
       </c>
       <c r="F2">
-        <v>2.26204464360471</v>
+        <v>-0.6925487858712387</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
-        <v>2575</v>
+        <v>2585</v>
       </c>
       <c r="B3">
-        <v>2574</v>
+        <v>2584</v>
       </c>
       <c r="C3">
-        <v>0.0146613712984222</v>
+        <v>-0.004737739062145304</v>
       </c>
       <c r="D3">
-        <v>-4.143025545135195</v>
+        <v>-4.157249398592691</v>
       </c>
       <c r="E3">
-        <v>4.17234828773204</v>
+        <v>4.147773920468401</v>
       </c>
       <c r="F3">
-        <v>0.1081665870740878</v>
+        <v>0.4743668811379109</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>2576</v>
+        <v>2586</v>
       </c>
       <c r="B4">
-        <v>2575</v>
+        <v>2585</v>
       </c>
       <c r="C4">
-        <v>0.0006567514580734775</v>
+        <v>0.003269268402696477</v>
       </c>
       <c r="D4">
-        <v>-4.156224337737436</v>
+        <v>-4.14848019922225</v>
       </c>
       <c r="E4">
-        <v>4.157537840653584</v>
+        <v>4.155018736027642</v>
       </c>
       <c r="F4">
-        <v>-1.965128739728961</v>
+        <v>-1.94823291249655</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>2577</v>
+        <v>2587</v>
       </c>
       <c r="B5">
-        <v>2576</v>
+        <v>2586</v>
       </c>
       <c r="C5">
-        <v>-0.01282880370184079</v>
+        <v>-0.01321542103723029</v>
       </c>
       <c r="D5">
-        <v>-4.169596204124087</v>
+        <v>-4.164843469518408</v>
       </c>
       <c r="E5">
-        <v>4.143938596720405</v>
+        <v>4.138412627443947</v>
       </c>
       <c r="F5">
-        <v>-1.667631753512566</v>
+        <v>-1.270095519456405</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>2578</v>
+        <v>2588</v>
       </c>
       <c r="B6">
-        <v>2577</v>
+        <v>2587</v>
       </c>
       <c r="C6">
-        <v>-0.01130633367538612</v>
+        <v>-0.008829679506229322</v>
       </c>
       <c r="D6">
-        <v>-4.167758122968864</v>
+        <v>-4.159937732467505</v>
       </c>
       <c r="E6">
-        <v>4.145145455618091</v>
+        <v>4.142278373455046</v>
       </c>
       <c r="F6">
-        <v>2.107676467994857</v>
+        <v>-1.97424787292011</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
-        <v>2579</v>
+        <v>2589</v>
       </c>
       <c r="B7">
-        <v>2578</v>
+        <v>2588</v>
       </c>
       <c r="C7">
-        <v>0.01373692349691217</v>
+        <v>-0.01418369137478818</v>
       </c>
       <c r="D7">
-        <v>-4.142713364281922</v>
+        <v>-4.165180325646068</v>
       </c>
       <c r="E7">
-        <v>4.170187211275747</v>
+        <v>4.136812942896491</v>
       </c>
       <c r="F7">
-        <v>1.019302600208682</v>
+        <v>-0.3841725815998842</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
-        <v>2580</v>
+        <v>2590</v>
       </c>
       <c r="B8">
-        <v>2579</v>
+        <v>2589</v>
       </c>
       <c r="C8">
-        <v>0.00673414166492718</v>
+        <v>-0.002738987523040201</v>
       </c>
       <c r="D8">
-        <v>-4.149091430955368</v>
+        <v>-4.152958350030401</v>
       </c>
       <c r="E8">
-        <v>4.162559714285223</v>
+        <v>4.147480374984321</v>
       </c>
       <c r="F8">
-        <v>0.8295809524154762</v>
+        <v>-1.239365205496412</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1">
-        <v>2581</v>
+        <v>2591</v>
       </c>
       <c r="B9">
-        <v>2580</v>
+        <v>2590</v>
       </c>
       <c r="C9">
-        <v>0.005583462572215869</v>
+        <v>-0.009040579919420037</v>
       </c>
       <c r="D9">
-        <v>-4.149557938057561</v>
+        <v>-4.158731974214843</v>
       </c>
       <c r="E9">
-        <v>4.160724863201993</v>
+        <v>4.140650814376004</v>
       </c>
       <c r="F9">
-        <v>0.8227554907572099</v>
+        <v>2.539574726962712</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1">
-        <v>2582</v>
+        <v>2592</v>
       </c>
       <c r="B10">
-        <v>2581</v>
+        <v>2591</v>
       </c>
       <c r="C10">
-        <v>0.005560204380617457</v>
+        <v>0.01798688919217502</v>
       </c>
       <c r="D10">
-        <v>-4.148895806169835</v>
+        <v>-4.132063923642916</v>
       </c>
       <c r="E10">
-        <v>4.16001621493107</v>
+        <v>4.168037702027265</v>
       </c>
       <c r="F10">
-        <v>-0.6074701546470607</v>
+        <v>-0.8393792128469357</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
-        <v>2583</v>
+        <v>2593</v>
       </c>
       <c r="B11">
-        <v>2582</v>
+        <v>2592</v>
       </c>
       <c r="C11">
-        <v>-0.004132674686314924</v>
+        <v>-0.005836367735834736</v>
       </c>
       <c r="D11">
-        <v>-4.157851394977761</v>
+        <v>-4.155217724640255</v>
       </c>
       <c r="E11">
-        <v>4.149586045605131</v>
+        <v>4.143544989168585</v>
       </c>
       <c r="F11">
-        <v>-1.335036967280345</v>
+        <v>-0.6534714778075212</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
-        <v>2584</v>
+        <v>2594</v>
       </c>
       <c r="B12">
-        <v>2583</v>
+        <v>2593</v>
       </c>
       <c r="C12">
-        <v>-0.009074921190474608</v>
+        <v>-0.004508080231392323</v>
       </c>
       <c r="D12">
-        <v>-4.162306689123937</v>
+        <v>-4.153164144927943</v>
       </c>
       <c r="E12">
-        <v>4.144156846742987</v>
+        <v>4.144147984465158</v>
       </c>
       <c r="F12">
-        <v>-0.6925487858712387</v>
+        <v>2.77637151999901</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
-        <v>2585</v>
+        <v>2595</v>
       </c>
       <c r="B13">
-        <v>2584</v>
+        <v>2594</v>
       </c>
       <c r="C13">
-        <v>-0.004737739062145304</v>
+        <v>0.01882358746013396</v>
       </c>
       <c r="D13">
-        <v>-4.157249398592691</v>
+        <v>-4.130412981084034</v>
       </c>
       <c r="E13">
-        <v>4.147773920468401</v>
+        <v>4.168060156004302</v>
       </c>
       <c r="F13">
-        <v>0.4743668811379109</v>
+        <v>-1.017916423533016</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1">
-        <v>2586</v>
+        <v>2596</v>
       </c>
       <c r="B14">
-        <v>2585</v>
+        <v>2595</v>
       </c>
       <c r="C14">
-        <v>0.003269268402696477</v>
+        <v>-0.006701105135191291</v>
       </c>
       <c r="D14">
-        <v>-4.14848019922225</v>
+        <v>-4.155329730379817</v>
       </c>
       <c r="E14">
-        <v>4.155018736027642</v>
+        <v>4.141927520109434</v>
       </c>
       <c r="F14">
-        <v>-1.94823291249655</v>
+        <v>0.867766245173307</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1">
-        <v>2587</v>
+        <v>2597</v>
       </c>
       <c r="B15">
-        <v>2586</v>
+        <v>2596</v>
       </c>
       <c r="C15">
-        <v>-0.01321542103723029</v>
+        <v>0.005621479171035287</v>
       </c>
       <c r="D15">
-        <v>-4.164843469518408</v>
+        <v>-4.142344407293697</v>
       </c>
       <c r="E15">
-        <v>4.138412627443947</v>
+        <v>4.153587365635767</v>
       </c>
       <c r="F15">
-        <v>-1.270095519456405</v>
+        <v>-1.247417422517572</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
-        <v>2588</v>
+        <v>2598</v>
       </c>
       <c r="B16">
-        <v>2587</v>
+        <v>2597</v>
       </c>
       <c r="C16">
-        <v>-0.008829679506229322</v>
+        <v>-0.007890616668782078</v>
       </c>
       <c r="D16">
-        <v>-4.159937732467505</v>
+        <v>-4.155337804936172</v>
       </c>
       <c r="E16">
-        <v>4.142278373455046</v>
+        <v>4.139556571598607</v>
       </c>
       <c r="F16">
-        <v>-1.97424787292011</v>
+        <v>-1.070755928122935</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1">
-        <v>2589</v>
+        <v>2599</v>
       </c>
       <c r="B17">
-        <v>2588</v>
+        <v>2598</v>
       </c>
       <c r="C17">
-        <v>-0.01418369137478818</v>
+        <v>-0.006865069391594005</v>
       </c>
       <c r="D17">
-        <v>-4.165180325646068</v>
+        <v>-4.153715365123975</v>
       </c>
       <c r="E17">
-        <v>4.136812942896491</v>
+        <v>4.139985226340786</v>
       </c>
       <c r="F17">
-        <v>-0.3841725815998842</v>
+        <v>-1.35477202730705</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1">
-        <v>2590</v>
+        <v>2600</v>
       </c>
       <c r="B18">
-        <v>2589</v>
+        <v>2599</v>
       </c>
       <c r="C18">
-        <v>-0.002738987523040201</v>
+        <v>-0.008861890002626667</v>
       </c>
       <c r="D18">
-        <v>-4.152958350030401</v>
+        <v>-4.155238154383013</v>
       </c>
       <c r="E18">
-        <v>4.147480374984321</v>
+        <v>4.137514374377759</v>
       </c>
       <c r="F18">
-        <v>-1.239365205496412</v>
+        <v>-1.215462915029697</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1">
-        <v>2591</v>
+        <v>2601</v>
       </c>
       <c r="B19">
-        <v>2590</v>
+        <v>2600</v>
       </c>
       <c r="C19">
-        <v>-0.009040579919420037</v>
+        <v>-0.008160092212755482</v>
       </c>
       <c r="D19">
-        <v>-4.158731974214843</v>
+        <v>-4.153998293976893</v>
       </c>
       <c r="E19">
-        <v>4.140650814376004</v>
+        <v>4.137678109551381</v>
       </c>
       <c r="F19">
-        <v>2.539574726962712</v>
+        <v>-1.79109265665307</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1">
-        <v>2592</v>
+        <v>2602</v>
       </c>
       <c r="B20">
-        <v>2591</v>
+        <v>2601</v>
       </c>
       <c r="C20">
-        <v>0.01798688919217502</v>
+        <v>-0.01237220407029426</v>
       </c>
       <c r="D20">
-        <v>-4.132063923642916</v>
+        <v>-4.157979635435351</v>
       </c>
       <c r="E20">
-        <v>4.168037702027265</v>
+        <v>4.133235227294763</v>
       </c>
       <c r="F20">
-        <v>-0.8393792128469357</v>
+        <v>4.3997669613697</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1">
-        <v>2593</v>
+        <v>2603</v>
       </c>
       <c r="B21">
-        <v>2592</v>
+        <v>2602</v>
       </c>
       <c r="C21">
-        <v>-0.005836367735834736</v>
+        <v>0.02730808568836945</v>
       </c>
       <c r="D21">
-        <v>-4.155217724640255</v>
+        <v>-4.120967246612443</v>
       </c>
       <c r="E21">
-        <v>4.143544989168585</v>
+        <v>4.175583417989182</v>
       </c>
       <c r="F21">
-        <v>-0.6534714778075212</v>
+        <v>-1.08192709163788</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
-        <v>2594</v>
+        <v>2604</v>
       </c>
       <c r="B22">
-        <v>2593</v>
+        <v>2603</v>
       </c>
       <c r="C22">
-        <v>-0.004508080231392323</v>
+        <v>-0.006353079415923637</v>
       </c>
       <c r="D22">
-        <v>-4.153164144927943</v>
+        <v>-4.154050051062362</v>
       </c>
       <c r="E22">
-        <v>4.144147984465158</v>
+        <v>4.141343892230515</v>
       </c>
       <c r="F22">
-        <v>2.77637151999901</v>
+        <v>2.53178079842904</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
-        <v>2595</v>
+        <v>2605</v>
       </c>
       <c r="B23">
-        <v>2594</v>
+        <v>2604</v>
       </c>
       <c r="C23">
-        <v>0.01882358746013396</v>
+        <v>0.01406553165026901</v>
       </c>
       <c r="D23">
-        <v>-4.130412981084034</v>
+        <v>-4.133980513588028</v>
       </c>
       <c r="E23">
-        <v>4.168060156004302</v>
+        <v>4.162111576888567</v>
       </c>
       <c r="F23">
-        <v>-1.017916423533016</v>
+        <v>0.4158010148662683</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
-        <v>2596</v>
+        <v>2606</v>
       </c>
       <c r="B24">
-        <v>2595</v>
+        <v>2605</v>
       </c>
       <c r="C24">
-        <v>-0.006701105135191291</v>
+        <v>0.003961239495455599</v>
       </c>
       <c r="D24">
-        <v>-4.155329730379817</v>
+        <v>-4.143308435849524</v>
       </c>
       <c r="E24">
-        <v>4.141927520109434</v>
+        <v>4.151230914840435</v>
       </c>
       <c r="F24">
-        <v>0.867766245173307</v>
+        <v>-1.367282979000173</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1">
-        <v>2597</v>
+        <v>2607</v>
       </c>
       <c r="B25">
-        <v>2596</v>
+        <v>2606</v>
       </c>
       <c r="C25">
-        <v>0.005621479171035287</v>
+        <v>-0.007719658049451961</v>
       </c>
       <c r="D25">
-        <v>-4.142344407293697</v>
+        <v>-4.154527629582283</v>
       </c>
       <c r="E25">
-        <v>4.153587365635767</v>
+        <v>4.139088313483379</v>
       </c>
       <c r="F25">
-        <v>-1.247417422517572</v>
+        <v>0.3054603367850461</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1">
-        <v>2598</v>
+        <v>2608</v>
       </c>
       <c r="B26">
-        <v>2597</v>
+        <v>2607</v>
       </c>
       <c r="C26">
-        <v>-0.007890616668782078</v>
+        <v>0.001722214893471461</v>
       </c>
       <c r="D26">
-        <v>-4.155337804936172</v>
+        <v>-4.144315928917342</v>
       </c>
       <c r="E26">
-        <v>4.139556571598607</v>
+        <v>4.147760358704284</v>
       </c>
       <c r="F26">
-        <v>-1.070755928122935</v>
+        <v>1.137237427086646</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
-        <v>2599</v>
+        <v>2609</v>
       </c>
       <c r="B27">
-        <v>2598</v>
+        <v>2608</v>
       </c>
       <c r="C27">
-        <v>-0.006865069391594005</v>
+        <v>0.006367010395498232</v>
       </c>
       <c r="D27">
-        <v>-4.153715365123975</v>
+        <v>-4.139105275362258</v>
       </c>
       <c r="E27">
-        <v>4.139985226340786</v>
+        <v>4.151839296153254</v>
       </c>
       <c r="F27">
-        <v>-1.35477202730705</v>
+        <v>-0.8327073097447624</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1">
-        <v>2600</v>
+        <v>2610</v>
       </c>
       <c r="B28">
-        <v>2599</v>
+        <v>2609</v>
       </c>
       <c r="C28">
-        <v>-0.008861890002626667</v>
+        <v>-0.004613523933463029</v>
       </c>
       <c r="D28">
-        <v>-4.155238154383013</v>
+        <v>-4.149416313499736</v>
       </c>
       <c r="E28">
-        <v>4.137514374377759</v>
+        <v>4.14018926563281</v>
       </c>
       <c r="F28">
-        <v>-1.215462915029697</v>
+        <v>0.03800114049159475</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1">
-        <v>2601</v>
+        <v>2611</v>
       </c>
       <c r="B29">
-        <v>2600</v>
+        <v>2610</v>
       </c>
       <c r="C29">
-        <v>-0.008160092212755482</v>
+        <v>0.0002218559741422151</v>
       </c>
       <c r="D29">
-        <v>-4.153998293976893</v>
+        <v>-4.143787156168521</v>
       </c>
       <c r="E29">
-        <v>4.137678109551381</v>
+        <v>4.144230868116805</v>
       </c>
       <c r="F29">
-        <v>-1.79109265665307</v>
+        <v>0.3792192637062541</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1">
-        <v>2602</v>
+        <v>2612</v>
       </c>
       <c r="B30">
-        <v>2601</v>
+        <v>2611</v>
       </c>
       <c r="C30">
-        <v>-0.01237220407029426</v>
+        <v>0.002092263886573335</v>
       </c>
       <c r="D30">
-        <v>-4.157979635435351</v>
+        <v>-4.141148609100304</v>
       </c>
       <c r="E30">
-        <v>4.133235227294763</v>
+        <v>4.14533313687345</v>
       </c>
       <c r="F30">
-        <v>4.3997669613697</v>
+        <v>-1.29525620357267</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
-        <v>2603</v>
+        <v>2613</v>
       </c>
       <c r="B31">
-        <v>2602</v>
+        <v>2612</v>
       </c>
       <c r="C31">
-        <v>0.02730808568836945</v>
+        <v>-0.007098945581187868</v>
       </c>
       <c r="D31">
-        <v>-4.120967246612443</v>
+        <v>-4.149845397095013</v>
       </c>
       <c r="E31">
-        <v>4.175583417989182</v>
+        <v>4.135647505932638</v>
       </c>
       <c r="F31">
-        <v>-1.08192709163788</v>
+        <v>2.086966276738877</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1">
-        <v>2604</v>
+        <v>2614</v>
       </c>
       <c r="B32">
-        <v>2603</v>
+        <v>2613</v>
       </c>
       <c r="C32">
-        <v>-0.006353079415923637</v>
+        <v>0.01095491190200204</v>
       </c>
       <c r="D32">
-        <v>-4.154050051062362</v>
+        <v>-4.131776786492924</v>
       </c>
       <c r="E32">
-        <v>4.141343892230515</v>
+        <v>4.153686610296928</v>
       </c>
       <c r="F32">
-        <v>2.53178079842904</v>
+        <v>1.231588621826418</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1">
-        <v>2605</v>
+        <v>2615</v>
       </c>
       <c r="B33">
-        <v>2604</v>
+        <v>2614</v>
       </c>
       <c r="C33">
-        <v>0.01406553165026901</v>
+        <v>0.006698428460690937</v>
       </c>
       <c r="D33">
-        <v>-4.133980513588028</v>
+        <v>-4.13550502037337</v>
       </c>
       <c r="E33">
-        <v>4.162111576888567</v>
+        <v>4.148901877294752</v>
       </c>
       <c r="F33">
-        <v>0.4158010148662683</v>
+        <v>-1.834226980509612</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1">
-        <v>2606</v>
+        <v>2616</v>
       </c>
       <c r="B34">
-        <v>2605</v>
+        <v>2615</v>
       </c>
       <c r="C34">
-        <v>0.003961239495455599</v>
+        <v>-0.009683021356173608</v>
       </c>
       <c r="D34">
-        <v>-4.143308435849524</v>
+        <v>-4.151695332056374</v>
       </c>
       <c r="E34">
-        <v>4.151230914840435</v>
+        <v>4.132329289344026</v>
       </c>
       <c r="F34">
-        <v>-1.367282979000173</v>
+        <v>-2.292802004107131</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
-        <v>2607</v>
+        <v>2617</v>
       </c>
       <c r="B35">
-        <v>2606</v>
+        <v>2616</v>
       </c>
       <c r="C35">
-        <v>-0.007719658049451961</v>
+        <v>-0.01287494500781545</v>
       </c>
       <c r="D35">
-        <v>-4.154527629582283</v>
+        <v>-4.155019400253586</v>
       </c>
       <c r="E35">
-        <v>4.139088313483379</v>
+        <v>4.129269510237956</v>
       </c>
       <c r="F35">
-        <v>0.3054603367850461</v>
+        <v>-0.07733952435007296</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
-        <v>2608</v>
+        <v>2618</v>
       </c>
       <c r="B36">
-        <v>2607</v>
+        <v>2617</v>
       </c>
       <c r="C36">
-        <v>0.001722214893471461</v>
+        <v>-0.0004003606515316455</v>
       </c>
       <c r="D36">
-        <v>-4.144315928917342</v>
+        <v>-4.141754085819625</v>
       </c>
       <c r="E36">
-        <v>4.147760358704284</v>
+        <v>4.140953364516561</v>
       </c>
       <c r="F36">
-        <v>1.137237427086646</v>
+        <v>-0.07739938466890806</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
-        <v>2609</v>
+        <v>2619</v>
       </c>
       <c r="B37">
-        <v>2608</v>
+        <v>2618</v>
       </c>
       <c r="C37">
-        <v>0.006367010395498232</v>
+        <v>-0.0004355087090221534</v>
       </c>
       <c r="D37">
-        <v>-4.139105275362258</v>
+        <v>-4.140999270479858</v>
       </c>
       <c r="E37">
-        <v>4.151839296153254</v>
+        <v>4.140128253061814</v>
       </c>
       <c r="F37">
-        <v>-0.8327073097447624</v>
+        <v>0.4635002504148389</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
-        <v>2610</v>
+        <v>2620</v>
       </c>
       <c r="B38">
-        <v>2609</v>
+        <v>2619</v>
       </c>
       <c r="C38">
-        <v>-0.004613523933463029</v>
+        <v>0.002614748281908799</v>
       </c>
       <c r="D38">
-        <v>-4.149416313499736</v>
+        <v>-4.137196583568031</v>
       </c>
       <c r="E38">
-        <v>4.14018926563281</v>
+        <v>4.142426080131848</v>
       </c>
       <c r="F38">
-        <v>0.03800114049159475</v>
+        <v>0.0770416062760404</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
-        <v>2611</v>
+        <v>2621</v>
       </c>
       <c r="B39">
-        <v>2610</v>
+        <v>2620</v>
       </c>
       <c r="C39">
-        <v>0.0002218559741422151</v>
+        <v>0.0004273653027414491</v>
       </c>
       <c r="D39">
-        <v>-4.143787156168521</v>
+        <v>-4.138594832244979</v>
       </c>
       <c r="E39">
-        <v>4.144230868116805</v>
+        <v>4.139449562850461</v>
       </c>
       <c r="F39">
-        <v>0.3792192637062541</v>
+        <v>-3.287967411915638</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
-        <v>2612</v>
+        <v>2622</v>
       </c>
       <c r="B40">
-        <v>2611</v>
+        <v>2621</v>
       </c>
       <c r="C40">
-        <v>0.002092263886573335</v>
+        <v>-0.01840566966818376</v>
       </c>
       <c r="D40">
-        <v>-4.141148609100304</v>
+        <v>-4.158552758001658</v>
       </c>
       <c r="E40">
-        <v>4.14533313687345</v>
+        <v>4.121741418665291</v>
       </c>
       <c r="F40">
-        <v>-1.29525620357267</v>
+        <v>-3.153050202690189</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
-        <v>2613</v>
+        <v>2623</v>
       </c>
       <c r="B41">
-        <v>2612</v>
+        <v>2622</v>
       </c>
       <c r="C41">
-        <v>-0.007098945581187868</v>
+        <v>-0.02048224771871776</v>
       </c>
       <c r="D41">
-        <v>-4.149845397095013</v>
+        <v>-4.161576759313587</v>
       </c>
       <c r="E41">
-        <v>4.135647505932638</v>
+        <v>4.120612263876152</v>
       </c>
       <c r="F41">
-        <v>2.086966276738877</v>
+        <v>0.3689284774795354</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
-        <v>2614</v>
+        <v>2624</v>
       </c>
       <c r="B42">
-        <v>2613</v>
+        <v>2623</v>
       </c>
       <c r="C42">
-        <v>0.01095491190200204</v>
+        <v>0.002412941734718261</v>
       </c>
       <c r="D42">
-        <v>-4.131776786492924</v>
+        <v>-4.137918904961539</v>
       </c>
       <c r="E42">
-        <v>4.153686610296928</v>
+        <v>4.142744788430976</v>
       </c>
       <c r="F42">
-        <v>1.231588621826418</v>
+        <v>-1.733431765155657</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
-        <v>2615</v>
+        <v>2625</v>
       </c>
       <c r="B43">
-        <v>2614</v>
+        <v>2624</v>
       </c>
       <c r="C43">
-        <v>0.006698428460690937</v>
+        <v>-0.01094786168186733</v>
       </c>
       <c r="D43">
-        <v>-4.13550502037337</v>
+        <v>-4.151023485641395</v>
       </c>
       <c r="E43">
-        <v>4.148901877294752</v>
+        <v>4.129127762277661</v>
       </c>
       <c r="F43">
-        <v>-1.834226980509612</v>
+        <v>0.9942086864066724</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
-        <v>2616</v>
+        <v>2626</v>
       </c>
       <c r="B44">
-        <v>2615</v>
+        <v>2625</v>
       </c>
       <c r="C44">
-        <v>-0.009683021356173608</v>
+        <v>0.006160683625150662</v>
       </c>
       <c r="D44">
-        <v>-4.151695332056374</v>
+        <v>-4.133304835643973</v>
       </c>
       <c r="E44">
-        <v>4.132329289344026</v>
+        <v>4.145626202894274</v>
       </c>
       <c r="F44">
-        <v>-2.292802004107131</v>
+        <v>-0.9525853767526016</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
-        <v>2617</v>
+        <v>2627</v>
       </c>
       <c r="B45">
-        <v>2616</v>
+        <v>2626</v>
       </c>
       <c r="C45">
-        <v>-0.01287494500781545</v>
+        <v>-0.005812073286112935</v>
       </c>
       <c r="D45">
-        <v>-4.155019400253586</v>
+        <v>-4.144651786120694</v>
       </c>
       <c r="E45">
-        <v>4.129269510237956</v>
+        <v>4.133027639548468</v>
       </c>
       <c r="F45">
-        <v>-0.07733952435007296</v>
+        <v>-0.1249219400433432</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
-        <v>2618</v>
+        <v>2628</v>
       </c>
       <c r="B46">
-        <v>2617</v>
+        <v>2627</v>
       </c>
       <c r="C46">
-        <v>-0.0004003606515316455</v>
+        <v>-0.0007433596774207489</v>
       </c>
       <c r="D46">
-        <v>-4.141754085819625</v>
+        <v>-4.138797753907094</v>
       </c>
       <c r="E46">
-        <v>4.140953364516561</v>
+        <v>4.137311034552252</v>
       </c>
       <c r="F46">
-        <v>-0.07739938466890806</v>
+        <v>0.5402049288996125</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
-        <v>2619</v>
+        <v>2629</v>
       </c>
       <c r="B47">
-        <v>2618</v>
+        <v>2628</v>
       </c>
       <c r="C47">
-        <v>-0.0004355087090221534</v>
+        <v>0.003290077602940348</v>
       </c>
       <c r="D47">
-        <v>-4.140999270479858</v>
+        <v>-4.134028636025292</v>
       </c>
       <c r="E47">
-        <v>4.140128253061814</v>
+        <v>4.140608791231173</v>
       </c>
       <c r="F47">
-        <v>0.4635002504148389</v>
+        <v>-0.1244039140331665</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
-        <v>2620</v>
+        <v>2630</v>
       </c>
       <c r="B48">
-        <v>2619</v>
+        <v>2629</v>
       </c>
       <c r="C48">
-        <v>0.002614748281908799</v>
+        <v>-0.0007663648037489078</v>
       </c>
       <c r="D48">
-        <v>-4.137196583568031</v>
+        <v>-4.137301021871354</v>
       </c>
       <c r="E48">
-        <v>4.142426080131848</v>
+        <v>4.135768292263856</v>
       </c>
       <c r="F48">
-        <v>0.0770416062760404</v>
+        <v>-0.2908790748231027</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
-        <v>2621</v>
+        <v>2631</v>
       </c>
       <c r="B49">
-        <v>2620</v>
+        <v>2630</v>
       </c>
       <c r="C49">
-        <v>0.0004273653027414491</v>
+        <v>-0.001767258666375035</v>
       </c>
       <c r="D49">
-        <v>-4.138594832244979</v>
+        <v>-4.137530290463205</v>
       </c>
       <c r="E49">
-        <v>4.139449562850461</v>
+        <v>4.133995773130455</v>
       </c>
       <c r="F49">
-        <v>-3.287967411915638</v>
+        <v>-1.298447561885396</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
-        <v>2622</v>
+        <v>2632</v>
       </c>
       <c r="B50">
-        <v>2621</v>
+        <v>2631</v>
       </c>
       <c r="C50">
-        <v>-0.01840566966818376</v>
+        <v>-0.007935144864944361</v>
       </c>
       <c r="D50">
-        <v>-4.158552758001658</v>
+        <v>-4.143208982862507</v>
       </c>
       <c r="E50">
-        <v>4.121741418665291</v>
+        <v>4.127338693132618</v>
       </c>
       <c r="F50">
-        <v>-3.153050202690189</v>
+        <v>1.173525621842053</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
-        <v>2623</v>
+        <v>2633</v>
       </c>
       <c r="B51">
-        <v>2622</v>
+        <v>2632</v>
       </c>
       <c r="C51">
-        <v>-0.02048224771871776</v>
+        <v>0.007047507592266167</v>
       </c>
       <c r="D51">
-        <v>-4.161576759313587</v>
+        <v>-4.12768702153087</v>
       </c>
       <c r="E51">
-        <v>4.120612263876152</v>
+        <v>4.141782036715402</v>
       </c>
       <c r="F51">
-        <v>0.3689284774795354</v>
+        <v>-0.41753714104793</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="1">
-        <v>2624</v>
+        <v>2634</v>
       </c>
       <c r="B52">
-        <v>2623</v>
+        <v>2633</v>
       </c>
       <c r="C52">
-        <v>0.002412941734718261</v>
+        <v>-0.002510755370773721</v>
       </c>
       <c r="D52">
-        <v>-4.137918904961539</v>
+        <v>-4.136491839039019</v>
       </c>
       <c r="E52">
-        <v>4.142744788430976</v>
+        <v>4.131470328297471</v>
       </c>
       <c r="F52">
-        <v>-1.733431765155657</v>
+        <v>0.7087792857515041</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="1">
-        <v>2625</v>
+        <v>2635</v>
       </c>
       <c r="B53">
-        <v>2624</v>
+        <v>2634</v>
       </c>
       <c r="C53">
-        <v>-0.01094786168186733</v>
+        <v>0.004217476281457864</v>
       </c>
       <c r="D53">
-        <v>-4.151023485641395</v>
+        <v>-4.129068057375185</v>
       </c>
       <c r="E53">
-        <v>4.129127762277661</v>
+        <v>4.1375030099381</v>
       </c>
       <c r="F53">
-        <v>0.9942086864066724</v>
+        <v>0.9098491219100779</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" s="1">
-        <v>2626</v>
+        <v>2636</v>
       </c>
       <c r="B54">
-        <v>2625</v>
+        <v>2635</v>
       </c>
       <c r="C54">
-        <v>0.006160683625150662</v>
+        <v>0.005439840993802972</v>
       </c>
       <c r="D54">
-        <v>-4.133304835643973</v>
+        <v>-4.127205984286881</v>
       </c>
       <c r="E54">
-        <v>4.145626202894274</v>
+        <v>4.138085666274486</v>
       </c>
       <c r="F54">
-        <v>-0.9525853767526016</v>
+        <v>3.160716915612127</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="1">
-        <v>2627</v>
+        <v>2637</v>
       </c>
       <c r="B55">
-        <v>2626</v>
+        <v>2636</v>
       </c>
       <c r="C55">
-        <v>-0.005812073286112935</v>
+        <v>0.01968357049956382</v>
       </c>
       <c r="D55">
-        <v>-4.144651786120694</v>
+        <v>-4.113933583122597</v>
       </c>
       <c r="E55">
-        <v>4.133027639548468</v>
+        <v>4.153300724121724</v>
       </c>
       <c r="F55">
-        <v>-0.1249219400433432</v>
+        <v>-0.1596806726519517</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="1">
-        <v>2628</v>
+        <v>2638</v>
       </c>
       <c r="B56">
-        <v>2627</v>
+        <v>2637</v>
       </c>
       <c r="C56">
-        <v>-0.0007433596774207489</v>
+        <v>-0.00104742847691755</v>
       </c>
       <c r="D56">
-        <v>-4.138797753907094</v>
+        <v>-4.133886396774537</v>
       </c>
       <c r="E56">
-        <v>4.137311034552252</v>
+        <v>4.131791539820702</v>
       </c>
       <c r="F56">
-        <v>0.5402049288996125</v>
+        <v>-0.2800561942455815</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="1">
-        <v>2629</v>
+        <v>2639</v>
       </c>
       <c r="B57">
-        <v>2628</v>
+        <v>2638</v>
       </c>
       <c r="C57">
-        <v>0.003290077602940348</v>
+        <v>-0.001730183038564162</v>
       </c>
       <c r="D57">
-        <v>-4.134028636025292</v>
+        <v>-4.133799466938219</v>
       </c>
       <c r="E57">
-        <v>4.140608791231173</v>
+        <v>4.13033910086109</v>
       </c>
       <c r="F57">
-        <v>-0.1244039140331665</v>
+        <v>1.668691878501427</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="1">
-        <v>2630</v>
+        <v>2640</v>
       </c>
       <c r="B58">
-        <v>2629</v>
+        <v>2639</v>
       </c>
       <c r="C58">
-        <v>-0.0007663648037489078</v>
+        <v>0.01023599250807424</v>
       </c>
       <c r="D58">
-        <v>-4.137301021871354</v>
+        <v>-4.121541898078768</v>
       </c>
       <c r="E58">
-        <v>4.135768292263856</v>
+        <v>4.142013883094918</v>
       </c>
       <c r="F58">
-        <v>-0.2908790748231027</v>
+        <v>-0.4739345363896419</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="1">
-        <v>2631</v>
+        <v>2641</v>
       </c>
       <c r="B59">
-        <v>2630</v>
+        <v>2640</v>
       </c>
       <c r="C59">
-        <v>-0.001767258666375035</v>
+        <v>-0.002903806887274493</v>
       </c>
       <c r="D59">
-        <v>-4.137530290463205</v>
+        <v>-4.133940367459095</v>
       </c>
       <c r="E59">
-        <v>4.133995773130455</v>
+        <v>4.128132753684547</v>
       </c>
       <c r="F59">
-        <v>-1.298447561885396</v>
+        <v>-2.039662790764574</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="1">
-        <v>2632</v>
+        <v>2642</v>
       </c>
       <c r="B60">
-        <v>2631</v>
+        <v>2641</v>
       </c>
       <c r="C60">
-        <v>-0.007935144864944361</v>
+        <v>-0.01252665393536782</v>
       </c>
       <c r="D60">
-        <v>-4.143208982862507</v>
+        <v>-4.143511457627534</v>
       </c>
       <c r="E60">
-        <v>4.127338693132618</v>
+        <v>4.118458149756799</v>
       </c>
       <c r="F60">
-        <v>1.173525621842053</v>
+        <v>0.7246408520767744</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
-        <v>2633</v>
+        <v>2643</v>
       </c>
       <c r="B61">
-        <v>2632</v>
+        <v>2642</v>
       </c>
       <c r="C61">
-        <v>0.007047507592266167</v>
+        <v>0.004398331563643196</v>
       </c>
       <c r="D61">
-        <v>-4.12768702153087</v>
+        <v>-4.125900228041426</v>
       </c>
       <c r="E61">
-        <v>4.141782036715402</v>
+        <v>4.134696891168713</v>
       </c>
       <c r="F61">
-        <v>-0.41753714104793</v>
+        <v>1.196186511749886</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="1">
-        <v>2634</v>
+        <v>2644</v>
       </c>
       <c r="B62">
-        <v>2633</v>
+        <v>2643</v>
       </c>
       <c r="C62">
-        <v>-0.002510755370773721</v>
+        <v>0.007275139120600761</v>
       </c>
       <c r="D62">
-        <v>-4.136491839039019</v>
+        <v>-4.122491929552275</v>
       </c>
       <c r="E62">
-        <v>4.131470328297471</v>
+        <v>4.137042207793478</v>
       </c>
       <c r="F62">
-        <v>0.7087792857515041</v>
+        <v>-1.356764627346507</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
-        <v>2635</v>
+        <v>2645</v>
       </c>
       <c r="B63">
-        <v>2634</v>
+        <v>2644</v>
       </c>
       <c r="C63">
-        <v>0.004217476281457864</v>
+        <v>-0.008101602797155206</v>
       </c>
       <c r="D63">
-        <v>-4.129068057375185</v>
+        <v>-4.137414940317311</v>
       </c>
       <c r="E63">
-        <v>4.1375030099381</v>
+        <v>4.121211734723</v>
       </c>
       <c r="F63">
-        <v>0.9098491219100779</v>
+        <v>1.59429443023722</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="1">
-        <v>2636</v>
+        <v>2646</v>
       </c>
       <c r="B64">
-        <v>2635</v>
+        <v>2645</v>
       </c>
       <c r="C64">
-        <v>0.005439840993802972</v>
+        <v>0.00922327699200106</v>
       </c>
       <c r="D64">
-        <v>-4.127205984286881</v>
+        <v>-4.119760951107469</v>
       </c>
       <c r="E64">
-        <v>4.138085666274486</v>
+        <v>4.138207505091471</v>
       </c>
       <c r="F64">
-        <v>3.160716915612127</v>
+        <v>2.22883126618374</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="1">
-        <v>2637</v>
+        <v>2647</v>
       </c>
       <c r="B65">
-        <v>2636</v>
+        <v>2646</v>
       </c>
       <c r="C65">
-        <v>0.01968357049956382</v>
+        <v>0.01350327144260467</v>
       </c>
       <c r="D65">
-        <v>-4.113933583122597</v>
+        <v>-4.115566703171097</v>
       </c>
       <c r="E65">
-        <v>4.153300724121724</v>
+        <v>4.142573246056306</v>
       </c>
       <c r="F65">
-        <v>-0.1596806726519517</v>
+        <v>-0.9714473132277135</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="1">
-        <v>2638</v>
+        <v>2648</v>
       </c>
       <c r="B66">
-        <v>2637</v>
+        <v>2647</v>
       </c>
       <c r="C66">
-        <v>-0.00104742847691755</v>
+        <v>-0.005757095486713025</v>
       </c>
       <c r="D66">
-        <v>-4.133886396774537</v>
+        <v>-4.1342174940452</v>
       </c>
       <c r="E66">
-        <v>4.131791539820702</v>
+        <v>4.122703303071774</v>
       </c>
       <c r="F66">
-        <v>-0.2800561942455815</v>
+        <v>-1.61389056940564</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="1">
-        <v>2639</v>
+        <v>2649</v>
       </c>
       <c r="B67">
-        <v>2638</v>
+        <v>2648</v>
       </c>
       <c r="C67">
-        <v>-0.001730183038564162</v>
+        <v>-0.0096990944950196</v>
       </c>
       <c r="D67">
-        <v>-4.133799466938219</v>
+        <v>-4.137834280803863</v>
       </c>
       <c r="E67">
-        <v>4.13033910086109</v>
+        <v>4.118436091813824</v>
       </c>
       <c r="F67">
-        <v>1.668691878501427</v>
+        <v>-2.247285585205816</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="1">
-        <v>2640</v>
+        <v>2650</v>
       </c>
       <c r="B68">
-        <v>2639</v>
+        <v>2649</v>
       </c>
       <c r="C68">
-        <v>0.01023599250807424</v>
+        <v>-0.01427193458438894</v>
       </c>
       <c r="D68">
-        <v>-4.121541898078768</v>
+        <v>-4.142507167267509</v>
       </c>
       <c r="E68">
-        <v>4.142013883094918</v>
+        <v>4.113963298098731</v>
       </c>
       <c r="F68">
-        <v>-0.4739345363896419</v>
+        <v>-0.978800636616306</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="1">
-        <v>2641</v>
+        <v>2651</v>
       </c>
       <c r="B69">
-        <v>2640</v>
+        <v>2650</v>
       </c>
       <c r="C69">
-        <v>-0.002903806887274493</v>
+        <v>-0.006364750678371994</v>
       </c>
       <c r="D69">
-        <v>-4.133940367459095</v>
+        <v>-4.133984329001401</v>
       </c>
       <c r="E69">
-        <v>4.128132753684547</v>
+        <v>4.121254827644656</v>
       </c>
       <c r="F69">
-        <v>-2.039662790764574</v>
+        <v>1.545374390184051</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="1">
-        <v>2642</v>
+        <v>2652</v>
       </c>
       <c r="B70">
-        <v>2641</v>
+        <v>2651</v>
       </c>
       <c r="C70">
-        <v>-0.01252665393536782</v>
+        <v>0.009942204633324157</v>
       </c>
       <c r="D70">
-        <v>-4.143511457627534</v>
+        <v>-4.117321479629426</v>
       </c>
       <c r="E70">
-        <v>4.118458149756799</v>
+        <v>4.137205888896075</v>
       </c>
       <c r="F70">
-        <v>0.7246408520767744</v>
+        <v>-0.9732436918231002</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="1">
-        <v>2643</v>
+        <v>2653</v>
       </c>
       <c r="B71">
-        <v>2642</v>
+        <v>2652</v>
       </c>
       <c r="C71">
-        <v>0.004398331563643196</v>
+        <v>-0.006152935450927505</v>
       </c>
       <c r="D71">
-        <v>-4.125900228041426</v>
+        <v>-4.132808013418829</v>
       </c>
       <c r="E71">
-        <v>4.134696891168713</v>
+        <v>4.120502142516973</v>
       </c>
       <c r="F71">
-        <v>1.196186511749886</v>
+        <v>1.094235842094449</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="1">
-        <v>2644</v>
+        <v>2654</v>
       </c>
       <c r="B72">
-        <v>2643</v>
+        <v>2653</v>
       </c>
       <c r="C72">
-        <v>0.007275139120600761</v>
+        <v>0.006759487372431759</v>
       </c>
       <c r="D72">
-        <v>-4.122491929552275</v>
+        <v>-4.119330238570957</v>
       </c>
       <c r="E72">
-        <v>4.137042207793478</v>
+        <v>4.132849213315821</v>
       </c>
       <c r="F72">
-        <v>-1.356764627346507</v>
+        <v>-1.461658178282832</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="1">
-        <v>2645</v>
+        <v>2655</v>
       </c>
       <c r="B73">
-        <v>2644</v>
+        <v>2654</v>
       </c>
       <c r="C73">
-        <v>-0.008101602797155206</v>
+        <v>-0.008825011514133931</v>
       </c>
       <c r="D73">
-        <v>-4.137414940317311</v>
+        <v>-4.134515563164698</v>
       </c>
       <c r="E73">
-        <v>4.121211734723</v>
+        <v>4.116865540136431</v>
       </c>
       <c r="F73">
-        <v>1.59429443023722</v>
+        <v>0.1226241723243149</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="1">
-        <v>2646</v>
+        <v>2656</v>
       </c>
       <c r="B74">
-        <v>2645</v>
+        <v>2655</v>
       </c>
       <c r="C74">
-        <v>0.00922327699200106</v>
+        <v>0.0007630044741268117</v>
       </c>
       <c r="D74">
-        <v>-4.119760951107469</v>
+        <v>-4.124153537796838</v>
       </c>
       <c r="E74">
-        <v>4.138207505091471</v>
+        <v>4.125679546745092</v>
       </c>
       <c r="F74">
-        <v>2.22883126618374</v>
+        <v>-0.2863573239256567</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="1">
-        <v>2647</v>
+        <v>2657</v>
       </c>
       <c r="B75">
-        <v>2646</v>
+        <v>2656</v>
       </c>
       <c r="C75">
-        <v>0.01350327144260467</v>
+        <v>-0.001721756997069761</v>
       </c>
       <c r="D75">
-        <v>-4.115566703171097</v>
+        <v>-4.125876154162054</v>
       </c>
       <c r="E75">
-        <v>4.142573246056306</v>
+        <v>4.122432640167915</v>
       </c>
       <c r="F75">
-        <v>-0.9714473132277135</v>
+        <v>0.4496226663142977</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="1">
-        <v>2648</v>
+        <v>2658</v>
       </c>
       <c r="B76">
-        <v>2647</v>
+        <v>2657</v>
       </c>
       <c r="C76">
-        <v>-0.005757095486713025</v>
+        <v>0.0027000422515306</v>
       </c>
       <c r="D76">
-        <v>-4.1342174940452</v>
+        <v>-4.120713904445162</v>
       </c>
       <c r="E76">
-        <v>4.122703303071774</v>
+        <v>4.126113988948222</v>
       </c>
       <c r="F76">
-        <v>-1.61389056940564</v>
+        <v>-1.231037294306425</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="1">
-        <v>2649</v>
+        <v>2659</v>
       </c>
       <c r="B77">
-        <v>2648</v>
+        <v>2658</v>
       </c>
       <c r="C77">
-        <v>-0.0096990944950196</v>
+        <v>-0.007328606474502331</v>
       </c>
       <c r="D77">
-        <v>-4.137834280803863</v>
+        <v>-4.130233613118293</v>
       </c>
       <c r="E77">
-        <v>4.118436091813824</v>
+        <v>4.115576400169289</v>
       </c>
       <c r="F77">
-        <v>-2.247285585205816</v>
+        <v>1.719240054037208</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="1">
-        <v>2650</v>
+        <v>2660</v>
       </c>
       <c r="B78">
-        <v>2649</v>
+        <v>2659</v>
       </c>
       <c r="C78">
-        <v>-0.01427193458438894</v>
+        <v>0.009935433145370504</v>
       </c>
       <c r="D78">
-        <v>-4.142507167267509</v>
+        <v>-4.112716535094395</v>
       </c>
       <c r="E78">
-        <v>4.113963298098731</v>
+        <v>4.132587401385137</v>
       </c>
       <c r="F78">
-        <v>-0.978800636616306</v>
+        <v>-0.4882027597307825</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" s="1">
-        <v>2651</v>
+        <v>2661</v>
       </c>
       <c r="B79">
-        <v>2650</v>
+        <v>2660</v>
       </c>
       <c r="C79">
-        <v>-0.006364750678371994</v>
+        <v>-0.002807914944615175</v>
       </c>
       <c r="D79">
-        <v>-4.133984329001401</v>
+        <v>-4.124728336208268</v>
       </c>
       <c r="E79">
-        <v>4.121254827644656</v>
+        <v>4.119112506319038</v>
       </c>
       <c r="F79">
-        <v>1.545374390184051</v>
+        <v>2.775163013181725</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" s="1">
-        <v>2652</v>
+        <v>2662</v>
       </c>
       <c r="B80">
-        <v>2651</v>
+        <v>2661</v>
       </c>
       <c r="C80">
-        <v>0.009942204633324157</v>
+        <v>0.01556773911603574</v>
       </c>
       <c r="D80">
-        <v>-4.117321479629426</v>
+        <v>-4.106929532606812</v>
       </c>
       <c r="E80">
-        <v>4.137205888896075</v>
+        <v>4.138065010838884</v>
       </c>
       <c r="F80">
-        <v>-0.9732436918231002</v>
+        <v>0.790205613224515</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="1">
-        <v>2653</v>
+        <v>2663</v>
       </c>
       <c r="B81">
-        <v>2652</v>
+        <v>2662</v>
       </c>
       <c r="C81">
-        <v>-0.006152935450927505</v>
+        <v>0.004524325568777268</v>
       </c>
       <c r="D81">
-        <v>-4.132808013418829</v>
+        <v>-4.117303551225975</v>
       </c>
       <c r="E81">
-        <v>4.120502142516973</v>
+        <v>4.126352202363529</v>
       </c>
       <c r="F81">
-        <v>1.094235842094449</v>
+        <v>3.099822000324082</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" s="1">
-        <v>2654</v>
+        <v>2664</v>
       </c>
       <c r="B82">
-        <v>2653</v>
+        <v>2663</v>
       </c>
       <c r="C82">
-        <v>0.006759487372431759</v>
+        <v>0.01855823155835376</v>
       </c>
       <c r="D82">
-        <v>-4.119330238570957</v>
+        <v>-4.10417216045615</v>
       </c>
       <c r="E82">
-        <v>4.132849213315821</v>
+        <v>4.141288623572857</v>
       </c>
       <c r="F82">
-        <v>-1.461658178282832</v>
+        <v>-1.965002543414052</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" s="1">
-        <v>2655</v>
+        <v>2665</v>
       </c>
       <c r="B83">
-        <v>2654</v>
+        <v>2664</v>
       </c>
       <c r="C83">
-        <v>-0.008825011514133931</v>
+        <v>-0.01077946677289694</v>
       </c>
       <c r="D83">
-        <v>-4.134515563164698</v>
+        <v>-4.133423542653779</v>
       </c>
       <c r="E83">
-        <v>4.116865540136431</v>
+        <v>4.111864609107985</v>
       </c>
       <c r="F83">
-        <v>0.1226241723243149</v>
+        <v>-1.88536613643997</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" s="1">
-        <v>2656</v>
+        <v>2666</v>
       </c>
       <c r="B84">
-        <v>2655</v>
+        <v>2665</v>
       </c>
       <c r="C84">
-        <v>0.0007630044741268117</v>
+        <v>-0.01087763789901676</v>
       </c>
       <c r="D84">
-        <v>-4.124153537796838</v>
+        <v>-4.133362422786253</v>
       </c>
       <c r="E84">
-        <v>4.125679546745092</v>
+        <v>4.111607146988219</v>
       </c>
       <c r="F84">
-        <v>-0.2863573239256567</v>
+        <v>1.534556967465939</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
-        <v>2657</v>
+        <v>2667</v>
       </c>
       <c r="B85">
-        <v>2656</v>
+        <v>2666</v>
       </c>
       <c r="C85">
-        <v>-0.001721756997069761</v>
+        <v>0.008534293339576083</v>
       </c>
       <c r="D85">
-        <v>-4.125876154162054</v>
+        <v>-4.113594575468004</v>
       </c>
       <c r="E85">
-        <v>4.122432640167915</v>
+        <v>4.130663162147155</v>
       </c>
       <c r="F85">
-        <v>0.4496226663142977</v>
+        <v>-0.2737049607040021</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
-        <v>2658</v>
+        <v>2668</v>
       </c>
       <c r="B86">
-        <v>2657</v>
+        <v>2667</v>
       </c>
       <c r="C86">
-        <v>0.0027000422515306</v>
+        <v>-0.001530248604268024</v>
       </c>
       <c r="D86">
-        <v>-4.120713904445162</v>
+        <v>-4.122900155628043</v>
       </c>
       <c r="E86">
-        <v>4.126113988948222</v>
+        <v>4.119839658419508</v>
       </c>
       <c r="F86">
-        <v>-1.231037294306425</v>
+        <v>-1.023228132573628</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" s="1">
-        <v>2659</v>
+        <v>2669</v>
       </c>
       <c r="B87">
-        <v>2658</v>
+        <v>2668</v>
       </c>
       <c r="C87">
-        <v>-0.007328606474502331</v>
+        <v>-0.005652315803571855</v>
       </c>
       <c r="D87">
-        <v>-4.130233613118293</v>
+        <v>-4.126432159309181</v>
       </c>
       <c r="E87">
-        <v>4.115576400169289</v>
+        <v>4.115127527702037</v>
       </c>
       <c r="F87">
-        <v>1.719240054037208</v>
+        <v>-0.6747396109163972</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
-        <v>2660</v>
+        <v>2670</v>
       </c>
       <c r="B88">
-        <v>2659</v>
+        <v>2669</v>
       </c>
       <c r="C88">
-        <v>0.009935433145370504</v>
+        <v>-0.003752815316846676</v>
       </c>
       <c r="D88">
-        <v>-4.112716535094395</v>
+        <v>-4.123838813488335</v>
       </c>
       <c r="E88">
-        <v>4.132587401385137</v>
+        <v>4.116333182854643</v>
       </c>
       <c r="F88">
-        <v>-0.4882027597307825</v>
+        <v>-0.920190529851439</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="1">
-        <v>2661</v>
+        <v>2671</v>
       </c>
       <c r="B89">
-        <v>2660</v>
+        <v>2670</v>
       </c>
       <c r="C89">
-        <v>-0.002807914944615175</v>
+        <v>-0.005176341681081968</v>
       </c>
       <c r="D89">
-        <v>-4.124728336208268</v>
+        <v>-4.124637386887137</v>
       </c>
       <c r="E89">
-        <v>4.119112506319038</v>
+        <v>4.114284703524973</v>
       </c>
       <c r="F89">
-        <v>2.775163013181725</v>
+        <v>0.9600073729018277</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" s="1">
-        <v>2662</v>
+        <v>2672</v>
       </c>
       <c r="B90">
-        <v>2661</v>
+        <v>2671</v>
       </c>
       <c r="C90">
-        <v>0.01556773911603574</v>
+        <v>0.005355113948064514</v>
       </c>
       <c r="D90">
-        <v>-4.106929532606812</v>
+        <v>-4.113497346101954</v>
       </c>
       <c r="E90">
-        <v>4.138065010838884</v>
+        <v>4.124207573998082</v>
       </c>
       <c r="F90">
-        <v>0.790205613224515</v>
+        <v>0.3179652917379983</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
-        <v>2663</v>
+        <v>2673</v>
       </c>
       <c r="B91">
-        <v>2662</v>
+        <v>2672</v>
       </c>
       <c r="C91">
-        <v>0.004524325568777268</v>
+        <v>0.001762061008420835</v>
       </c>
       <c r="D91">
-        <v>-4.117303551225975</v>
+        <v>-4.116336644265204</v>
       </c>
       <c r="E91">
-        <v>4.126352202363529</v>
+        <v>4.119860766282046</v>
       </c>
       <c r="F91">
-        <v>3.099822000324082</v>
+        <v>-2.85791235533015</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" s="1">
-        <v>2664</v>
+        <v>2674</v>
       </c>
       <c r="B92">
-        <v>2663</v>
+        <v>2673</v>
       </c>
       <c r="C92">
-        <v>0.01855823155835376</v>
+        <v>-0.0156833809850226</v>
       </c>
       <c r="D92">
-        <v>-4.10417216045615</v>
+        <v>-4.134438688610541</v>
       </c>
       <c r="E92">
-        <v>4.141288623572857</v>
+        <v>4.103071926640497</v>
       </c>
       <c r="F92">
-        <v>-1.965002543414052</v>
+        <v>-1.026070976296189</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" s="1">
-        <v>2665</v>
+        <v>2675</v>
       </c>
       <c r="B93">
-        <v>2664</v>
+        <v>2674</v>
       </c>
       <c r="C93">
-        <v>-0.01077946677289694</v>
+        <v>-0.005831540788341756</v>
       </c>
       <c r="D93">
-        <v>-4.133423542653779</v>
+        <v>-4.123994580102647</v>
       </c>
       <c r="E93">
-        <v>4.111864609107985</v>
+        <v>4.112331498525964</v>
       </c>
       <c r="F93">
-        <v>-1.88536613643997</v>
+        <v>0.8216973102280534</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" s="1">
-        <v>2666</v>
+        <v>2676</v>
       </c>
       <c r="B94">
-        <v>2665</v>
+        <v>2675</v>
       </c>
       <c r="C94">
-        <v>-0.01087763789901676</v>
+        <v>0.004665820277980263</v>
       </c>
       <c r="D94">
-        <v>-4.133362422786253</v>
+        <v>-4.112846812047194</v>
       </c>
       <c r="E94">
-        <v>4.111607146988219</v>
+        <v>4.122178452603154</v>
       </c>
       <c r="F94">
-        <v>1.534556967465939</v>
+        <v>1.663661823924301</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" s="1">
-        <v>2667</v>
+        <v>2677</v>
       </c>
       <c r="B95">
-        <v>2666</v>
+        <v>2676</v>
       </c>
       <c r="C95">
-        <v>0.008534293339576083</v>
+        <v>0.009592200450717151</v>
       </c>
       <c r="D95">
-        <v>-4.113594575468004</v>
+        <v>-4.107630843724744</v>
       </c>
       <c r="E95">
-        <v>4.130663162147155</v>
+        <v>4.126815244626178</v>
       </c>
       <c r="F95">
-        <v>-0.2737049607040021</v>
+        <v>2.934389762905987</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" s="1">
-        <v>2668</v>
+        <v>2678</v>
       </c>
       <c r="B96">
-        <v>2667</v>
+        <v>2677</v>
       </c>
       <c r="C96">
-        <v>-0.001530248604268024</v>
+        <v>0.01810808356783212</v>
       </c>
       <c r="D96">
-        <v>-4.122900155628043</v>
+        <v>-4.099836358108337</v>
       </c>
       <c r="E96">
-        <v>4.119839658419508</v>
+        <v>4.136052525244001</v>
       </c>
       <c r="F96">
-        <v>-1.023228132573628</v>
+        <v>0.4289341729476703</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" s="1">
-        <v>2669</v>
+        <v>2679</v>
       </c>
       <c r="B97">
-        <v>2668</v>
+        <v>2678</v>
       </c>
       <c r="C97">
-        <v>-0.005652315803571855</v>
+        <v>0.002637331270388594</v>
       </c>
       <c r="D97">
-        <v>-4.126432159309181</v>
+        <v>-4.114567573008578</v>
       </c>
       <c r="E97">
-        <v>4.115127527702037</v>
+        <v>4.119842235549356</v>
       </c>
       <c r="F97">
-        <v>-0.6747396109163972</v>
+        <v>1.812272464088061</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" s="1">
-        <v>2670</v>
+        <v>2680</v>
       </c>
       <c r="B98">
-        <v>2669</v>
+        <v>2679</v>
       </c>
       <c r="C98">
-        <v>-0.003752815316846676</v>
+        <v>0.01149059788430125</v>
       </c>
       <c r="D98">
-        <v>-4.123838813488335</v>
+        <v>-4.105516152457129</v>
       </c>
       <c r="E98">
-        <v>4.116333182854643</v>
+        <v>4.128497348225732</v>
       </c>
       <c r="F98">
-        <v>-0.920190529851439</v>
+        <v>0.5335378510146427</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" s="1">
-        <v>2671</v>
+        <v>2681</v>
       </c>
       <c r="B99">
-        <v>2670</v>
+        <v>2680</v>
       </c>
       <c r="C99">
-        <v>-0.005176341681081968</v>
+        <v>0.00339046174105443</v>
       </c>
       <c r="D99">
-        <v>-4.124637386887137</v>
+        <v>-4.112895558519519</v>
       </c>
       <c r="E99">
-        <v>4.114284703524973</v>
+        <v>4.119676482001628</v>
       </c>
       <c r="F99">
-        <v>0.9600073729018277</v>
+        <v>1.433986836423173</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="1">
-        <v>2672</v>
+        <v>2682</v>
       </c>
       <c r="B100">
-        <v>2671</v>
+        <v>2681</v>
       </c>
       <c r="C100">
-        <v>0.005355113948064514</v>
+        <v>0.009291258266554719</v>
       </c>
       <c r="D100">
-        <v>-4.113497346101954</v>
+        <v>-4.106583272237964</v>
       </c>
       <c r="E100">
-        <v>4.124207573998082</v>
+        <v>4.125165788771074</v>
       </c>
       <c r="F100">
-        <v>0.3179652917379983</v>
+        <v>-0.7899232347625684</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="1">
-        <v>2673</v>
+        <v>2683</v>
       </c>
       <c r="B101">
-        <v>2672</v>
+        <v>2682</v>
       </c>
       <c r="C101">
-        <v>0.001762061008420835</v>
+        <v>-0.005077585216191952</v>
       </c>
       <c r="D101">
-        <v>-4.116336644265204</v>
+        <v>-4.120295874563785</v>
       </c>
       <c r="E101">
-        <v>4.119860766282046</v>
+        <v>4.110140704131402</v>
       </c>
       <c r="F101">
-        <v>-2.85791235533015</v>
+        <v>-2.06035521805088</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" s="1">
-        <v>2674</v>
+        <v>2684</v>
       </c>
       <c r="B102">
-        <v>2673</v>
+        <v>2683</v>
       </c>
       <c r="C102">
-        <v>-0.0156833809850226</v>
+        <v>-0.01345871053662868</v>
       </c>
       <c r="D102">
-        <v>-4.134438688610541</v>
+        <v>-4.128644918908332</v>
       </c>
       <c r="E102">
-        <v>4.103071926640497</v>
+        <v>4.101727497835075</v>
       </c>
       <c r="F102">
-        <v>-1.026070976296189</v>
+        <v>-2.458660433126525</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>2675</v>
+        <v>2685</v>
       </c>
       <c r="B103">
-        <v>2674</v>
+        <v>2684</v>
       </c>
       <c r="C103">
-        <v>-0.005831540788341756</v>
+        <v>-0.01717113922734104</v>
       </c>
       <c r="D103">
-        <v>-4.123994580102647</v>
+        <v>-4.132630137973944</v>
       </c>
       <c r="E103">
-        <v>4.112331498525964</v>
+        <v>4.098287859519262</v>
       </c>
       <c r="F103">
-        <v>0.8216973102280534</v>
+        <v>-0.5149545940831501</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>2676</v>
+        <v>2686</v>
       </c>
       <c r="B104">
-        <v>2675</v>
+        <v>2685</v>
       </c>
       <c r="C104">
-        <v>0.004665820277980263</v>
+        <v>-0.003600177209700068</v>
       </c>
       <c r="D104">
-        <v>-4.112846812047194</v>
+        <v>-4.118335805445395</v>
       </c>
       <c r="E104">
-        <v>4.122178452603154</v>
+        <v>4.111135451025995</v>
       </c>
       <c r="F104">
-        <v>1.663661823924301</v>
+        <v>4.882798636728403</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" s="1">
-        <v>2677</v>
+        <v>2687</v>
       </c>
       <c r="B105">
-        <v>2676</v>
+        <v>2686</v>
       </c>
       <c r="C105">
-        <v>0.009592200450717151</v>
+        <v>0.03365234199435432</v>
       </c>
       <c r="D105">
-        <v>-4.107630843724744</v>
+        <v>-4.084465461018608</v>
       </c>
       <c r="E105">
-        <v>4.126815244626178</v>
+        <v>4.151770145007317</v>
       </c>
       <c r="F105">
-        <v>2.934389762905987</v>
+        <v>-0.1135288674444013</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
-        <v>2678</v>
+        <v>2688</v>
       </c>
       <c r="B106">
-        <v>2677</v>
+        <v>2687</v>
       </c>
       <c r="C106">
-        <v>0.01810808356783212</v>
+        <v>-0.000885942152818301</v>
       </c>
       <c r="D106">
-        <v>-4.099836358108337</v>
+        <v>-4.118241113325475</v>
       </c>
       <c r="E106">
-        <v>4.136052525244001</v>
+        <v>4.116469229019838</v>
       </c>
       <c r="F106">
-        <v>0.4289341729476703</v>
+        <v>-0.912900976698694</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" s="1">
-        <v>2679</v>
+        <v>2689</v>
       </c>
       <c r="B107">
-        <v>2678</v>
+        <v>2688</v>
       </c>
       <c r="C107">
-        <v>0.002637331270388594</v>
+        <v>-0.006212142882682802</v>
       </c>
       <c r="D107">
-        <v>-4.114567573008578</v>
+        <v>-4.122945757933018</v>
       </c>
       <c r="E107">
-        <v>4.119842235549356</v>
+        <v>4.110521472167652</v>
       </c>
       <c r="F107">
-        <v>1.812272464088061</v>
+        <v>-1.191634319834378</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" s="1">
-        <v>2680</v>
+        <v>2690</v>
       </c>
       <c r="B108">
-        <v>2679</v>
+        <v>2689</v>
       </c>
       <c r="C108">
-        <v>0.01149059788430125</v>
+        <v>-0.008198993044153433</v>
       </c>
       <c r="D108">
-        <v>-4.105516152457129</v>
+        <v>-4.124410913027545</v>
       </c>
       <c r="E108">
-        <v>4.128497348225732</v>
+        <v>4.108012926939238</v>
       </c>
       <c r="F108">
-        <v>0.5335378510146427</v>
+        <v>-0.2710553450457454</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" s="1">
-        <v>2681</v>
+        <v>2691</v>
       </c>
       <c r="B109">
-        <v>2680</v>
+        <v>2690</v>
       </c>
       <c r="C109">
-        <v>0.00339046174105443</v>
+        <v>-0.001848753859045321</v>
       </c>
       <c r="D109">
-        <v>-4.112895558519519</v>
+        <v>-4.117307495074036</v>
       </c>
       <c r="E109">
-        <v>4.119676482001628</v>
+        <v>4.113609987355946</v>
       </c>
       <c r="F109">
-        <v>1.433986836423173</v>
+        <v>0.9262899113220868</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" s="1">
-        <v>2682</v>
+        <v>2692</v>
       </c>
       <c r="B110">
-        <v>2681</v>
+        <v>2691</v>
       </c>
       <c r="C110">
-        <v>0.009291258266554719</v>
+        <v>0.006401759692817137</v>
       </c>
       <c r="D110">
-        <v>-4.106583272237964</v>
+        <v>-4.108441671857625</v>
       </c>
       <c r="E110">
-        <v>4.125165788771074</v>
+        <v>4.121245191243259</v>
       </c>
       <c r="F110">
-        <v>-0.7899232347625684</v>
+        <v>-1.275872710530024</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" s="1">
-        <v>2683</v>
+        <v>2693</v>
       </c>
       <c r="B111">
-        <v>2682</v>
+        <v>2692</v>
       </c>
       <c r="C111">
-        <v>-0.005077585216191952</v>
+        <v>-0.00870250702434942</v>
       </c>
       <c r="D111">
-        <v>-4.120295874563785</v>
+        <v>-4.123066726333501</v>
       </c>
       <c r="E111">
-        <v>4.110140704131402</v>
+        <v>4.105661712284803</v>
       </c>
       <c r="F111">
-        <v>-2.06035521805088</v>
+        <v>-0.3117695432585776</v>
       </c>
     </row>
     <row r="112" spans="1:6">
       <c r="A112" s="1">
-        <v>2684</v>
+        <v>2694</v>
       </c>
       <c r="B112">
-        <v>2683</v>
+        <v>2693</v>
       </c>
       <c r="C112">
-        <v>-0.01345871053662868</v>
+        <v>-0.002101930082525384</v>
       </c>
       <c r="D112">
-        <v>-4.128644918908332</v>
+        <v>-4.115718103299347</v>
       </c>
       <c r="E112">
-        <v>4.101727497835075</v>
+        <v>4.111514243134296</v>
       </c>
       <c r="F112">
-        <v>-2.458660433126525</v>
+        <v>0.1170275148190569</v>
       </c>
     </row>
     <row r="113" spans="1:6">
       <c r="A113" s="1">
-        <v>2685</v>
+        <v>2695</v>
       </c>
       <c r="B113">
-        <v>2684</v>
+        <v>2694</v>
       </c>
       <c r="C113">
-        <v>-0.01717113922734104</v>
+        <v>0.0008068699529314957</v>
       </c>
       <c r="D113">
-        <v>-4.132630137973944</v>
+        <v>-4.112048215154138</v>
       </c>
       <c r="E113">
-        <v>4.098287859519262</v>
+        <v>4.113661955060001</v>
       </c>
       <c r="F113">
-        <v>-0.5149545940831501</v>
+        <v>-0.7042282625413065</v>
       </c>
     </row>
     <row r="114" spans="1:6">
       <c r="A114" s="1">
-        <v>2686</v>
+        <v>2696</v>
       </c>
       <c r="B114">
-        <v>2685</v>
+        <v>2695</v>
       </c>
       <c r="C114">
-        <v>-0.003600177209700068</v>
+        <v>-0.004810416056345068</v>
       </c>
       <c r="D114">
-        <v>-4.118335805445395</v>
+        <v>-4.116988531542591</v>
       </c>
       <c r="E114">
-        <v>4.111135451025995</v>
+        <v>4.107367699429902</v>
       </c>
       <c r="F114">
-        <v>4.882798636728403</v>
+        <v>0.6652343061103849</v>
       </c>
     </row>
     <row r="115" spans="1:6">
       <c r="A115" s="1">
-        <v>2687</v>
+        <v>2697</v>
       </c>
       <c r="B115">
-        <v>2686</v>
+        <v>2696</v>
       </c>
       <c r="C115">
-        <v>0.03365234199435432</v>
+        <v>0.004531049181304778</v>
       </c>
       <c r="D115">
-        <v>-4.084465461018608</v>
+        <v>-4.106962145795811</v>
       </c>
       <c r="E115">
-        <v>4.151770145007317</v>
+        <v>4.11602424415842</v>
       </c>
       <c r="F115">
-        <v>-0.1135288674444013</v>
+        <v>-0.7830893580548448</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
-        <v>2688</v>
+        <v>2698</v>
       </c>
       <c r="B116">
-        <v>2687</v>
+        <v>2697</v>
       </c>
       <c r="C116">
-        <v>-0.000885942152818301</v>
+        <v>-0.005319266262118418</v>
       </c>
       <c r="D116">
-        <v>-4.118241113325475</v>
+        <v>-4.116157618017471</v>
       </c>
       <c r="E116">
-        <v>4.116469229019838</v>
+        <v>4.105519085493235</v>
       </c>
       <c r="F116">
-        <v>-0.912900976698694</v>
+        <v>-1.345489233418284</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
-        <v>2689</v>
+        <v>2699</v>
       </c>
       <c r="B117">
-        <v>2688</v>
+        <v>2698</v>
       </c>
       <c r="C117">
-        <v>-0.006212142882682802</v>
+        <v>-0.009173745558156627</v>
       </c>
       <c r="D117">
-        <v>-4.122945757933018</v>
+        <v>-4.119561297516052</v>
       </c>
       <c r="E117">
-        <v>4.110521472167652</v>
+        <v>4.101213806399739</v>
       </c>
       <c r="F117">
-        <v>-1.191634319834378</v>
+        <v>0.6354270784607152</v>
       </c>
     </row>
     <row r="118" spans="1:6">
       <c r="A118" s="1">
-        <v>2690</v>
+        <v>2700</v>
       </c>
       <c r="B118">
-        <v>2689</v>
+        <v>2699</v>
       </c>
       <c r="C118">
-        <v>-0.008198993044153433</v>
+        <v>0.004325294978080889</v>
       </c>
       <c r="D118">
-        <v>-4.124410913027545</v>
+        <v>-4.105372662331543</v>
       </c>
       <c r="E118">
-        <v>4.108012926939238</v>
+        <v>4.114023252287705</v>
       </c>
       <c r="F118">
-        <v>-0.2710553450457454</v>
+        <v>3.882475195230484</v>
       </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
-        <v>2691</v>
+        <v>2701</v>
       </c>
       <c r="B119">
-        <v>2690</v>
+        <v>2700</v>
       </c>
       <c r="C119">
-        <v>-0.001848753859045321</v>
+        <v>0.0270546150389271</v>
       </c>
       <c r="D119">
-        <v>-4.117307495074036</v>
+        <v>-4.084485291246767</v>
       </c>
       <c r="E119">
-        <v>4.113609987355946</v>
+        <v>4.138594521324621</v>
       </c>
       <c r="F119">
-        <v>0.9262899113220868</v>
+        <v>-1.651026176690173</v>
       </c>
     </row>
     <row r="120" spans="1:6">
       <c r="A120" s="1">
-        <v>2692</v>
+        <v>2702</v>
       </c>
       <c r="B120">
-        <v>2691</v>
+        <v>2701</v>
       </c>
       <c r="C120">
-        <v>0.006401759692817137</v>
+        <v>-0.01068562751328779</v>
       </c>
       <c r="D120">
-        <v>-4.108441671857625</v>
+        <v>-4.12195082690234</v>
       </c>
       <c r="E120">
-        <v>4.121245191243259</v>
+        <v>4.100579571875764</v>
       </c>
       <c r="F120">
-        <v>-1.275872710530024</v>
+        <v>-1.129075650335487</v>
       </c>
     </row>
     <row r="121" spans="1:6">
       <c r="A121" s="1">
-        <v>2693</v>
+        <v>2703</v>
       </c>
       <c r="B121">
-        <v>2692</v>
+        <v>2702</v>
       </c>
       <c r="C121">
-        <v>-0.00870250702434942</v>
+        <v>-0.007399461155538588</v>
       </c>
       <c r="D121">
-        <v>-4.123066726333501</v>
+        <v>-4.118120072915963</v>
       </c>
       <c r="E121">
-        <v>4.105661712284803</v>
+        <v>4.103321150604885</v>
       </c>
       <c r="F121">
-        <v>-0.3117695432585776</v>
+        <v>1.900386840208057</v>
       </c>
     </row>
     <row r="122" spans="1:6">
       <c r="A122" s="1">
-        <v>2694</v>
+        <v>2704</v>
       </c>
       <c r="B122">
-        <v>2693</v>
+        <v>2703</v>
       </c>
       <c r="C122">
-        <v>-0.002101930082525384</v>
+        <v>0.01220313102481389</v>
       </c>
       <c r="D122">
-        <v>-4.115718103299347</v>
+        <v>-4.098386188185851</v>
       </c>
       <c r="E122">
-        <v>4.111514243134296</v>
+        <v>4.122792450235478</v>
       </c>
       <c r="F122">
-        <v>0.1170275148190569</v>
+        <v>0.1919018051978583</v>
       </c>
     </row>
     <row r="123" spans="1:6">
       <c r="A123" s="1">
-        <v>2695</v>
+        <v>2705</v>
       </c>
       <c r="B123">
-        <v>2694</v>
+        <v>2704</v>
       </c>
       <c r="C123">
-        <v>0.0008068699529314957</v>
+        <v>0.001196437868062893</v>
       </c>
       <c r="D123">
-        <v>-4.112048215154138</v>
+        <v>-4.108638298343679</v>
       </c>
       <c r="E123">
-        <v>4.113661955060001</v>
+        <v>4.111031174079804</v>
       </c>
       <c r="F123">
-        <v>-0.7042282625413065</v>
+        <v>0.4590673708598558</v>
       </c>
     </row>
     <row r="124" spans="1:6">
       <c r="A124" s="1">
-        <v>2696</v>
+        <v>2706</v>
       </c>
       <c r="B124">
-        <v>2695</v>
+        <v>2705</v>
       </c>
       <c r="C124">
-        <v>-0.004810416056345068</v>
+        <v>0.002954614504471673</v>
       </c>
       <c r="D124">
-        <v>-4.116988531542591</v>
+        <v>-4.106156606942185</v>
       </c>
       <c r="E124">
-        <v>4.107367699429902</v>
+        <v>4.112065835951129</v>
       </c>
       <c r="F124">
-        <v>0.6652343061103849</v>
+        <v>-1.074453928297814</v>
       </c>
     </row>
     <row r="125" spans="1:6">
       <c r="A125" s="1">
-        <v>2697</v>
+        <v>2707</v>
       </c>
       <c r="B125">
-        <v>2696</v>
+        <v>2706</v>
       </c>
       <c r="C125">
-        <v>0.004531049181304778</v>
+        <v>-0.006888376447284133</v>
       </c>
       <c r="D125">
-        <v>-4.106962145795811</v>
+        <v>-4.11544081905628</v>
       </c>
       <c r="E125">
-        <v>4.11602424415842</v>
+        <v>4.101664066161712</v>
       </c>
       <c r="F125">
-        <v>-0.7830893580548448</v>
+        <v>3.077165866675458</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="1">
-        <v>2698</v>
+        <v>2708</v>
       </c>
       <c r="B126">
-        <v>2697</v>
+        <v>2707</v>
       </c>
       <c r="C126">
-        <v>-0.005319266262118418</v>
+        <v>0.01885257155371416</v>
       </c>
       <c r="D126">
-        <v>-4.116157618017471</v>
+        <v>-4.090583390457043</v>
       </c>
       <c r="E126">
-        <v>4.105519085493235</v>
+        <v>4.128288533564472</v>
       </c>
       <c r="F126">
-        <v>-1.345489233418284</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="1">
-        <v>2699</v>
-      </c>
-      <c r="B127">
-        <v>2698</v>
-      </c>
-      <c r="C127">
-        <v>-0.009173745558156627</v>
-      </c>
-      <c r="D127">
-        <v>-4.119561297516052</v>
-      </c>
-      <c r="E127">
-        <v>4.101213806399739</v>
-      </c>
-      <c r="F127">
-        <v>0.6354270784607152</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1">
-        <v>2700</v>
-      </c>
-      <c r="B128">
-        <v>2699</v>
-      </c>
-      <c r="C128">
-        <v>0.004325294978080889</v>
-      </c>
-      <c r="D128">
-        <v>-4.105372662331543</v>
-      </c>
-      <c r="E128">
-        <v>4.114023252287705</v>
-      </c>
-      <c r="F128">
-        <v>3.882475195230484</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1">
-        <v>2701</v>
-      </c>
-      <c r="B129">
-        <v>2700</v>
-      </c>
-      <c r="C129">
-        <v>0.0270546150389271</v>
-      </c>
-      <c r="D129">
-        <v>-4.084485291246767</v>
-      </c>
-      <c r="E129">
-        <v>4.138594521324621</v>
-      </c>
-      <c r="F129">
-        <v>-1.651026176690173</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1">
-        <v>2702</v>
-      </c>
-      <c r="B130">
-        <v>2701</v>
-      </c>
-      <c r="C130">
-        <v>-0.01068562751328779</v>
-      </c>
-      <c r="D130">
-        <v>-4.12195082690234</v>
-      </c>
-      <c r="E130">
-        <v>4.100579571875764</v>
-      </c>
-      <c r="F130">
-        <v>-1.129075650335487</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1">
-        <v>2703</v>
-      </c>
-      <c r="B131">
-        <v>2702</v>
-      </c>
-      <c r="C131">
-        <v>-0.007399461155538588</v>
-      </c>
-      <c r="D131">
-        <v>-4.118120072915963</v>
-      </c>
-      <c r="E131">
-        <v>4.103321150604885</v>
-      </c>
-      <c r="F131">
-        <v>1.900386840208057</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1">
-        <v>2704</v>
-      </c>
-      <c r="B132">
-        <v>2703</v>
-      </c>
-      <c r="C132">
-        <v>0.01220313102481389</v>
-      </c>
-      <c r="D132">
-        <v>-4.098386188185851</v>
-      </c>
-      <c r="E132">
-        <v>4.122792450235478</v>
-      </c>
-      <c r="F132">
-        <v>0.1919018051978583</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1">
-        <v>2705</v>
-      </c>
-      <c r="B133">
-        <v>2704</v>
-      </c>
-      <c r="C133">
-        <v>0.001196437868062893</v>
-      </c>
-      <c r="D133">
-        <v>-4.108638298343679</v>
-      </c>
-      <c r="E133">
-        <v>4.111031174079804</v>
-      </c>
-      <c r="F133">
-        <v>0.4590673708598558</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1">
-        <v>2706</v>
-      </c>
-      <c r="B134">
-        <v>2705</v>
-      </c>
-      <c r="C134">
-        <v>0.002954614504471673</v>
-      </c>
-      <c r="D134">
-        <v>-4.106156606942185</v>
-      </c>
-      <c r="E134">
-        <v>4.112065835951129</v>
-      </c>
-      <c r="F134">
-        <v>-1.074453928297814</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1">
-        <v>2707</v>
-      </c>
-      <c r="B135">
-        <v>2706</v>
-      </c>
-      <c r="C135">
-        <v>-0.006888376447284133</v>
-      </c>
-      <c r="D135">
-        <v>-4.11544081905628</v>
-      </c>
-      <c r="E135">
-        <v>4.101664066161712</v>
-      </c>
-      <c r="F135">
-        <v>3.077165866675458</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1">
-        <v>2708</v>
-      </c>
-      <c r="B136">
-        <v>2707</v>
-      </c>
-      <c r="C136">
-        <v>0.01885257155371416</v>
-      </c>
-      <c r="D136">
-        <v>-4.090583390457043</v>
-      </c>
-      <c r="E136">
-        <v>4.128288533564472</v>
-      </c>
-      <c r="F136">
         <v>-2.193733963989608</v>
       </c>
     </row>

--- a/Daily/Forecast/Stationaritiy/Percentage Return/sony.xlsx
+++ b/Daily/Forecast/Stationaritiy/Percentage Return/sony.xlsx
@@ -417,13 +417,13 @@
         <v>2583</v>
       </c>
       <c r="C2">
-        <v>-0.009074921190474608</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>-4.162306689123937</v>
+        <v>-4.153328440817994</v>
       </c>
       <c r="E2">
-        <v>4.144156846742987</v>
+        <v>4.153328440817994</v>
       </c>
       <c r="F2">
         <v>-0.6925487858712387</v>
@@ -437,13 +437,13 @@
         <v>2584</v>
       </c>
       <c r="C3">
-        <v>-0.004737739062145304</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>-4.157249398592691</v>
+        <v>-4.152610557021665</v>
       </c>
       <c r="E3">
-        <v>4.147773920468401</v>
+        <v>4.152610557021665</v>
       </c>
       <c r="F3">
         <v>0.4743668811379109</v>
@@ -457,13 +457,13 @@
         <v>2585</v>
       </c>
       <c r="C4">
-        <v>0.003269268402696477</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>-4.14848019922225</v>
+        <v>-4.151847539178947</v>
       </c>
       <c r="E4">
-        <v>4.155018736027642</v>
+        <v>4.151847539178947</v>
       </c>
       <c r="F4">
         <v>-1.94823291249655</v>
@@ -477,13 +477,13 @@
         <v>2586</v>
       </c>
       <c r="C5">
-        <v>-0.01321542103723029</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>-4.164843469518408</v>
+        <v>-4.151723820437951</v>
       </c>
       <c r="E5">
-        <v>4.138412627443947</v>
+        <v>4.151723820437951</v>
       </c>
       <c r="F5">
         <v>-1.270095519456405</v>
@@ -497,13 +497,13 @@
         <v>2587</v>
       </c>
       <c r="C6">
-        <v>-0.008829679506229322</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-4.159937732467505</v>
+        <v>-4.151209857608187</v>
       </c>
       <c r="E6">
-        <v>4.142278373455046</v>
+        <v>4.151209857608187</v>
       </c>
       <c r="F6">
         <v>-1.97424787292011</v>
@@ -517,13 +517,13 @@
         <v>2588</v>
       </c>
       <c r="C7">
-        <v>-0.01418369137478818</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>-4.165180325646068</v>
+        <v>-4.151104706714248</v>
       </c>
       <c r="E7">
-        <v>4.136812942896491</v>
+        <v>4.151104706714248</v>
       </c>
       <c r="F7">
         <v>-0.3841725815998842</v>
@@ -537,13 +537,13 @@
         <v>2589</v>
       </c>
       <c r="C8">
-        <v>-0.002738987523040201</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>-4.152958350030401</v>
+        <v>-4.150329331039104</v>
       </c>
       <c r="E8">
-        <v>4.147480374984321</v>
+        <v>4.150329331039104</v>
       </c>
       <c r="F8">
         <v>-1.239365205496412</v>
@@ -557,13 +557,13 @@
         <v>2590</v>
       </c>
       <c r="C9">
-        <v>-0.009040579919420037</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>-4.158731974214843</v>
+        <v>-4.149802547966562</v>
       </c>
       <c r="E9">
-        <v>4.140650814376004</v>
+        <v>4.149802547966562</v>
       </c>
       <c r="F9">
         <v>2.539574726962712</v>
@@ -577,13 +577,13 @@
         <v>2591</v>
       </c>
       <c r="C10">
-        <v>0.01798688919217502</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>-4.132063923642916</v>
+        <v>-4.150153872821099</v>
       </c>
       <c r="E10">
-        <v>4.168037702027265</v>
+        <v>4.150153872821099</v>
       </c>
       <c r="F10">
         <v>-0.8393792128469357</v>
@@ -597,13 +597,13 @@
         <v>2592</v>
       </c>
       <c r="C11">
-        <v>-0.005836367735834736</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>-4.155217724640255</v>
+        <v>-4.149479053577533</v>
       </c>
       <c r="E11">
-        <v>4.143544989168585</v>
+        <v>4.149479053577533</v>
       </c>
       <c r="F11">
         <v>-0.6534714778075212</v>
@@ -617,13 +617,13 @@
         <v>2593</v>
       </c>
       <c r="C12">
-        <v>-0.004508080231392323</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-4.153164144927943</v>
+        <v>-4.148755091836116</v>
       </c>
       <c r="E12">
-        <v>4.144147984465158</v>
+        <v>4.148755091836116</v>
       </c>
       <c r="F12">
         <v>2.77637151999901</v>
@@ -637,13 +637,13 @@
         <v>2594</v>
       </c>
       <c r="C13">
-        <v>0.01882358746013396</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>-4.130412981084034</v>
+        <v>-4.149331150634864</v>
       </c>
       <c r="E13">
-        <v>4.168060156004302</v>
+        <v>4.149331150634864</v>
       </c>
       <c r="F13">
         <v>-1.017916423533016</v>
@@ -657,13 +657,13 @@
         <v>2595</v>
       </c>
       <c r="C14">
-        <v>-0.006701105135191291</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>-4.155329730379817</v>
+        <v>-4.14871645719271</v>
       </c>
       <c r="E14">
-        <v>4.141927520109434</v>
+        <v>4.14871645719271</v>
       </c>
       <c r="F14">
         <v>0.867766245173307</v>
@@ -677,13 +677,13 @@
         <v>2596</v>
       </c>
       <c r="C15">
-        <v>0.005621479171035287</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>-4.142344407293697</v>
+        <v>-4.148051642412145</v>
       </c>
       <c r="E15">
-        <v>4.153587365635767</v>
+        <v>4.148051642412145</v>
       </c>
       <c r="F15">
         <v>-1.247417422517572</v>
@@ -697,13 +697,13 @@
         <v>2597</v>
       </c>
       <c r="C16">
-        <v>-0.007890616668782078</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>-4.155337804936172</v>
+        <v>-4.14753043908579</v>
       </c>
       <c r="E16">
-        <v>4.139556571598607</v>
+        <v>4.14753043908579</v>
       </c>
       <c r="F16">
         <v>-1.070755928122935</v>
@@ -717,13 +717,13 @@
         <v>2598</v>
       </c>
       <c r="C17">
-        <v>-0.006865069391594005</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>-4.153715365123975</v>
+        <v>-4.146936558664276</v>
       </c>
       <c r="E17">
-        <v>4.139985226340786</v>
+        <v>4.146936558664276</v>
       </c>
       <c r="F17">
         <v>-1.35477202730705</v>
@@ -737,13 +737,13 @@
         <v>2599</v>
       </c>
       <c r="C18">
-        <v>-0.008861890002626667</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>-4.155238154383013</v>
+        <v>-4.14646583758616</v>
       </c>
       <c r="E18">
-        <v>4.137514374377759</v>
+        <v>4.14646583758616</v>
       </c>
       <c r="F18">
         <v>-1.215462915029697</v>
@@ -757,13 +757,13 @@
         <v>2600</v>
       </c>
       <c r="C19">
-        <v>-0.008160092212755482</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>-4.153998293976893</v>
+        <v>-4.145931623016487</v>
       </c>
       <c r="E19">
-        <v>4.137678109551381</v>
+        <v>4.145931623016487</v>
       </c>
       <c r="F19">
         <v>-1.79109265665307</v>
@@ -777,13 +777,13 @@
         <v>2601</v>
       </c>
       <c r="C20">
-        <v>-0.01237220407029426</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>-4.157979635435351</v>
+        <v>-4.145706049304352</v>
       </c>
       <c r="E20">
-        <v>4.133235227294763</v>
+        <v>4.145706049304352</v>
       </c>
       <c r="F20">
         <v>4.3997669613697</v>
@@ -797,13 +797,13 @@
         <v>2602</v>
       </c>
       <c r="C21">
-        <v>0.02730808568836945</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>-4.120967246612443</v>
+        <v>-4.148355519985903</v>
       </c>
       <c r="E21">
-        <v>4.175583417989182</v>
+        <v>4.148355519985903</v>
       </c>
       <c r="F21">
         <v>-1.08192709163788</v>
@@ -817,13 +817,13 @@
         <v>2603</v>
       </c>
       <c r="C22">
-        <v>-0.006353079415923637</v>
+        <v>0</v>
       </c>
       <c r="D22">
-        <v>-4.154050051062362</v>
+        <v>-4.147766859640513</v>
       </c>
       <c r="E22">
-        <v>4.141343892230515</v>
+        <v>4.147766859640513</v>
       </c>
       <c r="F22">
         <v>2.53178079842904</v>
@@ -837,13 +837,13 @@
         <v>2604</v>
       </c>
       <c r="C23">
-        <v>0.01406553165026901</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>-4.133980513588028</v>
+        <v>-4.148110355440426</v>
       </c>
       <c r="E23">
-        <v>4.162111576888567</v>
+        <v>4.148110355440426</v>
       </c>
       <c r="F23">
         <v>0.4158010148662683</v>
@@ -857,13 +857,13 @@
         <v>2605</v>
       </c>
       <c r="C24">
-        <v>0.003961239495455599</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>-4.143308435849524</v>
+        <v>-4.147344834703496</v>
       </c>
       <c r="E24">
-        <v>4.151230914840435</v>
+        <v>4.147344834703496</v>
       </c>
       <c r="F24">
         <v>-1.367282979000173</v>
@@ -877,13 +877,13 @@
         <v>2606</v>
       </c>
       <c r="C25">
-        <v>-0.007719658049451961</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>-4.154527629582283</v>
+        <v>-4.146881320689213</v>
       </c>
       <c r="E25">
-        <v>4.139088313483379</v>
+        <v>4.146881320689213</v>
       </c>
       <c r="F25">
         <v>0.3054603367850461</v>
@@ -897,13 +897,13 @@
         <v>2607</v>
       </c>
       <c r="C26">
-        <v>0.001722214893471461</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>-4.144315928917342</v>
+        <v>-4.146102489550945</v>
       </c>
       <c r="E26">
-        <v>4.147760358704284</v>
+        <v>4.146102489550945</v>
       </c>
       <c r="F26">
         <v>1.137237427086646</v>
@@ -917,13 +917,13 @@
         <v>2608</v>
       </c>
       <c r="C27">
-        <v>0.006367010395498232</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>-4.139105275362258</v>
+        <v>-4.145537309521921</v>
       </c>
       <c r="E27">
-        <v>4.151839296153254</v>
+        <v>4.145537309521921</v>
       </c>
       <c r="F27">
         <v>-0.8327073097447624</v>
@@ -937,13 +937,13 @@
         <v>2609</v>
       </c>
       <c r="C28">
-        <v>-0.004613523933463029</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>-4.149416313499736</v>
+        <v>-4.144865930168581</v>
       </c>
       <c r="E28">
-        <v>4.14018926563281</v>
+        <v>4.144865930168581</v>
       </c>
       <c r="F28">
         <v>0.03800114049159475</v>
@@ -957,13 +957,13 @@
         <v>2610</v>
       </c>
       <c r="C29">
-        <v>0.0002218559741422151</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>-4.143787156168521</v>
+        <v>-4.144072074931049</v>
       </c>
       <c r="E29">
-        <v>4.144230868116805</v>
+        <v>4.144072074931049</v>
       </c>
       <c r="F29">
         <v>0.3792192637062541</v>
@@ -977,13 +977,13 @@
         <v>2611</v>
       </c>
       <c r="C30">
-        <v>0.002092263886573335</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>-4.141148609100304</v>
+        <v>-4.14330395296117</v>
       </c>
       <c r="E30">
-        <v>4.14533313687345</v>
+        <v>4.14330395296117</v>
       </c>
       <c r="F30">
         <v>-1.29525620357267</v>
@@ -997,13 +997,13 @@
         <v>2612</v>
       </c>
       <c r="C31">
-        <v>-0.007098945581187868</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>-4.149845397095013</v>
+        <v>-4.142808559644426</v>
       </c>
       <c r="E31">
-        <v>4.135647505932638</v>
+        <v>4.142808559644426</v>
       </c>
       <c r="F31">
         <v>2.086966276738877</v>
@@ -1017,13 +1017,13 @@
         <v>2613</v>
       </c>
       <c r="C32">
-        <v>0.01095491190200204</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>-4.131776786492924</v>
+        <v>-4.142788649974776</v>
       </c>
       <c r="E32">
-        <v>4.153686610296928</v>
+        <v>4.142788649974776</v>
       </c>
       <c r="F32">
         <v>1.231588621826418</v>
@@ -1037,13 +1037,13 @@
         <v>2614</v>
       </c>
       <c r="C33">
-        <v>0.006698428460690937</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>-4.13550502037337</v>
+        <v>-4.142265232605586</v>
       </c>
       <c r="E33">
-        <v>4.148901877294752</v>
+        <v>4.142265232605586</v>
       </c>
       <c r="F33">
         <v>-1.834226980509612</v>
@@ -1057,13 +1057,13 @@
         <v>2615</v>
       </c>
       <c r="C34">
-        <v>-0.009683021356173608</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>-4.151695332056374</v>
+        <v>-4.142069801632197</v>
       </c>
       <c r="E34">
-        <v>4.132329289344026</v>
+        <v>4.142069801632197</v>
       </c>
       <c r="F34">
         <v>-2.292802004107131</v>
@@ -1077,13 +1077,13 @@
         <v>2616</v>
       </c>
       <c r="C35">
-        <v>-0.01287494500781545</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>-4.155019400253586</v>
+        <v>-4.142209999484225</v>
       </c>
       <c r="E35">
-        <v>4.129269510237956</v>
+        <v>4.142209999484225</v>
       </c>
       <c r="F35">
         <v>-0.07733952435007296</v>
@@ -1097,13 +1097,13 @@
         <v>2617</v>
       </c>
       <c r="C36">
-        <v>-0.0004003606515316455</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>-4.141754085819625</v>
+        <v>-4.141419579652302</v>
       </c>
       <c r="E36">
-        <v>4.140953364516561</v>
+        <v>4.141419579652302</v>
       </c>
       <c r="F36">
         <v>-0.07739938466890806</v>
@@ -1117,13 +1117,13 @@
         <v>2618</v>
       </c>
       <c r="C37">
-        <v>-0.0004355087090221534</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>-4.140999270479858</v>
+        <v>-4.140629614583273</v>
       </c>
       <c r="E37">
-        <v>4.140128253061814</v>
+        <v>4.140629614583273</v>
       </c>
       <c r="F37">
         <v>0.4635002504148389</v>
@@ -1137,13 +1137,13 @@
         <v>2619</v>
       </c>
       <c r="C38">
-        <v>0.002614748281908799</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>-4.137196583568031</v>
+        <v>-4.139877100232992</v>
       </c>
       <c r="E38">
-        <v>4.142426080131848</v>
+        <v>4.139877100232992</v>
       </c>
       <c r="F38">
         <v>0.0770416062760404</v>
@@ -1157,13 +1157,13 @@
         <v>2620</v>
       </c>
       <c r="C39">
-        <v>0.0004273653027414491</v>
+        <v>0</v>
       </c>
       <c r="D39">
-        <v>-4.138594832244979</v>
+        <v>-4.139088023250738</v>
       </c>
       <c r="E39">
-        <v>4.139449562850461</v>
+        <v>4.139088023250738</v>
       </c>
       <c r="F39">
         <v>-3.287967411915638</v>
@@ -1177,13 +1177,13 @@
         <v>2621</v>
       </c>
       <c r="C40">
-        <v>-0.01840566966818376</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>-4.158552758001658</v>
+        <v>-4.140212373363938</v>
       </c>
       <c r="E40">
-        <v>4.121741418665291</v>
+        <v>4.140212373363938</v>
       </c>
       <c r="F40">
         <v>-3.153050202690189</v>
@@ -1197,13 +1197,13 @@
         <v>2622</v>
       </c>
       <c r="C41">
-        <v>-0.02048224771871776</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>-4.161576759313587</v>
+        <v>-4.141181837914098</v>
       </c>
       <c r="E41">
-        <v>4.120612263876152</v>
+        <v>4.141181837914098</v>
       </c>
       <c r="F41">
         <v>0.3689284774795354</v>
@@ -1217,13 +1217,13 @@
         <v>2623</v>
       </c>
       <c r="C42">
-        <v>0.002412941734718261</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>-4.137918904961539</v>
+        <v>-4.140416437411084</v>
       </c>
       <c r="E42">
-        <v>4.142744788430976</v>
+        <v>4.140416437411084</v>
       </c>
       <c r="F42">
         <v>-1.733431765155657</v>
@@ -1237,13 +1237,13 @@
         <v>2624</v>
       </c>
       <c r="C43">
-        <v>-0.01094786168186733</v>
+        <v>0</v>
       </c>
       <c r="D43">
-        <v>-4.151023485641395</v>
+        <v>-4.140158714449004</v>
       </c>
       <c r="E43">
-        <v>4.129127762277661</v>
+        <v>4.140158714449004</v>
       </c>
       <c r="F43">
         <v>0.9942086864066724</v>
@@ -1257,13 +1257,13 @@
         <v>2625</v>
       </c>
       <c r="C44">
-        <v>0.006160683625150662</v>
+        <v>0</v>
       </c>
       <c r="D44">
-        <v>-4.133304835643973</v>
+        <v>-4.139544766483469</v>
       </c>
       <c r="E44">
-        <v>4.145626202894274</v>
+        <v>4.139544766483469</v>
       </c>
       <c r="F44">
         <v>-0.9525853767526016</v>
@@ -1277,13 +1277,13 @@
         <v>2626</v>
       </c>
       <c r="C45">
-        <v>-0.005812073286112935</v>
+        <v>0</v>
       </c>
       <c r="D45">
-        <v>-4.144651786120694</v>
+        <v>-4.13891687469617</v>
       </c>
       <c r="E45">
-        <v>4.133027639548468</v>
+        <v>4.13891687469617</v>
       </c>
       <c r="F45">
         <v>-0.1249219400433432</v>
@@ -1297,13 +1297,13 @@
         <v>2627</v>
       </c>
       <c r="C46">
-        <v>-0.0007433596774207489</v>
+        <v>0</v>
       </c>
       <c r="D46">
-        <v>-4.138797753907094</v>
+        <v>-4.138131792168513</v>
       </c>
       <c r="E46">
-        <v>4.137311034552252</v>
+        <v>4.138131792168513</v>
       </c>
       <c r="F46">
         <v>0.5402049288996125</v>
@@ -1317,13 +1317,13 @@
         <v>2628</v>
       </c>
       <c r="C47">
-        <v>0.003290077602940348</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>-4.134028636025292</v>
+        <v>-4.137395953938969</v>
       </c>
       <c r="E47">
-        <v>4.140608791231173</v>
+        <v>4.137395953938969</v>
       </c>
       <c r="F47">
         <v>-0.1244039140331665</v>
@@ -1337,13 +1337,13 @@
         <v>2629</v>
       </c>
       <c r="C48">
-        <v>-0.0007663648037489078</v>
+        <v>0</v>
       </c>
       <c r="D48">
-        <v>-4.137301021871354</v>
+        <v>-4.136611736202601</v>
       </c>
       <c r="E48">
-        <v>4.135768292263856</v>
+        <v>4.136611736202601</v>
       </c>
       <c r="F48">
         <v>-0.2908790748231027</v>
@@ -1357,13 +1357,13 @@
         <v>2630</v>
       </c>
       <c r="C49">
-        <v>-0.001767258666375035</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>-4.137530290463205</v>
+        <v>-4.13584017464648</v>
       </c>
       <c r="E49">
-        <v>4.133995773130455</v>
+        <v>4.13584017464648</v>
       </c>
       <c r="F49">
         <v>-1.298447561885396</v>
@@ -1377,13 +1377,13 @@
         <v>2631</v>
       </c>
       <c r="C50">
-        <v>-0.007935144864944361</v>
+        <v>0</v>
       </c>
       <c r="D50">
-        <v>-4.143208982862507</v>
+        <v>-4.135351772479567</v>
       </c>
       <c r="E50">
-        <v>4.127338693132618</v>
+        <v>4.135351772479567</v>
       </c>
       <c r="F50">
         <v>1.173525621842053</v>
@@ -1397,13 +1397,13 @@
         <v>2632</v>
       </c>
       <c r="C51">
-        <v>0.007047507592266167</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>-4.12768702153087</v>
+        <v>-4.134809180816092</v>
       </c>
       <c r="E51">
-        <v>4.141782036715402</v>
+        <v>4.134809180816092</v>
       </c>
       <c r="F51">
         <v>-0.41753714104793</v>
@@ -1417,13 +1417,13 @@
         <v>2633</v>
       </c>
       <c r="C52">
-        <v>-0.002510755370773721</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>-4.136491839039019</v>
+        <v>-4.134054680798472</v>
       </c>
       <c r="E52">
-        <v>4.131470328297471</v>
+        <v>4.134054680798472</v>
       </c>
       <c r="F52">
         <v>0.7087792857515041</v>
@@ -1437,13 +1437,13 @@
         <v>2634</v>
       </c>
       <c r="C53">
-        <v>0.004217476281457864</v>
+        <v>0</v>
       </c>
       <c r="D53">
-        <v>-4.129068057375185</v>
+        <v>-4.133358489767304</v>
       </c>
       <c r="E53">
-        <v>4.1375030099381</v>
+        <v>4.133358489767304</v>
       </c>
       <c r="F53">
         <v>0.9098491219100779</v>
@@ -1457,13 +1457,13 @@
         <v>2635</v>
       </c>
       <c r="C54">
-        <v>0.005439840993802972</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>-4.127205984286881</v>
+        <v>-4.132720116713624</v>
       </c>
       <c r="E54">
-        <v>4.138085666274486</v>
+        <v>4.132720116713624</v>
       </c>
       <c r="F54">
         <v>3.160716915612127</v>
@@ -1477,13 +1477,13 @@
         <v>2636</v>
       </c>
       <c r="C55">
-        <v>0.01968357049956382</v>
+        <v>0</v>
       </c>
       <c r="D55">
-        <v>-4.113933583122597</v>
+        <v>-4.133697557859142</v>
       </c>
       <c r="E55">
-        <v>4.153300724121724</v>
+        <v>4.133697557859142</v>
       </c>
       <c r="F55">
         <v>-0.1596806726519517</v>
@@ -1497,13 +1497,13 @@
         <v>2637</v>
       </c>
       <c r="C56">
-        <v>-0.00104742847691755</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>-4.133886396774537</v>
+        <v>-4.132918189471761</v>
       </c>
       <c r="E56">
-        <v>4.131791539820702</v>
+        <v>4.132918189471761</v>
       </c>
       <c r="F56">
         <v>-0.2800561942455815</v>
@@ -1517,13 +1517,13 @@
         <v>2638</v>
       </c>
       <c r="C57">
-        <v>-0.001730183038564162</v>
+        <v>0</v>
       </c>
       <c r="D57">
-        <v>-4.133799466938219</v>
+        <v>-4.132148592582993</v>
       </c>
       <c r="E57">
-        <v>4.13033910086109</v>
+        <v>4.132148592582993</v>
       </c>
       <c r="F57">
         <v>1.668691878501427</v>
@@ -1537,13 +1537,13 @@
         <v>2639</v>
       </c>
       <c r="C58">
-        <v>0.01023599250807424</v>
+        <v>0</v>
       </c>
       <c r="D58">
-        <v>-4.121541898078768</v>
+        <v>-4.131856159328662</v>
       </c>
       <c r="E58">
-        <v>4.142013883094918</v>
+        <v>4.131856159328662</v>
       </c>
       <c r="F58">
         <v>-0.4739345363896419</v>
@@ -1557,13 +1557,13 @@
         <v>2640</v>
       </c>
       <c r="C59">
-        <v>-0.002903806887274493</v>
+        <v>0</v>
       </c>
       <c r="D59">
-        <v>-4.133940367459095</v>
+        <v>-4.131113096115951</v>
       </c>
       <c r="E59">
-        <v>4.128132753684547</v>
+        <v>4.131113096115951</v>
       </c>
       <c r="F59">
         <v>-2.039662790764574</v>
@@ -1577,13 +1577,13 @@
         <v>2641</v>
       </c>
       <c r="C60">
-        <v>-0.01252665393536782</v>
+        <v>0</v>
       </c>
       <c r="D60">
-        <v>-4.143511457627534</v>
+        <v>-4.13106340970613</v>
       </c>
       <c r="E60">
-        <v>4.118458149756799</v>
+        <v>4.13106340970613</v>
       </c>
       <c r="F60">
         <v>0.7246408520767744</v>
@@ -1597,13 +1597,13 @@
         <v>2642</v>
       </c>
       <c r="C61">
-        <v>0.004398331563643196</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>-4.125900228041426</v>
+        <v>-4.130373959084486</v>
       </c>
       <c r="E61">
-        <v>4.134696891168713</v>
+        <v>4.130373959084486</v>
       </c>
       <c r="F61">
         <v>1.196186511749886</v>
@@ -1617,13 +1617,13 @@
         <v>2643</v>
       </c>
       <c r="C62">
-        <v>0.007275139120600761</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>-4.122491929552275</v>
+        <v>-4.129844309135185</v>
       </c>
       <c r="E62">
-        <v>4.137042207793478</v>
+        <v>4.129844309135185</v>
       </c>
       <c r="F62">
         <v>-1.356764627346507</v>
@@ -1637,13 +1637,13 @@
         <v>2644</v>
       </c>
       <c r="C63">
-        <v>-0.008101602797155206</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>-4.137414940317311</v>
+        <v>-4.12938711396809</v>
       </c>
       <c r="E63">
-        <v>4.121211734723</v>
+        <v>4.12938711396809</v>
       </c>
       <c r="F63">
         <v>1.59429443023722</v>
@@ -1657,13 +1657,13 @@
         <v>2645</v>
       </c>
       <c r="C64">
-        <v>0.00922327699200106</v>
+        <v>0</v>
       </c>
       <c r="D64">
-        <v>-4.119760951107469</v>
+        <v>-4.129053498431571</v>
       </c>
       <c r="E64">
-        <v>4.138207505091471</v>
+        <v>4.129053498431571</v>
       </c>
       <c r="F64">
         <v>2.22883126618374</v>
@@ -1677,13 +1677,13 @@
         <v>2646</v>
       </c>
       <c r="C65">
-        <v>0.01350327144260467</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>-4.115566703171097</v>
+        <v>-4.129146618753724</v>
       </c>
       <c r="E65">
-        <v>4.142573246056306</v>
+        <v>4.129146618753724</v>
       </c>
       <c r="F65">
         <v>-0.9714473132277135</v>
@@ -1697,13 +1697,13 @@
         <v>2647</v>
       </c>
       <c r="C66">
-        <v>-0.005757095486713025</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>-4.1342174940452</v>
+        <v>-4.128532452364735</v>
       </c>
       <c r="E66">
-        <v>4.122703303071774</v>
+        <v>4.128532452364735</v>
       </c>
       <c r="F66">
         <v>-1.61389056940564</v>
@@ -1717,13 +1717,13 @@
         <v>2648</v>
       </c>
       <c r="C67">
-        <v>-0.0096990944950196</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>-4.137834280803863</v>
+        <v>-4.128210515340222</v>
       </c>
       <c r="E67">
-        <v>4.118436091813824</v>
+        <v>4.128210515340222</v>
       </c>
       <c r="F67">
         <v>-2.247285585205816</v>
@@ -1737,13 +1737,13 @@
         <v>2649</v>
       </c>
       <c r="C68">
-        <v>-0.01427193458438894</v>
+        <v>0</v>
       </c>
       <c r="D68">
-        <v>-4.142507167267509</v>
+        <v>-4.128318376106852</v>
       </c>
       <c r="E68">
-        <v>4.113963298098731</v>
+        <v>4.128318376106852</v>
       </c>
       <c r="F68">
         <v>-0.978800636616306</v>
@@ -1757,13 +1757,13 @@
         <v>2650</v>
       </c>
       <c r="C69">
-        <v>-0.006364750678371994</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>-4.133984329001401</v>
+        <v>-4.127707612841049</v>
       </c>
       <c r="E69">
-        <v>4.121254827644656</v>
+        <v>4.127707612841049</v>
       </c>
       <c r="F69">
         <v>1.545374390184051</v>
@@ -1777,13 +1777,13 @@
         <v>2651</v>
       </c>
       <c r="C70">
-        <v>0.009942204633324157</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>-4.117321479629426</v>
+        <v>-4.127348287530423</v>
       </c>
       <c r="E70">
-        <v>4.137205888896075</v>
+        <v>4.127348287530423</v>
       </c>
       <c r="F70">
         <v>-0.9732436918231002</v>
@@ -1797,13 +1797,13 @@
         <v>2652</v>
       </c>
       <c r="C71">
-        <v>-0.006152935450927505</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>-4.132808013418829</v>
+        <v>-4.12673630350301</v>
       </c>
       <c r="E71">
-        <v>4.120502142516973</v>
+        <v>4.12673630350301</v>
       </c>
       <c r="F71">
         <v>1.094235842094449</v>
@@ -1817,13 +1817,13 @@
         <v>2653</v>
       </c>
       <c r="C72">
-        <v>0.006759487372431759</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>-4.119330238570957</v>
+        <v>-4.126168583504045</v>
       </c>
       <c r="E72">
-        <v>4.132849213315821</v>
+        <v>4.126168583504045</v>
       </c>
       <c r="F72">
         <v>-1.461658178282832</v>
@@ -1837,13 +1837,13 @@
         <v>2654</v>
       </c>
       <c r="C73">
-        <v>-0.008825011514133931</v>
+        <v>0</v>
       </c>
       <c r="D73">
-        <v>-4.134515563164698</v>
+        <v>-4.125765951261272</v>
       </c>
       <c r="E73">
-        <v>4.116865540136431</v>
+        <v>4.125765951261272</v>
       </c>
       <c r="F73">
         <v>0.1226241723243149</v>
@@ -1857,13 +1857,13 @@
         <v>2655</v>
       </c>
       <c r="C74">
-        <v>0.0007630044741268117</v>
+        <v>0</v>
       </c>
       <c r="D74">
-        <v>-4.124153537796838</v>
+        <v>-4.124991534903494</v>
       </c>
       <c r="E74">
-        <v>4.125679546745092</v>
+        <v>4.124991534903494</v>
       </c>
       <c r="F74">
         <v>-0.2863573239256567</v>
@@ -1877,13 +1877,13 @@
         <v>2656</v>
       </c>
       <c r="C75">
-        <v>-0.001721756997069761</v>
+        <v>0</v>
       </c>
       <c r="D75">
-        <v>-4.125876154162054</v>
+        <v>-4.124229298713331</v>
       </c>
       <c r="E75">
-        <v>4.122432640167915</v>
+        <v>4.124229298713331</v>
       </c>
       <c r="F75">
         <v>0.4496226663142977</v>
@@ -1897,13 +1897,13 @@
         <v>2657</v>
       </c>
       <c r="C76">
-        <v>0.0027000422515306</v>
+        <v>0</v>
       </c>
       <c r="D76">
-        <v>-4.120713904445162</v>
+        <v>-4.12348856177212</v>
       </c>
       <c r="E76">
-        <v>4.126113988948222</v>
+        <v>4.12348856177212</v>
       </c>
       <c r="F76">
         <v>-1.231037294306425</v>
@@ -1917,13 +1917,13 @@
         <v>2658</v>
       </c>
       <c r="C77">
-        <v>-0.007328606474502331</v>
+        <v>0</v>
       </c>
       <c r="D77">
-        <v>-4.130233613118293</v>
+        <v>-4.122978440935716</v>
       </c>
       <c r="E77">
-        <v>4.115576400169289</v>
+        <v>4.122978440935716</v>
       </c>
       <c r="F77">
         <v>1.719240054037208</v>
@@ -1937,13 +1937,13 @@
         <v>2659</v>
       </c>
       <c r="C78">
-        <v>0.009935433145370504</v>
+        <v>0</v>
       </c>
       <c r="D78">
-        <v>-4.112716535094395</v>
+        <v>-4.122721021493211</v>
       </c>
       <c r="E78">
-        <v>4.132587401385137</v>
+        <v>4.122721021493211</v>
       </c>
       <c r="F78">
         <v>-0.4882027597307825</v>
@@ -1957,13 +1957,13 @@
         <v>2660</v>
       </c>
       <c r="C79">
-        <v>-0.002807914944615175</v>
+        <v>0</v>
       </c>
       <c r="D79">
-        <v>-4.124728336208268</v>
+        <v>-4.121987754930497</v>
       </c>
       <c r="E79">
-        <v>4.119112506319038</v>
+        <v>4.121987754930497</v>
       </c>
       <c r="F79">
         <v>2.775163013181725</v>
@@ -1977,13 +1977,13 @@
         <v>2661</v>
       </c>
       <c r="C80">
-        <v>0.01556773911603574</v>
+        <v>0</v>
       </c>
       <c r="D80">
-        <v>-4.106929532606812</v>
+        <v>-4.122561872216622</v>
       </c>
       <c r="E80">
-        <v>4.138065010838884</v>
+        <v>4.122561872216622</v>
       </c>
       <c r="F80">
         <v>0.790205613224515</v>
@@ -1997,13 +1997,13 @@
         <v>2662</v>
       </c>
       <c r="C81">
-        <v>0.004524325568777268</v>
+        <v>0</v>
       </c>
       <c r="D81">
-        <v>-4.117303551225975</v>
+        <v>-4.121896774816284</v>
       </c>
       <c r="E81">
-        <v>4.126352202363529</v>
+        <v>4.121896774816284</v>
       </c>
       <c r="F81">
         <v>3.099822000324082</v>
@@ -2017,13 +2017,13 @@
         <v>2663</v>
       </c>
       <c r="C82">
-        <v>0.01855823155835376</v>
+        <v>0</v>
       </c>
       <c r="D82">
-        <v>-4.10417216045615</v>
+        <v>-4.122804218400544</v>
       </c>
       <c r="E82">
-        <v>4.141288623572857</v>
+        <v>4.122804218400544</v>
       </c>
       <c r="F82">
         <v>-1.965002543414052</v>
@@ -2037,13 +2037,13 @@
         <v>2664</v>
       </c>
       <c r="C83">
-        <v>-0.01077946677289694</v>
+        <v>0</v>
       </c>
       <c r="D83">
-        <v>-4.133423542653779</v>
+        <v>-4.122705693840765</v>
       </c>
       <c r="E83">
-        <v>4.111864609107985</v>
+        <v>4.122705693840765</v>
       </c>
       <c r="F83">
         <v>-1.88536613643997</v>
@@ -2057,13 +2057,13 @@
         <v>2665</v>
       </c>
       <c r="C84">
-        <v>-0.01087763789901676</v>
+        <v>0</v>
       </c>
       <c r="D84">
-        <v>-4.133362422786253</v>
+        <v>-4.122553632848418</v>
       </c>
       <c r="E84">
-        <v>4.111607146988219</v>
+        <v>4.122553632848418</v>
       </c>
       <c r="F84">
         <v>1.534556967465939</v>
@@ -2077,13 +2077,13 @@
         <v>2666</v>
       </c>
       <c r="C85">
-        <v>0.008534293339576083</v>
+        <v>0</v>
       </c>
       <c r="D85">
-        <v>-4.113594575468004</v>
+        <v>-4.122191994046283</v>
       </c>
       <c r="E85">
-        <v>4.130663162147155</v>
+        <v>4.122191994046283</v>
       </c>
       <c r="F85">
         <v>-0.2737049607040021</v>
@@ -2097,13 +2097,13 @@
         <v>2667</v>
       </c>
       <c r="C86">
-        <v>-0.001530248604268024</v>
+        <v>0</v>
       </c>
       <c r="D86">
-        <v>-4.122900155628043</v>
+        <v>-4.121432198319201</v>
       </c>
       <c r="E86">
-        <v>4.119839658419508</v>
+        <v>4.121432198319201</v>
       </c>
       <c r="F86">
         <v>-1.023228132573628</v>
@@ -2117,13 +2117,13 @@
         <v>2668</v>
       </c>
       <c r="C87">
-        <v>-0.005652315803571855</v>
+        <v>0</v>
       </c>
       <c r="D87">
-        <v>-4.126432159309181</v>
+        <v>-4.120842665134554</v>
       </c>
       <c r="E87">
-        <v>4.115127527702037</v>
+        <v>4.120842665134554</v>
       </c>
       <c r="F87">
         <v>-0.6747396109163972</v>
@@ -2137,13 +2137,13 @@
         <v>2669</v>
       </c>
       <c r="C88">
-        <v>-0.003752815316846676</v>
+        <v>0</v>
       </c>
       <c r="D88">
-        <v>-4.123838813488335</v>
+        <v>-4.120150134097964</v>
       </c>
       <c r="E88">
-        <v>4.116333182854643</v>
+        <v>4.120150134097964</v>
       </c>
       <c r="F88">
         <v>-0.920190529851439</v>
@@ -2157,13 +2157,13 @@
         <v>2670</v>
       </c>
       <c r="C89">
-        <v>-0.005176341681081968</v>
+        <v>0</v>
       </c>
       <c r="D89">
-        <v>-4.124637386887137</v>
+        <v>-4.119526370473708</v>
       </c>
       <c r="E89">
-        <v>4.114284703524973</v>
+        <v>4.119526370473708</v>
       </c>
       <c r="F89">
         <v>0.9600073729018277</v>
@@ -2177,13 +2177,13 @@
         <v>2671</v>
       </c>
       <c r="C90">
-        <v>0.005355113948064514</v>
+        <v>0</v>
       </c>
       <c r="D90">
-        <v>-4.113497346101954</v>
+        <v>-4.118916050183167</v>
       </c>
       <c r="E90">
-        <v>4.124207573998082</v>
+        <v>4.118916050183167</v>
       </c>
       <c r="F90">
         <v>0.3179652917379983</v>
@@ -2197,13 +2197,13 @@
         <v>2672</v>
       </c>
       <c r="C91">
-        <v>0.001762061008420835</v>
+        <v>0</v>
       </c>
       <c r="D91">
-        <v>-4.116336644265204</v>
+        <v>-4.118162871092853</v>
       </c>
       <c r="E91">
-        <v>4.119860766282046</v>
+        <v>4.118162871092853</v>
       </c>
       <c r="F91">
         <v>-2.85791235533015</v>
@@ -2217,13 +2217,13 @@
         <v>2673</v>
       </c>
       <c r="C92">
-        <v>-0.0156833809850226</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>-4.134438688610541</v>
+        <v>-4.118817698490211</v>
       </c>
       <c r="E92">
-        <v>4.103071926640497</v>
+        <v>4.118817698490211</v>
       </c>
       <c r="F92">
         <v>-1.026070976296189</v>
@@ -2237,13 +2237,13 @@
         <v>2674</v>
       </c>
       <c r="C93">
-        <v>-0.005831540788341756</v>
+        <v>0</v>
       </c>
       <c r="D93">
-        <v>-4.123994580102647</v>
+        <v>-4.118231109154037</v>
       </c>
       <c r="E93">
-        <v>4.112331498525964</v>
+        <v>4.118231109154037</v>
       </c>
       <c r="F93">
         <v>0.8216973102280534</v>
@@ -2257,13 +2257,13 @@
         <v>2675</v>
       </c>
       <c r="C94">
-        <v>0.004665820277980263</v>
+        <v>0</v>
       </c>
       <c r="D94">
-        <v>-4.112846812047194</v>
+        <v>-4.117579020429145</v>
       </c>
       <c r="E94">
-        <v>4.122178452603154</v>
+        <v>4.117579020429145</v>
       </c>
       <c r="F94">
         <v>1.663661823924301</v>
@@ -2277,13 +2277,13 @@
         <v>2676</v>
       </c>
       <c r="C95">
-        <v>0.009592200450717151</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>-4.107630843724744</v>
+        <v>-4.117292142529505</v>
       </c>
       <c r="E95">
-        <v>4.126815244626178</v>
+        <v>4.117292142529505</v>
       </c>
       <c r="F95">
         <v>2.934389762905987</v>
@@ -2297,13 +2297,13 @@
         <v>2677</v>
       </c>
       <c r="C96">
-        <v>0.01810808356783212</v>
+        <v>0</v>
       </c>
       <c r="D96">
-        <v>-4.099836358108337</v>
+        <v>-4.118023640137854</v>
       </c>
       <c r="E96">
-        <v>4.136052525244001</v>
+        <v>4.118023640137854</v>
       </c>
       <c r="F96">
         <v>0.4289341729476703</v>
@@ -2317,13 +2317,13 @@
         <v>2678</v>
       </c>
       <c r="C97">
-        <v>0.002637331270388594</v>
+        <v>0</v>
       </c>
       <c r="D97">
-        <v>-4.114567573008578</v>
+        <v>-4.117286757715998</v>
       </c>
       <c r="E97">
-        <v>4.119842235549356</v>
+        <v>4.117286757715998</v>
       </c>
       <c r="F97">
         <v>1.812272464088061</v>
@@ -2337,13 +2337,13 @@
         <v>2679</v>
       </c>
       <c r="C98">
-        <v>0.01149059788430125</v>
+        <v>0</v>
       </c>
       <c r="D98">
-        <v>-4.105516152457129</v>
+        <v>-4.117090248973809</v>
       </c>
       <c r="E98">
-        <v>4.128497348225732</v>
+        <v>4.117090248973809</v>
       </c>
       <c r="F98">
         <v>0.5335378510146427</v>
@@ -2357,13 +2357,13 @@
         <v>2680</v>
       </c>
       <c r="C99">
-        <v>0.00339046174105443</v>
+        <v>0</v>
       </c>
       <c r="D99">
-        <v>-4.112895558519519</v>
+        <v>-4.116371627400096</v>
       </c>
       <c r="E99">
-        <v>4.119676482001628</v>
+        <v>4.116371627400096</v>
       </c>
       <c r="F99">
         <v>1.433986836423173</v>
@@ -2377,13 +2377,13 @@
         <v>2681</v>
       </c>
       <c r="C100">
-        <v>0.009291258266554719</v>
+        <v>0</v>
       </c>
       <c r="D100">
-        <v>-4.106583272237964</v>
+        <v>-4.115961813167181</v>
       </c>
       <c r="E100">
-        <v>4.125165788771074</v>
+        <v>4.115961813167181</v>
       </c>
       <c r="F100">
         <v>-0.7899232347625684</v>
@@ -2397,13 +2397,13 @@
         <v>2682</v>
       </c>
       <c r="C101">
-        <v>-0.005077585216191952</v>
+        <v>0</v>
       </c>
       <c r="D101">
-        <v>-4.120295874563785</v>
+        <v>-4.11530300274713</v>
       </c>
       <c r="E101">
-        <v>4.110140704131402</v>
+        <v>4.11530300274713</v>
       </c>
       <c r="F101">
         <v>-2.06035521805088</v>
@@ -2417,13 +2417,13 @@
         <v>2683</v>
       </c>
       <c r="C102">
-        <v>-0.01345871053662868</v>
+        <v>0</v>
       </c>
       <c r="D102">
-        <v>-4.128644918908332</v>
+        <v>-4.115274569444093</v>
       </c>
       <c r="E102">
-        <v>4.101727497835075</v>
+        <v>4.115274569444093</v>
       </c>
       <c r="F102">
         <v>-2.458660433126525</v>
@@ -2437,13 +2437,13 @@
         <v>2684</v>
       </c>
       <c r="C103">
-        <v>-0.01717113922734104</v>
+        <v>0</v>
       </c>
       <c r="D103">
-        <v>-4.132630137973944</v>
+        <v>-4.115559159151847</v>
       </c>
       <c r="E103">
-        <v>4.098287859519262</v>
+        <v>4.115559159151847</v>
       </c>
       <c r="F103">
         <v>-0.5149545940831501</v>
@@ -2457,13 +2457,13 @@
         <v>2685</v>
       </c>
       <c r="C104">
-        <v>-0.003600177209700068</v>
+        <v>0</v>
       </c>
       <c r="D104">
-        <v>-4.118335805445395</v>
+        <v>-4.114838792017148</v>
       </c>
       <c r="E104">
-        <v>4.111135451025995</v>
+        <v>4.114838792017148</v>
       </c>
       <c r="F104">
         <v>4.882798636728403</v>
@@ -2477,13 +2477,13 @@
         <v>2686</v>
       </c>
       <c r="C105">
-        <v>0.03365234199435432</v>
+        <v>0</v>
       </c>
       <c r="D105">
-        <v>-4.084465461018608</v>
+        <v>-4.118214867051567</v>
       </c>
       <c r="E105">
-        <v>4.151770145007317</v>
+        <v>4.118214867051567</v>
       </c>
       <c r="F105">
         <v>-0.1135288674444013</v>
@@ -2497,13 +2497,13 @@
         <v>2687</v>
       </c>
       <c r="C106">
-        <v>-0.000885942152818301</v>
+        <v>0</v>
       </c>
       <c r="D106">
-        <v>-4.118241113325475</v>
+        <v>-4.117450711341783</v>
       </c>
       <c r="E106">
-        <v>4.116469229019838</v>
+        <v>4.117450711341783</v>
       </c>
       <c r="F106">
         <v>-0.912900976698694</v>
@@ -2517,13 +2517,13 @@
         <v>2688</v>
       </c>
       <c r="C107">
-        <v>-0.006212142882682802</v>
+        <v>0</v>
       </c>
       <c r="D107">
-        <v>-4.122945757933018</v>
+        <v>-4.116829404088626</v>
       </c>
       <c r="E107">
-        <v>4.110521472167652</v>
+        <v>4.116829404088626</v>
       </c>
       <c r="F107">
         <v>-1.191634319834378</v>
@@ -2537,13 +2537,13 @@
         <v>2689</v>
       </c>
       <c r="C108">
-        <v>-0.008198993044153433</v>
+        <v>0</v>
       </c>
       <c r="D108">
-        <v>-4.124410913027545</v>
+        <v>-4.116310261981266</v>
       </c>
       <c r="E108">
-        <v>4.108012926939238</v>
+        <v>4.116310261981266</v>
       </c>
       <c r="F108">
         <v>-0.2710553450457454</v>
@@ -2557,13 +2557,13 @@
         <v>2690</v>
       </c>
       <c r="C109">
-        <v>-0.001848753859045321</v>
+        <v>0</v>
       </c>
       <c r="D109">
-        <v>-4.117307495074036</v>
+        <v>-4.115557824716817</v>
       </c>
       <c r="E109">
-        <v>4.113609987355946</v>
+        <v>4.115557824716817</v>
       </c>
       <c r="F109">
         <v>0.9262899113220868</v>
@@ -2577,13 +2577,13 @@
         <v>2691</v>
       </c>
       <c r="C110">
-        <v>0.006401759692817137</v>
+        <v>0</v>
       </c>
       <c r="D110">
-        <v>-4.108441671857625</v>
+        <v>-4.114941899837021</v>
       </c>
       <c r="E110">
-        <v>4.121245191243259</v>
+        <v>4.114941899837021</v>
       </c>
       <c r="F110">
         <v>-1.275872710530024</v>
@@ -2597,13 +2597,13 @@
         <v>2692</v>
       </c>
       <c r="C111">
-        <v>-0.00870250702434942</v>
+        <v>0</v>
       </c>
       <c r="D111">
-        <v>-4.123066726333501</v>
+        <v>-4.114459846440995</v>
       </c>
       <c r="E111">
-        <v>4.105661712284803</v>
+        <v>4.114459846440995</v>
       </c>
       <c r="F111">
         <v>-0.3117695432585776</v>
@@ -2617,13 +2617,13 @@
         <v>2693</v>
       </c>
       <c r="C112">
-        <v>-0.002101930082525384</v>
+        <v>0</v>
       </c>
       <c r="D112">
-        <v>-4.115718103299347</v>
+        <v>-4.113712711086971</v>
       </c>
       <c r="E112">
-        <v>4.111514243134296</v>
+        <v>4.113712711086971</v>
       </c>
       <c r="F112">
         <v>0.1170275148190569</v>
@@ -2637,13 +2637,13 @@
         <v>2694</v>
       </c>
       <c r="C113">
-        <v>0.0008068699529314957</v>
+        <v>0</v>
       </c>
       <c r="D113">
-        <v>-4.112048215154138</v>
+        <v>-4.112951519059916</v>
       </c>
       <c r="E113">
-        <v>4.113661955060001</v>
+        <v>4.112951519059916</v>
       </c>
       <c r="F113">
         <v>-0.7042282625413065</v>
@@ -2657,13 +2657,13 @@
         <v>2695</v>
       </c>
       <c r="C114">
-        <v>-0.004810416056345068</v>
+        <v>0</v>
       </c>
       <c r="D114">
-        <v>-4.116988531542591</v>
+        <v>-4.112274332793644</v>
       </c>
       <c r="E114">
-        <v>4.107367699429902</v>
+        <v>4.112274332793644</v>
       </c>
       <c r="F114">
         <v>0.6652343061103849</v>
@@ -2677,13 +2677,13 @@
         <v>2696</v>
       </c>
       <c r="C115">
-        <v>0.004531049181304778</v>
+        <v>0</v>
       </c>
       <c r="D115">
-        <v>-4.106962145795811</v>
+        <v>-4.111588284118146</v>
       </c>
       <c r="E115">
-        <v>4.11602424415842</v>
+        <v>4.111588284118146</v>
       </c>
       <c r="F115">
         <v>-0.7830893580548448</v>
@@ -2697,13 +2697,13 @@
         <v>2697</v>
       </c>
       <c r="C116">
-        <v>-0.005319266262118418</v>
+        <v>0</v>
       </c>
       <c r="D116">
-        <v>-4.116157618017471</v>
+        <v>-4.110932201527209</v>
       </c>
       <c r="E116">
-        <v>4.105519085493235</v>
+        <v>4.110932201527209</v>
       </c>
       <c r="F116">
         <v>-1.345489233418284</v>
@@ -2717,13 +2717,13 @@
         <v>2698</v>
       </c>
       <c r="C117">
-        <v>-0.009173745558156627</v>
+        <v>0</v>
       </c>
       <c r="D117">
-        <v>-4.119561297516052</v>
+        <v>-4.110483845460407</v>
       </c>
       <c r="E117">
-        <v>4.101213806399739</v>
+        <v>4.110483845460407</v>
       </c>
       <c r="F117">
         <v>0.6354270784607152</v>
@@ -2737,13 +2737,13 @@
         <v>2699</v>
       </c>
       <c r="C118">
-        <v>0.004325294978080889</v>
+        <v>0</v>
       </c>
       <c r="D118">
-        <v>-4.105372662331543</v>
+        <v>-4.109792211061325</v>
       </c>
       <c r="E118">
-        <v>4.114023252287705</v>
+        <v>4.109792211061325</v>
       </c>
       <c r="F118">
         <v>3.882475195230484</v>
@@ -2757,13 +2757,13 @@
         <v>2700</v>
       </c>
       <c r="C119">
-        <v>0.0270546150389271</v>
+        <v>0</v>
       </c>
       <c r="D119">
-        <v>-4.084485291246767</v>
+        <v>-4.111639974287015</v>
       </c>
       <c r="E119">
-        <v>4.138594521324621</v>
+        <v>4.111639974287015</v>
       </c>
       <c r="F119">
         <v>-1.651026176690173</v>
@@ -2777,13 +2777,13 @@
         <v>2701</v>
       </c>
       <c r="C120">
-        <v>-0.01068562751328779</v>
+        <v>0</v>
       </c>
       <c r="D120">
-        <v>-4.12195082690234</v>
+        <v>-4.111350297197882</v>
       </c>
       <c r="E120">
-        <v>4.100579571875764</v>
+        <v>4.111350297197882</v>
       </c>
       <c r="F120">
         <v>-1.129075650335487</v>
@@ -2797,13 +2797,13 @@
         <v>2702</v>
       </c>
       <c r="C121">
-        <v>-0.007399461155538588</v>
+        <v>0</v>
       </c>
       <c r="D121">
-        <v>-4.118120072915963</v>
+        <v>-4.11080988782777</v>
       </c>
       <c r="E121">
-        <v>4.103321150604885</v>
+        <v>4.11080988782777</v>
       </c>
       <c r="F121">
         <v>1.900386840208057</v>
@@ -2817,13 +2817,13 @@
         <v>2703</v>
       </c>
       <c r="C122">
-        <v>0.01220313102481389</v>
+        <v>0</v>
       </c>
       <c r="D122">
-        <v>-4.098386188185851</v>
+        <v>-4.110673768531993</v>
       </c>
       <c r="E122">
-        <v>4.122792450235478</v>
+        <v>4.110673768531993</v>
       </c>
       <c r="F122">
         <v>0.1919018051978583</v>
@@ -2837,13 +2837,13 @@
         <v>2704</v>
       </c>
       <c r="C123">
-        <v>0.001196437868062893</v>
+        <v>0</v>
       </c>
       <c r="D123">
-        <v>-4.108638298343679</v>
+        <v>-4.10991995347953</v>
       </c>
       <c r="E123">
-        <v>4.111031174079804</v>
+        <v>4.10991995347953</v>
       </c>
       <c r="F123">
         <v>0.4590673708598558</v>
@@ -2857,13 +2857,13 @@
         <v>2705</v>
       </c>
       <c r="C124">
-        <v>0.002954614504471673</v>
+        <v>0</v>
       </c>
       <c r="D124">
-        <v>-4.106156606942185</v>
+        <v>-4.109196611517859</v>
       </c>
       <c r="E124">
-        <v>4.112065835951129</v>
+        <v>4.109196611517859</v>
       </c>
       <c r="F124">
         <v>-1.074453928297814</v>
@@ -2877,13 +2877,13 @@
         <v>2706</v>
       </c>
       <c r="C125">
-        <v>-0.006888376447284133</v>
+        <v>0</v>
       </c>
       <c r="D125">
-        <v>-4.11544081905628</v>
+        <v>-4.108636720299394</v>
       </c>
       <c r="E125">
-        <v>4.101664066161712</v>
+        <v>4.108636720299394</v>
       </c>
       <c r="F125">
         <v>3.077165866675458</v>
@@ -2897,13 +2897,13 @@
         <v>2707</v>
       </c>
       <c r="C126">
-        <v>0.01885257155371416</v>
+        <v>0</v>
       </c>
       <c r="D126">
-        <v>-4.090583390457043</v>
+        <v>-4.109513037662987</v>
       </c>
       <c r="E126">
-        <v>4.128288533564472</v>
+        <v>4.109513037662987</v>
       </c>
       <c r="F126">
         <v>-2.193733963989608</v>
